--- a/Test_QC_result.xlsx
+++ b/Test_QC_result.xlsx
@@ -11,12 +11,13 @@
     <sheet name="待检-留样对比" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="2.2各文库合格标准评估" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="2.3各病原污染情况评估" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="其余信息" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="966">
   <si>
     <t xml:space="preserve">run</t>
   </si>
@@ -2905,6 +2906,15 @@
   </si>
   <si>
     <t xml:space="preserve">百日咳鲍特菌耐药</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">质检表较SampleSheet多出的样本： T2P2-QFR01-DJ-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SampleSheet较质检表多出的样本： </t>
   </si>
 </sst>
 </file>
@@ -67405,4 +67415,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Test_QC_result.xlsx
+++ b/Test_QC_result.xlsx
@@ -355,148 +355,148 @@
     <t xml:space="preserve">2.190580503833516</t>
   </si>
   <si>
+    <t xml:space="preserve">T3P3-QWP06-DJ-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2675736961451247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3P3-QWP06-DJ-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0654044750430294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3P3-QWP07-DJ-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3P3-QWP07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卡他莫拉菌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3P3-QWP07-DJ-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合格，注意人内参低</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.032258064516129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3P3-QWP07-DJ-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.079999999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7313432835820901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3P3-QWL01-DJ-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3P3-QWL01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检测限参考品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">铜绿假单胞菌|滤|20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8790786948176583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3P3-QWL01-DJ-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">铜绿假单胞菌|滤|6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5481963335304552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3P3-QWL01-DJ-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9473684210526319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3P3-QWL02-DJ-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3P3-QWL02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">铜绿假单胞菌|滤|12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7692307692307692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3P3-QWL02-DJ-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柯萨奇病毒A16型|滤|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4013605442176869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3P3-QWL02-DJ-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.079999999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5128805620608903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3P3-QWL03-DJ-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3P3-QWL03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">铜绿假单胞菌|弱阳|22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.850000000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5608308605341241</t>
+  </si>
+  <si>
     <t xml:space="preserve">不合格</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3P3-QWP06-DJ-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2675736961451247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3P3-QWP06-DJ-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0654044750430294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3P3-QWP07-DJ-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3P3-QWP07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卡他莫拉菌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3P3-QWP07-DJ-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">合格，注意人内参低</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.032258064516129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3P3-QWP07-DJ-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.079999999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7313432835820901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3P3-QWL01-DJ-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3P3-QWL01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检测限参考品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">铜绿假单胞菌|滤|20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8790786948176583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3P3-QWL01-DJ-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">铜绿假单胞菌|滤|6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5481963335304552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3P3-QWL01-DJ-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9473684210526319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3P3-QWL02-DJ-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3P3-QWL02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">铜绿假单胞菌|滤|12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7692307692307692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3P3-QWL02-DJ-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柯萨奇病毒A16型|滤|1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4013605442176869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3P3-QWL02-DJ-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.079999999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5128805620608903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3P3-QWL03-DJ-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3P3-QWL03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">铜绿假单胞菌|弱阳|22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.850000000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5608308605341241</t>
   </si>
   <si>
     <t xml:space="preserve">病原污染</t>
@@ -4054,7 +4054,7 @@
         <v>111</v>
       </c>
       <c r="AA17" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AB17"/>
     </row>
@@ -4066,7 +4066,7 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
         <v>31</v>
@@ -4132,13 +4132,13 @@
         <v>45</v>
       </c>
       <c r="Y18" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z18" t="s">
         <v>114</v>
       </c>
-      <c r="Z18" t="s">
-        <v>115</v>
-      </c>
       <c r="AA18" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AB18"/>
     </row>
@@ -4150,7 +4150,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
         <v>31</v>
@@ -4186,7 +4186,7 @@
         <v>36</v>
       </c>
       <c r="O19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P19" t="s">
         <v>38</v>
@@ -4216,10 +4216,10 @@
         <v>45</v>
       </c>
       <c r="Y19" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z19" t="s">
         <v>118</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>119</v>
       </c>
       <c r="AA19" t="s">
         <v>38</v>
@@ -4234,13 +4234,13 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
         <v>120</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" t="s">
-        <v>121</v>
       </c>
       <c r="F20" t="s">
         <v>33</v>
@@ -4252,7 +4252,7 @@
         <v>0.852135</v>
       </c>
       <c r="I20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J20" t="n">
         <v>6671</v>
@@ -4276,7 +4276,7 @@
         <v>38</v>
       </c>
       <c r="Q20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R20" t="s">
         <v>40</v>
@@ -4318,13 +4318,13 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F21" t="s">
         <v>33</v>
@@ -4336,7 +4336,7 @@
         <v>0.841546</v>
       </c>
       <c r="I21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J21" t="n">
         <v>2609</v>
@@ -4357,10 +4357,10 @@
         <v>37</v>
       </c>
       <c r="P21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R21" t="s">
         <v>40</v>
@@ -4384,10 +4384,10 @@
         <v>45</v>
       </c>
       <c r="Y21" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z21" t="s">
         <v>125</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>126</v>
       </c>
       <c r="AA21" t="s">
         <v>38</v>
@@ -4402,13 +4402,13 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
         <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F22" t="s">
         <v>33</v>
@@ -4420,7 +4420,7 @@
         <v>0.806751</v>
       </c>
       <c r="I22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J22" t="n">
         <v>5680</v>
@@ -4444,7 +4444,7 @@
         <v>38</v>
       </c>
       <c r="Q22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R22" t="s">
         <v>40</v>
@@ -4468,10 +4468,10 @@
         <v>45</v>
       </c>
       <c r="Y22" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z22" t="s">
         <v>128</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>129</v>
       </c>
       <c r="AA22" t="s">
         <v>38</v>
@@ -4486,16 +4486,16 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
         <v>130</v>
       </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>131</v>
-      </c>
-      <c r="F23" t="s">
-        <v>132</v>
       </c>
       <c r="G23" t="n">
         <v>100548</v>
@@ -4519,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O23" t="s">
         <v>37</v>
@@ -4552,10 +4552,10 @@
         <v>45</v>
       </c>
       <c r="Y23" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z23" t="s">
         <v>134</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>135</v>
       </c>
       <c r="AA23" t="s">
         <v>38</v>
@@ -4570,16 +4570,16 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D24" t="s">
         <v>31</v>
       </c>
       <c r="E24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" t="s">
         <v>131</v>
-      </c>
-      <c r="F24" t="s">
-        <v>132</v>
       </c>
       <c r="G24" t="n">
         <v>82016</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O24" t="s">
         <v>37</v>
@@ -4636,10 +4636,10 @@
         <v>45</v>
       </c>
       <c r="Y24" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z24" t="s">
         <v>138</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>139</v>
       </c>
       <c r="AA24" t="s">
         <v>38</v>
@@ -4654,16 +4654,16 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
       </c>
       <c r="E25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" t="s">
         <v>131</v>
-      </c>
-      <c r="F25" t="s">
-        <v>132</v>
       </c>
       <c r="G25" t="n">
         <v>105892</v>
@@ -4720,10 +4720,10 @@
         <v>45</v>
       </c>
       <c r="Y25" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z25" t="s">
         <v>141</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>142</v>
       </c>
       <c r="AA25" t="s">
         <v>38</v>
@@ -4738,16 +4738,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
         <v>143</v>
       </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" t="s">
-        <v>144</v>
-      </c>
       <c r="F26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G26" t="n">
         <v>90048</v>
@@ -4771,13 +4771,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O26" t="s">
         <v>37</v>
       </c>
       <c r="P26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q26" t="s">
         <v>58</v>
@@ -4804,10 +4804,10 @@
         <v>45</v>
       </c>
       <c r="Y26" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z26" t="s">
         <v>146</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>147</v>
       </c>
       <c r="AA26" t="s">
         <v>38</v>
@@ -4822,16 +4822,16 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G27" t="n">
         <v>71632</v>
@@ -4855,13 +4855,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O27" t="s">
         <v>37</v>
       </c>
       <c r="P27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q27" t="s">
         <v>58</v>
@@ -4888,10 +4888,10 @@
         <v>45</v>
       </c>
       <c r="Y27" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z27" t="s">
         <v>150</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>151</v>
       </c>
       <c r="AA27" t="s">
         <v>38</v>
@@ -4906,16 +4906,16 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G28" t="n">
         <v>102068</v>
@@ -4945,7 +4945,7 @@
         <v>37</v>
       </c>
       <c r="P28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q28" t="s">
         <v>58</v>
@@ -4972,10 +4972,10 @@
         <v>45</v>
       </c>
       <c r="Y28" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z28" t="s">
         <v>153</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>154</v>
       </c>
       <c r="AA28" t="s">
         <v>38</v>
@@ -4990,16 +4990,16 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
         <v>155</v>
       </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" t="s">
-        <v>156</v>
-      </c>
       <c r="F29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G29" t="n">
         <v>89023</v>
@@ -5023,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O29" t="s">
         <v>37</v>
@@ -5056,13 +5056,13 @@
         <v>45</v>
       </c>
       <c r="Y29" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z29" t="s">
         <v>158</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>159</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>112</v>
       </c>
       <c r="AB29" t="s">
         <v>160</v>
@@ -5082,10 +5082,10 @@
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G30" t="n">
         <v>115043</v>
@@ -5115,7 +5115,7 @@
         <v>37</v>
       </c>
       <c r="P30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q30" t="s">
         <v>70</v>
@@ -5166,10 +5166,10 @@
         <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G31" t="n">
         <v>97220</v>
@@ -5253,7 +5253,7 @@
         <v>170</v>
       </c>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G32" t="n">
         <v>113572</v>
@@ -5337,7 +5337,7 @@
         <v>170</v>
       </c>
       <c r="F33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G33" t="n">
         <v>99099</v>
@@ -5421,7 +5421,7 @@
         <v>170</v>
       </c>
       <c r="F34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G34" t="n">
         <v>100331</v>
@@ -5505,7 +5505,7 @@
         <v>183</v>
       </c>
       <c r="F35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G35" t="n">
         <v>118383</v>
@@ -5589,7 +5589,7 @@
         <v>183</v>
       </c>
       <c r="F36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G36" t="n">
         <v>98785</v>
@@ -5673,7 +5673,7 @@
         <v>183</v>
       </c>
       <c r="F37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G37" t="n">
         <v>72058</v>
@@ -5757,7 +5757,7 @@
         <v>194</v>
       </c>
       <c r="F38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G38" t="n">
         <v>92313</v>
@@ -5820,7 +5820,7 @@
         <v>196</v>
       </c>
       <c r="AA38" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AB38"/>
     </row>
@@ -5841,7 +5841,7 @@
         <v>194</v>
       </c>
       <c r="F39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G39" t="n">
         <v>96343</v>
@@ -5904,7 +5904,7 @@
         <v>199</v>
       </c>
       <c r="AA39" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AB39"/>
     </row>
@@ -5925,7 +5925,7 @@
         <v>194</v>
       </c>
       <c r="F40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G40" t="n">
         <v>53987</v>
@@ -5988,7 +5988,7 @@
         <v>202</v>
       </c>
       <c r="AA40" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AB40"/>
     </row>
@@ -6009,7 +6009,7 @@
         <v>204</v>
       </c>
       <c r="F41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G41" t="n">
         <v>112342</v>
@@ -6018,7 +6018,7 @@
         <v>0.822082</v>
       </c>
       <c r="I41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J41" t="n">
         <v>4491</v>
@@ -6042,7 +6042,7 @@
         <v>38</v>
       </c>
       <c r="Q41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R41" t="s">
         <v>40</v>
@@ -6066,10 +6066,10 @@
         <v>45</v>
       </c>
       <c r="Y41" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z41" t="s">
         <v>125</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>126</v>
       </c>
       <c r="AA41" t="s">
         <v>38</v>
@@ -6093,7 +6093,7 @@
         <v>204</v>
       </c>
       <c r="F42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G42" t="n">
         <v>134428</v>
@@ -6102,7 +6102,7 @@
         <v>0.8686</v>
       </c>
       <c r="I42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J42" t="n">
         <v>3303</v>
@@ -6126,7 +6126,7 @@
         <v>38</v>
       </c>
       <c r="Q42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R42" t="s">
         <v>40</v>
@@ -6177,7 +6177,7 @@
         <v>204</v>
       </c>
       <c r="F43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G43" t="n">
         <v>116848</v>
@@ -6186,7 +6186,7 @@
         <v>0.858649</v>
       </c>
       <c r="I43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J43" t="n">
         <v>2465</v>
@@ -6207,10 +6207,10 @@
         <v>37</v>
       </c>
       <c r="P43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R43" t="s">
         <v>40</v>
@@ -6287,7 +6287,7 @@
         <v>37</v>
       </c>
       <c r="P44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q44"/>
       <c r="R44" t="s">
@@ -6365,7 +6365,7 @@
         <v>37</v>
       </c>
       <c r="P45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q45"/>
       <c r="R45" t="s">
@@ -6443,7 +6443,7 @@
         <v>37</v>
       </c>
       <c r="P46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q46"/>
       <c r="R46" t="s">
@@ -6593,7 +6593,7 @@
         <v>9018</v>
       </c>
       <c r="N48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O48" t="s">
         <v>37</v>
@@ -6708,7 +6708,7 @@
         <v>47</v>
       </c>
       <c r="AA49" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB49" t="s">
         <v>160</v>
@@ -7022,7 +7022,7 @@
         <v>256</v>
       </c>
       <c r="AA53" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB53" t="s">
         <v>254</v>
@@ -7096,10 +7096,10 @@
         <v>45</v>
       </c>
       <c r="Y54" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z54" t="s">
         <v>114</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>115</v>
       </c>
       <c r="AA54" t="s">
         <v>38</v>
@@ -7153,7 +7153,7 @@
         <v>37</v>
       </c>
       <c r="P55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q55" t="s">
         <v>262</v>
@@ -7321,7 +7321,7 @@
         <v>37</v>
       </c>
       <c r="P57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q57" t="s">
         <v>262</v>
@@ -7588,7 +7588,7 @@
         <v>287</v>
       </c>
       <c r="AA60" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB60" t="s">
         <v>254</v>
@@ -7824,7 +7824,7 @@
         <v>301</v>
       </c>
       <c r="AA63" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB63" t="s">
         <v>254</v>
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O73" t="s">
         <v>346</v>
@@ -8659,7 +8659,7 @@
         <v>37</v>
       </c>
       <c r="P74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q74" t="s">
         <v>58</v>
@@ -8981,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O78" t="s">
         <v>37</v>
@@ -9428,7 +9428,7 @@
         <v>384</v>
       </c>
       <c r="AA83" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB83" t="s">
         <v>160</v>
@@ -9512,7 +9512,7 @@
         <v>388</v>
       </c>
       <c r="AA84" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB84" t="s">
         <v>160</v>
@@ -9860,7 +9860,7 @@
         <v>31</v>
       </c>
       <c r="E89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F89" t="s">
         <v>33</v>
@@ -9872,7 +9872,7 @@
         <v>0.83038</v>
       </c>
       <c r="I89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J89" t="n">
         <v>9413</v>
@@ -9896,7 +9896,7 @@
         <v>38</v>
       </c>
       <c r="Q89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R89" t="s">
         <v>336</v>
@@ -9942,7 +9942,7 @@
         <v>31</v>
       </c>
       <c r="E90" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F90" t="s">
         <v>33</v>
@@ -9954,7 +9954,7 @@
         <v>0.824216</v>
       </c>
       <c r="I90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J90" t="n">
         <v>10429</v>
@@ -9978,7 +9978,7 @@
         <v>38</v>
       </c>
       <c r="Q90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R90" t="s">
         <v>336</v>
@@ -10006,7 +10006,7 @@
         <v>412</v>
       </c>
       <c r="AA90" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB90" t="s">
         <v>160</v>
@@ -10026,7 +10026,7 @@
         <v>31</v>
       </c>
       <c r="E91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F91" t="s">
         <v>33</v>
@@ -10038,7 +10038,7 @@
         <v>0.857972</v>
       </c>
       <c r="I91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J91" t="n">
         <v>13768</v>
@@ -10062,7 +10062,7 @@
         <v>38</v>
       </c>
       <c r="Q91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R91" t="s">
         <v>336</v>
@@ -10108,10 +10108,10 @@
         <v>31</v>
       </c>
       <c r="E92" t="s">
+        <v>130</v>
+      </c>
+      <c r="F92" t="s">
         <v>131</v>
-      </c>
-      <c r="F92" t="s">
-        <v>132</v>
       </c>
       <c r="G92" t="n">
         <v>98641</v>
@@ -10190,10 +10190,10 @@
         <v>31</v>
       </c>
       <c r="E93" t="s">
+        <v>130</v>
+      </c>
+      <c r="F93" t="s">
         <v>131</v>
-      </c>
-      <c r="F93" t="s">
-        <v>132</v>
       </c>
       <c r="G93" t="n">
         <v>92932</v>
@@ -10272,10 +10272,10 @@
         <v>31</v>
       </c>
       <c r="E94" t="s">
+        <v>130</v>
+      </c>
+      <c r="F94" t="s">
         <v>131</v>
-      </c>
-      <c r="F94" t="s">
-        <v>132</v>
       </c>
       <c r="G94" t="n">
         <v>101464</v>
@@ -10354,10 +10354,10 @@
         <v>31</v>
       </c>
       <c r="E95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G95" t="n">
         <v>121925</v>
@@ -10387,7 +10387,7 @@
         <v>37</v>
       </c>
       <c r="P95" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q95" t="s">
         <v>58</v>
@@ -10436,10 +10436,10 @@
         <v>31</v>
       </c>
       <c r="E96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F96" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G96" t="n">
         <v>103166</v>
@@ -10469,7 +10469,7 @@
         <v>37</v>
       </c>
       <c r="P96" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q96" t="s">
         <v>58</v>
@@ -10518,10 +10518,10 @@
         <v>31</v>
       </c>
       <c r="E97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F97" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G97" t="n">
         <v>81204</v>
@@ -10600,10 +10600,10 @@
         <v>31</v>
       </c>
       <c r="E98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F98" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G98" t="n">
         <v>108816</v>
@@ -10682,10 +10682,10 @@
         <v>31</v>
       </c>
       <c r="E99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F99" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G99" t="n">
         <v>101178</v>
@@ -10764,10 +10764,10 @@
         <v>31</v>
       </c>
       <c r="E100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F100" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G100" t="n">
         <v>113679</v>
@@ -10849,7 +10849,7 @@
         <v>170</v>
       </c>
       <c r="F101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G101" t="n">
         <v>100194</v>
@@ -10879,7 +10879,7 @@
         <v>37</v>
       </c>
       <c r="P101" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q101" t="s">
         <v>83</v>
@@ -10931,7 +10931,7 @@
         <v>170</v>
       </c>
       <c r="F102" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G102" t="n">
         <v>134278</v>
@@ -10961,7 +10961,7 @@
         <v>457</v>
       </c>
       <c r="P102" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q102" t="s">
         <v>83</v>
@@ -11013,7 +11013,7 @@
         <v>170</v>
       </c>
       <c r="F103" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G103" t="n">
         <v>100056</v>
@@ -11074,7 +11074,7 @@
         <v>463</v>
       </c>
       <c r="AA103" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB103" t="s">
         <v>160</v>
@@ -11097,7 +11097,7 @@
         <v>183</v>
       </c>
       <c r="F104" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G104" t="n">
         <v>102848</v>
@@ -11179,7 +11179,7 @@
         <v>183</v>
       </c>
       <c r="F105" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G105" t="n">
         <v>88078</v>
@@ -11261,7 +11261,7 @@
         <v>183</v>
       </c>
       <c r="F106" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G106" t="n">
         <v>131017</v>
@@ -11343,7 +11343,7 @@
         <v>194</v>
       </c>
       <c r="F107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G107" t="n">
         <v>134755</v>
@@ -11425,7 +11425,7 @@
         <v>194</v>
       </c>
       <c r="F108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G108" t="n">
         <v>92930</v>
@@ -11507,7 +11507,7 @@
         <v>194</v>
       </c>
       <c r="F109" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G109" t="n">
         <v>114058</v>
@@ -11589,7 +11589,7 @@
         <v>204</v>
       </c>
       <c r="F110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G110" t="n">
         <v>72566</v>
@@ -11598,7 +11598,7 @@
         <v>0.852009</v>
       </c>
       <c r="I110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J110" t="n">
         <v>3821</v>
@@ -11622,7 +11622,7 @@
         <v>38</v>
       </c>
       <c r="Q110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R110" t="s">
         <v>336</v>
@@ -11671,7 +11671,7 @@
         <v>204</v>
       </c>
       <c r="F111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G111" t="n">
         <v>135982</v>
@@ -11680,7 +11680,7 @@
         <v>0.861151</v>
       </c>
       <c r="I111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J111" t="n">
         <v>3259</v>
@@ -11704,7 +11704,7 @@
         <v>38</v>
       </c>
       <c r="Q111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R111" t="s">
         <v>336</v>
@@ -11753,7 +11753,7 @@
         <v>204</v>
       </c>
       <c r="F112" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G112" t="n">
         <v>130133</v>
@@ -11762,7 +11762,7 @@
         <v>0.795688</v>
       </c>
       <c r="I112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J112" t="n">
         <v>3603</v>
@@ -11786,7 +11786,7 @@
         <v>38</v>
       </c>
       <c r="Q112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R112" t="s">
         <v>336</v>
@@ -11861,7 +11861,7 @@
         <v>473</v>
       </c>
       <c r="P113" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q113"/>
       <c r="R113" t="s">
@@ -11937,7 +11937,7 @@
         <v>441</v>
       </c>
       <c r="P114" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q114"/>
       <c r="R114" t="s">
@@ -12013,7 +12013,7 @@
         <v>37</v>
       </c>
       <c r="P115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q115"/>
       <c r="R115" t="s">
@@ -12574,7 +12574,7 @@
         <v>538</v>
       </c>
       <c r="AA122" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB122" t="s">
         <v>254</v>
@@ -12728,10 +12728,10 @@
         <v>45</v>
       </c>
       <c r="Y124" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z124" t="s">
         <v>150</v>
-      </c>
-      <c r="Z124" t="s">
-        <v>151</v>
       </c>
       <c r="AA124" t="s">
         <v>38</v>
@@ -13126,7 +13126,7 @@
         <v>566</v>
       </c>
       <c r="AA129" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB129" t="s">
         <v>254</v>
@@ -13356,7 +13356,7 @@
         <v>580</v>
       </c>
       <c r="AA132" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB132" t="s">
         <v>254</v>
@@ -13738,7 +13738,7 @@
         <v>603</v>
       </c>
       <c r="AA137" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB137" t="s">
         <v>160</v>
@@ -15916,7 +15916,7 @@
         <v>38</v>
       </c>
       <c r="U5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V5" t="s">
         <v>40</v>
@@ -16699,7 +16699,7 @@
         <v>38</v>
       </c>
       <c r="AA14" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB14"/>
       <c r="AC14" t="s">
@@ -16786,7 +16786,7 @@
         <v>38</v>
       </c>
       <c r="AA15" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB15"/>
       <c r="AC15" t="s">
@@ -16955,7 +16955,7 @@
         <v>395</v>
       </c>
       <c r="Z17" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s">
         <v>38</v>
@@ -16980,7 +16980,7 @@
         <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G18" t="s">
         <v>397</v>
@@ -17034,13 +17034,13 @@
         <v>336</v>
       </c>
       <c r="X18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y18" t="s">
         <v>399</v>
       </c>
       <c r="Z18" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s">
         <v>38</v>
@@ -17065,7 +17065,7 @@
         <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
         <v>401</v>
@@ -17101,7 +17101,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S19" t="s">
         <v>402</v>
@@ -17119,7 +17119,7 @@
         <v>336</v>
       </c>
       <c r="X19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y19" t="s">
         <v>403</v>
@@ -17141,16 +17141,16 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G20" t="s">
         <v>405</v>
@@ -17226,16 +17226,16 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
       </c>
       <c r="E21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" t="s">
         <v>122</v>
-      </c>
-      <c r="F21" t="s">
-        <v>123</v>
       </c>
       <c r="G21" t="s">
         <v>409</v>
@@ -17277,7 +17277,7 @@
         <v>37</v>
       </c>
       <c r="T21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U21" t="s">
         <v>38</v>
@@ -17289,7 +17289,7 @@
         <v>336</v>
       </c>
       <c r="X21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y21" t="s">
         <v>411</v>
@@ -17298,7 +17298,7 @@
         <v>38</v>
       </c>
       <c r="AA21" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB21"/>
       <c r="AC21" t="s">
@@ -17313,16 +17313,16 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G22" t="s">
         <v>413</v>
@@ -17376,7 +17376,7 @@
         <v>336</v>
       </c>
       <c r="X22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y22" t="s">
         <v>416</v>
@@ -17398,16 +17398,16 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" t="s">
         <v>131</v>
-      </c>
-      <c r="D23" t="s">
-        <v>132</v>
       </c>
       <c r="E23" t="s">
         <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23" t="s">
         <v>418</v>
@@ -17461,7 +17461,7 @@
         <v>336</v>
       </c>
       <c r="X23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y23" t="s">
         <v>419</v>
@@ -17483,16 +17483,16 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" t="s">
         <v>131</v>
-      </c>
-      <c r="D24" t="s">
-        <v>132</v>
       </c>
       <c r="E24" t="s">
         <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G24" t="s">
         <v>421</v>
@@ -17546,7 +17546,7 @@
         <v>336</v>
       </c>
       <c r="X24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y24" t="s">
         <v>422</v>
@@ -17568,16 +17568,16 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" t="s">
         <v>131</v>
-      </c>
-      <c r="D25" t="s">
-        <v>132</v>
       </c>
       <c r="E25" t="s">
         <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G25" t="s">
         <v>424</v>
@@ -17631,7 +17631,7 @@
         <v>336</v>
       </c>
       <c r="X25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y25" t="s">
         <v>426</v>
@@ -17653,16 +17653,16 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" t="s">
         <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G26" t="s">
         <v>428</v>
@@ -17704,10 +17704,10 @@
         <v>37</v>
       </c>
       <c r="T26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V26" t="s">
         <v>40</v>
@@ -17716,7 +17716,7 @@
         <v>336</v>
       </c>
       <c r="X26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y26" t="s">
         <v>430</v>
@@ -17738,16 +17738,16 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
         <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G27" t="s">
         <v>432</v>
@@ -17789,10 +17789,10 @@
         <v>37</v>
       </c>
       <c r="T27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V27" t="s">
         <v>40</v>
@@ -17801,7 +17801,7 @@
         <v>336</v>
       </c>
       <c r="X27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y27" t="s">
         <v>434</v>
@@ -17823,16 +17823,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
         <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G28" t="s">
         <v>436</v>
@@ -17874,7 +17874,7 @@
         <v>37</v>
       </c>
       <c r="T28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U28" t="s">
         <v>38</v>
@@ -17886,7 +17886,7 @@
         <v>336</v>
       </c>
       <c r="X28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y28" t="s">
         <v>438</v>
@@ -17908,16 +17908,16 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
         <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G29" t="s">
         <v>440</v>
@@ -17971,13 +17971,13 @@
         <v>336</v>
       </c>
       <c r="X29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y29" t="s">
         <v>442</v>
       </c>
       <c r="Z29" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA29" t="s">
         <v>38</v>
@@ -17995,10 +17995,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s">
         <v>70</v>
@@ -18046,7 +18046,7 @@
         <v>446</v>
       </c>
       <c r="T30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U30" t="s">
         <v>38</v>
@@ -18080,10 +18080,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
         <v>70</v>
@@ -18168,7 +18168,7 @@
         <v>170</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" t="s">
         <v>83</v>
@@ -18219,7 +18219,7 @@
         <v>38</v>
       </c>
       <c r="U32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V32" t="s">
         <v>40</v>
@@ -18253,7 +18253,7 @@
         <v>170</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s">
         <v>83</v>
@@ -18304,7 +18304,7 @@
         <v>38</v>
       </c>
       <c r="U33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V33" t="s">
         <v>40</v>
@@ -18338,7 +18338,7 @@
         <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E34" t="s">
         <v>83</v>
@@ -18407,7 +18407,7 @@
         <v>38</v>
       </c>
       <c r="AA34" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB34"/>
       <c r="AC34" t="s">
@@ -18425,7 +18425,7 @@
         <v>183</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
         <v>96</v>
@@ -18510,7 +18510,7 @@
         <v>183</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E36" t="s">
         <v>96</v>
@@ -18595,7 +18595,7 @@
         <v>183</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E37" t="s">
         <v>96</v>
@@ -18680,7 +18680,7 @@
         <v>194</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
         <v>109</v>
@@ -18746,7 +18746,7 @@
         <v>479</v>
       </c>
       <c r="Z38" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA38" t="s">
         <v>38</v>
@@ -18765,7 +18765,7 @@
         <v>194</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E39" t="s">
         <v>109</v>
@@ -18831,7 +18831,7 @@
         <v>484</v>
       </c>
       <c r="Z39" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA39" t="s">
         <v>38</v>
@@ -18850,7 +18850,7 @@
         <v>194</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s">
         <v>109</v>
@@ -18916,7 +18916,7 @@
         <v>487</v>
       </c>
       <c r="Z40" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA40" t="s">
         <v>38</v>
@@ -18935,10 +18935,10 @@
         <v>204</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F41" t="s">
         <v>203</v>
@@ -18995,7 +18995,7 @@
         <v>336</v>
       </c>
       <c r="X41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y41" t="s">
         <v>491</v>
@@ -19020,10 +19020,10 @@
         <v>204</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F42" t="s">
         <v>205</v>
@@ -19105,10 +19105,10 @@
         <v>204</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F43" t="s">
         <v>209</v>
@@ -19153,7 +19153,7 @@
         <v>406</v>
       </c>
       <c r="T43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U43" t="s">
         <v>38</v>
@@ -19234,10 +19234,10 @@
         <v>473</v>
       </c>
       <c r="T44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V44" t="s">
         <v>40</v>
@@ -19315,10 +19315,10 @@
         <v>441</v>
       </c>
       <c r="T45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V45" t="s">
         <v>40</v>
@@ -19396,10 +19396,10 @@
         <v>37</v>
       </c>
       <c r="T46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V46" t="s">
         <v>40</v>
@@ -19657,7 +19657,7 @@
         <v>519</v>
       </c>
       <c r="Z49" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA49" t="s">
         <v>38</v>
@@ -19983,10 +19983,10 @@
         <v>537</v>
       </c>
       <c r="Z53" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA53" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB53" t="s">
         <v>254</v>
@@ -20062,7 +20062,7 @@
         <v>336</v>
       </c>
       <c r="X54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y54" t="s">
         <v>542</v>
@@ -20135,7 +20135,7 @@
         <v>37</v>
       </c>
       <c r="T55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U55" t="s">
         <v>38</v>
@@ -20150,7 +20150,7 @@
         <v>264</v>
       </c>
       <c r="Y55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z55" t="s">
         <v>38</v>
@@ -20305,7 +20305,7 @@
         <v>37</v>
       </c>
       <c r="T57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U57" t="s">
         <v>38</v>
@@ -20566,10 +20566,10 @@
         <v>565</v>
       </c>
       <c r="Z60" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA60" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB60" t="s">
         <v>254</v>
@@ -20813,10 +20813,10 @@
         <v>579</v>
       </c>
       <c r="Z63" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA63" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB63" t="s">
         <v>254</v>
@@ -21225,7 +21225,7 @@
         <v>38</v>
       </c>
       <c r="AA68" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB68"/>
       <c r="AC68" t="s">
@@ -23622,7 +23622,7 @@
         <v>38</v>
       </c>
       <c r="S16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T16" t="s">
         <v>336</v>
@@ -23705,7 +23705,7 @@
         <v>38</v>
       </c>
       <c r="S17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T17" t="s">
         <v>336</v>
@@ -23790,7 +23790,7 @@
         <v>38</v>
       </c>
       <c r="S18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T18" t="s">
         <v>336</v>
@@ -26271,7 +26271,7 @@
         <v>38</v>
       </c>
       <c r="AA47" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB47"/>
       <c r="AC47"/>
@@ -26354,7 +26354,7 @@
         <v>38</v>
       </c>
       <c r="AA48" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB48"/>
       <c r="AC48"/>
@@ -26437,7 +26437,7 @@
         <v>38</v>
       </c>
       <c r="AA49" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB49"/>
       <c r="AC49"/>
@@ -26522,7 +26522,7 @@
         <v>38</v>
       </c>
       <c r="AA50" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB50"/>
       <c r="AC50"/>
@@ -26607,7 +26607,7 @@
         <v>38</v>
       </c>
       <c r="AA51" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB51"/>
       <c r="AC51"/>
@@ -26690,7 +26690,7 @@
         <v>38</v>
       </c>
       <c r="AA52" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB52"/>
       <c r="AC52"/>
@@ -26775,7 +26775,7 @@
         <v>38</v>
       </c>
       <c r="AA53" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB53"/>
       <c r="AC53"/>
@@ -26860,7 +26860,7 @@
         <v>38</v>
       </c>
       <c r="AA54" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB54"/>
       <c r="AC54"/>
@@ -26945,7 +26945,7 @@
         <v>38</v>
       </c>
       <c r="AA55" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB55"/>
       <c r="AC55"/>
@@ -27028,7 +27028,7 @@
         <v>38</v>
       </c>
       <c r="AA56" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB56"/>
       <c r="AC56"/>
@@ -27527,7 +27527,7 @@
         <v>395</v>
       </c>
       <c r="Z62" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA62" t="s">
         <v>38</v>
@@ -27614,7 +27614,7 @@
         <v>395</v>
       </c>
       <c r="Z63" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA63" t="s">
         <v>38</v>
@@ -27701,7 +27701,7 @@
         <v>395</v>
       </c>
       <c r="Z64" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA64" t="s">
         <v>38</v>
@@ -27728,7 +27728,7 @@
         <v>708</v>
       </c>
       <c r="F65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G65" t="s">
         <v>397</v>
@@ -27780,13 +27780,13 @@
         <v>709</v>
       </c>
       <c r="X65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y65" t="s">
         <v>399</v>
       </c>
       <c r="Z65" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA65" t="s">
         <v>38</v>
@@ -27813,7 +27813,7 @@
         <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G66" t="s">
         <v>397</v>
@@ -27867,13 +27867,13 @@
         <v>710</v>
       </c>
       <c r="X66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y66" t="s">
         <v>399</v>
       </c>
       <c r="Z66" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA66" t="s">
         <v>38</v>
@@ -27900,7 +27900,7 @@
         <v>109</v>
       </c>
       <c r="F67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G67" t="s">
         <v>397</v>
@@ -27954,13 +27954,13 @@
         <v>35</v>
       </c>
       <c r="X67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y67" t="s">
         <v>399</v>
       </c>
       <c r="Z67" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA67" t="s">
         <v>38</v>
@@ -27987,7 +27987,7 @@
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G68" t="s">
         <v>401</v>
@@ -28041,7 +28041,7 @@
         <v>710</v>
       </c>
       <c r="X68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y68" t="s">
         <v>403</v>
@@ -28053,7 +28053,7 @@
         <v>38</v>
       </c>
       <c r="AB68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AC68" t="s">
         <v>402</v>
@@ -28076,7 +28076,7 @@
         <v>109</v>
       </c>
       <c r="F69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G69" t="s">
         <v>401</v>
@@ -28130,7 +28130,7 @@
         <v>35</v>
       </c>
       <c r="X69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y69" t="s">
         <v>403</v>
@@ -28142,7 +28142,7 @@
         <v>38</v>
       </c>
       <c r="AB69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AC69" t="s">
         <v>402</v>
@@ -28165,7 +28165,7 @@
         <v>711</v>
       </c>
       <c r="F70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G70" t="s">
         <v>401</v>
@@ -28217,7 +28217,7 @@
         <v>709</v>
       </c>
       <c r="X70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y70" t="s">
         <v>403</v>
@@ -28229,7 +28229,7 @@
         <v>38</v>
       </c>
       <c r="AB70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AC70" t="s">
         <v>402</v>
@@ -28243,16 +28243,16 @@
         <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D71" t="s">
         <v>33</v>
       </c>
       <c r="E71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G71" t="s">
         <v>405</v>
@@ -28330,7 +28330,7 @@
         <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D72" t="s">
         <v>33</v>
@@ -28339,7 +28339,7 @@
         <v>708</v>
       </c>
       <c r="F72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G72" t="s">
         <v>405</v>
@@ -28415,7 +28415,7 @@
         <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D73" t="s">
         <v>33</v>
@@ -28424,7 +28424,7 @@
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G73" t="s">
         <v>405</v>
@@ -28502,7 +28502,7 @@
         <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D74" t="s">
         <v>33</v>
@@ -28511,7 +28511,7 @@
         <v>711</v>
       </c>
       <c r="F74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G74" t="s">
         <v>405</v>
@@ -28587,16 +28587,16 @@
         <v>31</v>
       </c>
       <c r="C75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D75" t="s">
         <v>33</v>
       </c>
       <c r="E75" t="s">
+        <v>121</v>
+      </c>
+      <c r="F75" t="s">
         <v>122</v>
-      </c>
-      <c r="F75" t="s">
-        <v>123</v>
       </c>
       <c r="G75" t="s">
         <v>409</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="R75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S75" t="s">
         <v>38</v>
@@ -28650,7 +28650,7 @@
         <v>35</v>
       </c>
       <c r="X75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y75" t="s">
         <v>411</v>
@@ -28659,7 +28659,7 @@
         <v>38</v>
       </c>
       <c r="AA75" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB75"/>
       <c r="AC75"/>
@@ -28672,7 +28672,7 @@
         <v>31</v>
       </c>
       <c r="C76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D76" t="s">
         <v>33</v>
@@ -28681,7 +28681,7 @@
         <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G76" t="s">
         <v>409</v>
@@ -28717,7 +28717,7 @@
         <v>0</v>
       </c>
       <c r="R76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S76" t="s">
         <v>38</v>
@@ -28735,7 +28735,7 @@
         <v>710</v>
       </c>
       <c r="X76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y76" t="s">
         <v>411</v>
@@ -28744,7 +28744,7 @@
         <v>38</v>
       </c>
       <c r="AA76" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB76"/>
       <c r="AC76"/>
@@ -28757,7 +28757,7 @@
         <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D77" t="s">
         <v>33</v>
@@ -28766,7 +28766,7 @@
         <v>711</v>
       </c>
       <c r="F77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G77" t="s">
         <v>409</v>
@@ -28802,7 +28802,7 @@
         <v>0</v>
       </c>
       <c r="R77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S77" t="s">
         <v>38</v>
@@ -28820,7 +28820,7 @@
         <v>709</v>
       </c>
       <c r="X77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y77" t="s">
         <v>411</v>
@@ -28829,7 +28829,7 @@
         <v>38</v>
       </c>
       <c r="AA77" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB77"/>
       <c r="AC77"/>
@@ -28842,7 +28842,7 @@
         <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D78" t="s">
         <v>33</v>
@@ -28851,7 +28851,7 @@
         <v>712</v>
       </c>
       <c r="F78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G78" t="s">
         <v>409</v>
@@ -28887,7 +28887,7 @@
         <v>0</v>
       </c>
       <c r="R78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S78" t="s">
         <v>38</v>
@@ -28903,7 +28903,7 @@
         <v>714</v>
       </c>
       <c r="X78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y78" t="s">
         <v>411</v>
@@ -28912,7 +28912,7 @@
         <v>38</v>
       </c>
       <c r="AA78" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB78"/>
       <c r="AC78"/>
@@ -28925,16 +28925,16 @@
         <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D79" t="s">
         <v>33</v>
       </c>
       <c r="E79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G79" t="s">
         <v>413</v>
@@ -28988,7 +28988,7 @@
         <v>35</v>
       </c>
       <c r="X79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y79" t="s">
         <v>416</v>
@@ -29012,7 +29012,7 @@
         <v>31</v>
       </c>
       <c r="C80" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D80" t="s">
         <v>33</v>
@@ -29021,7 +29021,7 @@
         <v>708</v>
       </c>
       <c r="F80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G80" t="s">
         <v>413</v>
@@ -29073,7 +29073,7 @@
         <v>709</v>
       </c>
       <c r="X80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y80" t="s">
         <v>416</v>
@@ -29097,7 +29097,7 @@
         <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D81" t="s">
         <v>33</v>
@@ -29106,7 +29106,7 @@
         <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G81" t="s">
         <v>413</v>
@@ -29160,7 +29160,7 @@
         <v>710</v>
       </c>
       <c r="X81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y81" t="s">
         <v>416</v>
@@ -29184,7 +29184,7 @@
         <v>31</v>
       </c>
       <c r="C82" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D82" t="s">
         <v>33</v>
@@ -29193,7 +29193,7 @@
         <v>711</v>
       </c>
       <c r="F82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G82" t="s">
         <v>413</v>
@@ -29245,7 +29245,7 @@
         <v>709</v>
       </c>
       <c r="X82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y82" t="s">
         <v>416</v>
@@ -29269,16 +29269,16 @@
         <v>31</v>
       </c>
       <c r="C83" t="s">
+        <v>130</v>
+      </c>
+      <c r="D83" t="s">
         <v>131</v>
-      </c>
-      <c r="D83" t="s">
-        <v>132</v>
       </c>
       <c r="E83" t="s">
         <v>716</v>
       </c>
       <c r="F83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G83" t="s">
         <v>418</v>
@@ -29330,7 +29330,7 @@
       </c>
       <c r="W83"/>
       <c r="X83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y83" t="s">
         <v>419</v>
@@ -29352,16 +29352,16 @@
         <v>31</v>
       </c>
       <c r="C84" t="s">
+        <v>130</v>
+      </c>
+      <c r="D84" t="s">
         <v>131</v>
-      </c>
-      <c r="D84" t="s">
-        <v>132</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G84" t="s">
         <v>418</v>
@@ -29415,7 +29415,7 @@
         <v>710</v>
       </c>
       <c r="X84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y84" t="s">
         <v>419</v>
@@ -29437,16 +29437,16 @@
         <v>31</v>
       </c>
       <c r="C85" t="s">
+        <v>130</v>
+      </c>
+      <c r="D85" t="s">
         <v>131</v>
-      </c>
-      <c r="D85" t="s">
-        <v>132</v>
       </c>
       <c r="E85" t="s">
         <v>34</v>
       </c>
       <c r="F85" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G85" t="s">
         <v>418</v>
@@ -29500,7 +29500,7 @@
         <v>35</v>
       </c>
       <c r="X85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y85" t="s">
         <v>419</v>
@@ -29522,16 +29522,16 @@
         <v>31</v>
       </c>
       <c r="C86" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" t="s">
         <v>131</v>
-      </c>
-      <c r="D86" t="s">
-        <v>132</v>
       </c>
       <c r="E86" t="s">
         <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G86" t="s">
         <v>418</v>
@@ -29585,7 +29585,7 @@
         <v>35</v>
       </c>
       <c r="X86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y86" t="s">
         <v>419</v>
@@ -29607,16 +29607,16 @@
         <v>31</v>
       </c>
       <c r="C87" t="s">
+        <v>130</v>
+      </c>
+      <c r="D87" t="s">
         <v>131</v>
-      </c>
-      <c r="D87" t="s">
-        <v>132</v>
       </c>
       <c r="E87" t="s">
         <v>711</v>
       </c>
       <c r="F87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G87" t="s">
         <v>418</v>
@@ -29670,7 +29670,7 @@
         <v>709</v>
       </c>
       <c r="X87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y87" t="s">
         <v>419</v>
@@ -29692,16 +29692,16 @@
         <v>31</v>
       </c>
       <c r="C88" t="s">
+        <v>130</v>
+      </c>
+      <c r="D88" t="s">
         <v>131</v>
-      </c>
-      <c r="D88" t="s">
-        <v>132</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G88" t="s">
         <v>421</v>
@@ -29755,7 +29755,7 @@
         <v>710</v>
       </c>
       <c r="X88" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y88" t="s">
         <v>422</v>
@@ -29777,16 +29777,16 @@
         <v>31</v>
       </c>
       <c r="C89" t="s">
+        <v>130</v>
+      </c>
+      <c r="D89" t="s">
         <v>131</v>
-      </c>
-      <c r="D89" t="s">
-        <v>132</v>
       </c>
       <c r="E89" t="s">
         <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G89" t="s">
         <v>421</v>
@@ -29840,7 +29840,7 @@
         <v>35</v>
       </c>
       <c r="X89" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y89" t="s">
         <v>422</v>
@@ -29862,16 +29862,16 @@
         <v>31</v>
       </c>
       <c r="C90" t="s">
+        <v>130</v>
+      </c>
+      <c r="D90" t="s">
         <v>131</v>
-      </c>
-      <c r="D90" t="s">
-        <v>132</v>
       </c>
       <c r="E90" t="s">
         <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G90" t="s">
         <v>421</v>
@@ -29925,7 +29925,7 @@
         <v>35</v>
       </c>
       <c r="X90" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y90" t="s">
         <v>422</v>
@@ -29947,16 +29947,16 @@
         <v>31</v>
       </c>
       <c r="C91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D91" t="s">
         <v>131</v>
-      </c>
-      <c r="D91" t="s">
-        <v>132</v>
       </c>
       <c r="E91" t="s">
         <v>711</v>
       </c>
       <c r="F91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G91" t="s">
         <v>421</v>
@@ -30010,7 +30010,7 @@
         <v>709</v>
       </c>
       <c r="X91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y91" t="s">
         <v>422</v>
@@ -30032,16 +30032,16 @@
         <v>31</v>
       </c>
       <c r="C92" t="s">
+        <v>130</v>
+      </c>
+      <c r="D92" t="s">
         <v>131</v>
-      </c>
-      <c r="D92" t="s">
-        <v>132</v>
       </c>
       <c r="E92" t="s">
         <v>708</v>
       </c>
       <c r="F92" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G92" t="s">
         <v>424</v>
@@ -30093,7 +30093,7 @@
         <v>709</v>
       </c>
       <c r="X92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y92" t="s">
         <v>426</v>
@@ -30115,16 +30115,16 @@
         <v>31</v>
       </c>
       <c r="C93" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" t="s">
         <v>131</v>
-      </c>
-      <c r="D93" t="s">
-        <v>132</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G93" t="s">
         <v>424</v>
@@ -30178,7 +30178,7 @@
         <v>710</v>
       </c>
       <c r="X93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y93" t="s">
         <v>426</v>
@@ -30200,16 +30200,16 @@
         <v>31</v>
       </c>
       <c r="C94" t="s">
+        <v>130</v>
+      </c>
+      <c r="D94" t="s">
         <v>131</v>
-      </c>
-      <c r="D94" t="s">
-        <v>132</v>
       </c>
       <c r="E94" t="s">
         <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G94" t="s">
         <v>424</v>
@@ -30263,7 +30263,7 @@
         <v>35</v>
       </c>
       <c r="X94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y94" t="s">
         <v>426</v>
@@ -30285,16 +30285,16 @@
         <v>31</v>
       </c>
       <c r="C95" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" t="s">
         <v>131</v>
-      </c>
-      <c r="D95" t="s">
-        <v>132</v>
       </c>
       <c r="E95" t="s">
         <v>39</v>
       </c>
       <c r="F95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G95" t="s">
         <v>424</v>
@@ -30348,7 +30348,7 @@
         <v>35</v>
       </c>
       <c r="X95" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y95" t="s">
         <v>426</v>
@@ -30370,16 +30370,16 @@
         <v>31</v>
       </c>
       <c r="C96" t="s">
+        <v>130</v>
+      </c>
+      <c r="D96" t="s">
         <v>131</v>
-      </c>
-      <c r="D96" t="s">
-        <v>132</v>
       </c>
       <c r="E96" t="s">
         <v>711</v>
       </c>
       <c r="F96" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G96" t="s">
         <v>424</v>
@@ -30431,7 +30431,7 @@
         <v>709</v>
       </c>
       <c r="X96" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y96" t="s">
         <v>426</v>
@@ -30453,16 +30453,16 @@
         <v>31</v>
       </c>
       <c r="C97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D97" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E97" t="s">
         <v>708</v>
       </c>
       <c r="F97" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G97" t="s">
         <v>428</v>
@@ -30498,10 +30498,10 @@
         <v>0</v>
       </c>
       <c r="R97" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S97" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T97" t="s">
         <v>336</v>
@@ -30514,7 +30514,7 @@
         <v>709</v>
       </c>
       <c r="X97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y97" t="s">
         <v>430</v>
@@ -30536,16 +30536,16 @@
         <v>31</v>
       </c>
       <c r="C98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D98" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G98" t="s">
         <v>428</v>
@@ -30581,10 +30581,10 @@
         <v>0</v>
       </c>
       <c r="R98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T98" t="s">
         <v>336</v>
@@ -30599,7 +30599,7 @@
         <v>710</v>
       </c>
       <c r="X98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y98" t="s">
         <v>430</v>
@@ -30621,16 +30621,16 @@
         <v>31</v>
       </c>
       <c r="C99" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E99" t="s">
         <v>58</v>
       </c>
       <c r="F99" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G99" t="s">
         <v>428</v>
@@ -30666,10 +30666,10 @@
         <v>0</v>
       </c>
       <c r="R99" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S99" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T99" t="s">
         <v>336</v>
@@ -30684,7 +30684,7 @@
         <v>35</v>
       </c>
       <c r="X99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y99" t="s">
         <v>430</v>
@@ -30706,16 +30706,16 @@
         <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D100" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E100" t="s">
         <v>711</v>
       </c>
       <c r="F100" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G100" t="s">
         <v>428</v>
@@ -30751,10 +30751,10 @@
         <v>0</v>
       </c>
       <c r="R100" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S100" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T100" t="s">
         <v>336</v>
@@ -30769,7 +30769,7 @@
         <v>709</v>
       </c>
       <c r="X100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y100" t="s">
         <v>430</v>
@@ -30791,16 +30791,16 @@
         <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E101" t="s">
         <v>708</v>
       </c>
       <c r="F101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G101" t="s">
         <v>432</v>
@@ -30836,10 +30836,10 @@
         <v>0</v>
       </c>
       <c r="R101" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S101" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T101" t="s">
         <v>336</v>
@@ -30852,7 +30852,7 @@
         <v>709</v>
       </c>
       <c r="X101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y101" t="s">
         <v>434</v>
@@ -30874,16 +30874,16 @@
         <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D102" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G102" t="s">
         <v>432</v>
@@ -30919,10 +30919,10 @@
         <v>0</v>
       </c>
       <c r="R102" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S102" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T102" t="s">
         <v>336</v>
@@ -30937,7 +30937,7 @@
         <v>710</v>
       </c>
       <c r="X102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y102" t="s">
         <v>434</v>
@@ -30959,16 +30959,16 @@
         <v>31</v>
       </c>
       <c r="C103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D103" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E103" t="s">
         <v>717</v>
       </c>
       <c r="F103" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G103" t="s">
         <v>432</v>
@@ -31004,10 +31004,10 @@
         <v>0</v>
       </c>
       <c r="R103" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S103" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T103" t="s">
         <v>336</v>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="W103"/>
       <c r="X103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y103" t="s">
         <v>434</v>
@@ -31042,16 +31042,16 @@
         <v>31</v>
       </c>
       <c r="C104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D104" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E104" t="s">
         <v>58</v>
       </c>
       <c r="F104" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G104" t="s">
         <v>432</v>
@@ -31087,10 +31087,10 @@
         <v>0</v>
       </c>
       <c r="R104" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S104" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T104" t="s">
         <v>336</v>
@@ -31105,7 +31105,7 @@
         <v>35</v>
       </c>
       <c r="X104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y104" t="s">
         <v>434</v>
@@ -31127,16 +31127,16 @@
         <v>31</v>
       </c>
       <c r="C105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D105" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E105" t="s">
         <v>711</v>
       </c>
       <c r="F105" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G105" t="s">
         <v>432</v>
@@ -31172,10 +31172,10 @@
         <v>0</v>
       </c>
       <c r="R105" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S105" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T105" t="s">
         <v>336</v>
@@ -31188,7 +31188,7 @@
         <v>709</v>
       </c>
       <c r="X105" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y105" t="s">
         <v>434</v>
@@ -31210,16 +31210,16 @@
         <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D106" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E106" t="s">
         <v>708</v>
       </c>
       <c r="F106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G106" t="s">
         <v>436</v>
@@ -31255,7 +31255,7 @@
         <v>0</v>
       </c>
       <c r="R106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S106" t="s">
         <v>38</v>
@@ -31271,7 +31271,7 @@
         <v>709</v>
       </c>
       <c r="X106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y106" t="s">
         <v>438</v>
@@ -31293,16 +31293,16 @@
         <v>31</v>
       </c>
       <c r="C107" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G107" t="s">
         <v>436</v>
@@ -31338,7 +31338,7 @@
         <v>0</v>
       </c>
       <c r="R107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S107" t="s">
         <v>38</v>
@@ -31356,7 +31356,7 @@
         <v>710</v>
       </c>
       <c r="X107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y107" t="s">
         <v>438</v>
@@ -31378,16 +31378,16 @@
         <v>31</v>
       </c>
       <c r="C108" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E108" t="s">
         <v>58</v>
       </c>
       <c r="F108" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G108" t="s">
         <v>436</v>
@@ -31423,7 +31423,7 @@
         <v>0</v>
       </c>
       <c r="R108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S108" t="s">
         <v>38</v>
@@ -31441,7 +31441,7 @@
         <v>35</v>
       </c>
       <c r="X108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y108" t="s">
         <v>438</v>
@@ -31463,16 +31463,16 @@
         <v>31</v>
       </c>
       <c r="C109" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D109" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E109" t="s">
         <v>711</v>
       </c>
       <c r="F109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G109" t="s">
         <v>436</v>
@@ -31508,7 +31508,7 @@
         <v>0</v>
       </c>
       <c r="R109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S109" t="s">
         <v>38</v>
@@ -31524,7 +31524,7 @@
         <v>709</v>
       </c>
       <c r="X109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y109" t="s">
         <v>438</v>
@@ -31546,16 +31546,16 @@
         <v>31</v>
       </c>
       <c r="C110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E110" t="s">
         <v>70</v>
       </c>
       <c r="F110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G110" t="s">
         <v>440</v>
@@ -31609,13 +31609,13 @@
         <v>35</v>
       </c>
       <c r="X110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y110" t="s">
         <v>442</v>
       </c>
       <c r="Z110" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA110" t="s">
         <v>38</v>
@@ -31633,16 +31633,16 @@
         <v>31</v>
       </c>
       <c r="C111" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E111" t="s">
         <v>708</v>
       </c>
       <c r="F111" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G111" t="s">
         <v>440</v>
@@ -31694,13 +31694,13 @@
         <v>709</v>
       </c>
       <c r="X111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y111" t="s">
         <v>442</v>
       </c>
       <c r="Z111" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA111" t="s">
         <v>38</v>
@@ -31718,16 +31718,16 @@
         <v>31</v>
       </c>
       <c r="C112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D112" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G112" t="s">
         <v>440</v>
@@ -31781,13 +31781,13 @@
         <v>710</v>
       </c>
       <c r="X112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y112" t="s">
         <v>442</v>
       </c>
       <c r="Z112" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA112" t="s">
         <v>38</v>
@@ -31805,16 +31805,16 @@
         <v>31</v>
       </c>
       <c r="C113" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D113" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E113" t="s">
         <v>711</v>
       </c>
       <c r="F113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G113" t="s">
         <v>440</v>
@@ -31866,13 +31866,13 @@
       </c>
       <c r="W113"/>
       <c r="X113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y113" t="s">
         <v>442</v>
       </c>
       <c r="Z113" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA113" t="s">
         <v>38</v>
@@ -31890,10 +31890,10 @@
         <v>31</v>
       </c>
       <c r="C114" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E114" t="s">
         <v>70</v>
@@ -31935,7 +31935,7 @@
         <v>0</v>
       </c>
       <c r="R114" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S114" t="s">
         <v>38</v>
@@ -31977,10 +31977,10 @@
         <v>31</v>
       </c>
       <c r="C115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D115" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E115" t="s">
         <v>708</v>
@@ -32022,7 +32022,7 @@
         <v>0</v>
       </c>
       <c r="R115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S115" t="s">
         <v>38</v>
@@ -32064,10 +32064,10 @@
         <v>31</v>
       </c>
       <c r="C116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
@@ -32109,7 +32109,7 @@
         <v>0</v>
       </c>
       <c r="R116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S116" t="s">
         <v>38</v>
@@ -32151,10 +32151,10 @@
         <v>31</v>
       </c>
       <c r="C117" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D117" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E117" t="s">
         <v>711</v>
@@ -32196,7 +32196,7 @@
         <v>0</v>
       </c>
       <c r="R117" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S117" t="s">
         <v>38</v>
@@ -32238,10 +32238,10 @@
         <v>31</v>
       </c>
       <c r="C118" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D118" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E118" t="s">
         <v>70</v>
@@ -32323,10 +32323,10 @@
         <v>31</v>
       </c>
       <c r="C119" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D119" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E119" t="s">
         <v>708</v>
@@ -32406,10 +32406,10 @@
         <v>31</v>
       </c>
       <c r="C120" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D120" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -32491,10 +32491,10 @@
         <v>31</v>
       </c>
       <c r="C121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D121" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E121" t="s">
         <v>711</v>
@@ -32579,7 +32579,7 @@
         <v>170</v>
       </c>
       <c r="D122" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E122" t="s">
         <v>83</v>
@@ -32624,7 +32624,7 @@
         <v>38</v>
       </c>
       <c r="S122" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T122" t="s">
         <v>336</v>
@@ -32664,7 +32664,7 @@
         <v>170</v>
       </c>
       <c r="D123" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E123" t="s">
         <v>708</v>
@@ -32709,7 +32709,7 @@
         <v>38</v>
       </c>
       <c r="S123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T123" t="s">
         <v>336</v>
@@ -32749,7 +32749,7 @@
         <v>170</v>
       </c>
       <c r="D124" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
@@ -32794,7 +32794,7 @@
         <v>38</v>
       </c>
       <c r="S124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T124" t="s">
         <v>336</v>
@@ -32834,7 +32834,7 @@
         <v>170</v>
       </c>
       <c r="D125" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E125" t="s">
         <v>711</v>
@@ -32879,7 +32879,7 @@
         <v>38</v>
       </c>
       <c r="S125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T125" t="s">
         <v>336</v>
@@ -32917,7 +32917,7 @@
         <v>170</v>
       </c>
       <c r="D126" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E126" t="s">
         <v>718</v>
@@ -32962,7 +32962,7 @@
         <v>38</v>
       </c>
       <c r="S126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T126" t="s">
         <v>336</v>
@@ -33002,7 +33002,7 @@
         <v>170</v>
       </c>
       <c r="D127" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E127" t="s">
         <v>83</v>
@@ -33047,7 +33047,7 @@
         <v>38</v>
       </c>
       <c r="S127" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T127" t="s">
         <v>336</v>
@@ -33089,7 +33089,7 @@
         <v>170</v>
       </c>
       <c r="D128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E128" t="s">
         <v>708</v>
@@ -33134,7 +33134,7 @@
         <v>38</v>
       </c>
       <c r="S128" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T128" t="s">
         <v>336</v>
@@ -33174,7 +33174,7 @@
         <v>170</v>
       </c>
       <c r="D129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
@@ -33219,7 +33219,7 @@
         <v>38</v>
       </c>
       <c r="S129" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T129" t="s">
         <v>336</v>
@@ -33261,7 +33261,7 @@
         <v>170</v>
       </c>
       <c r="D130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E130" t="s">
         <v>711</v>
@@ -33306,7 +33306,7 @@
         <v>38</v>
       </c>
       <c r="S130" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T130" t="s">
         <v>336</v>
@@ -33346,7 +33346,7 @@
         <v>170</v>
       </c>
       <c r="D131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E131" t="s">
         <v>83</v>
@@ -33415,7 +33415,7 @@
         <v>38</v>
       </c>
       <c r="AA131" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB131"/>
       <c r="AC131" t="s">
@@ -33433,7 +33433,7 @@
         <v>170</v>
       </c>
       <c r="D132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E132" t="s">
         <v>708</v>
@@ -33500,7 +33500,7 @@
         <v>38</v>
       </c>
       <c r="AA132" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB132"/>
       <c r="AC132" t="s">
@@ -33518,7 +33518,7 @@
         <v>170</v>
       </c>
       <c r="D133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E133" t="s">
         <v>11</v>
@@ -33587,7 +33587,7 @@
         <v>38</v>
       </c>
       <c r="AA133" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB133"/>
       <c r="AC133" t="s">
@@ -33605,7 +33605,7 @@
         <v>170</v>
       </c>
       <c r="D134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E134" t="s">
         <v>711</v>
@@ -33674,7 +33674,7 @@
         <v>38</v>
       </c>
       <c r="AA134" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB134"/>
       <c r="AC134" t="s">
@@ -33692,7 +33692,7 @@
         <v>183</v>
       </c>
       <c r="D135" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E135" t="s">
         <v>708</v>
@@ -33777,7 +33777,7 @@
         <v>183</v>
       </c>
       <c r="D136" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E136" t="s">
         <v>11</v>
@@ -33862,7 +33862,7 @@
         <v>183</v>
       </c>
       <c r="D137" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E137" t="s">
         <v>96</v>
@@ -33947,7 +33947,7 @@
         <v>183</v>
       </c>
       <c r="D138" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E138" t="s">
         <v>711</v>
@@ -34032,7 +34032,7 @@
         <v>183</v>
       </c>
       <c r="D139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E139" t="s">
         <v>708</v>
@@ -34117,7 +34117,7 @@
         <v>183</v>
       </c>
       <c r="D140" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
@@ -34204,7 +34204,7 @@
         <v>183</v>
       </c>
       <c r="D141" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E141" t="s">
         <v>96</v>
@@ -34291,7 +34291,7 @@
         <v>183</v>
       </c>
       <c r="D142" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E142" t="s">
         <v>708</v>
@@ -34376,7 +34376,7 @@
         <v>183</v>
       </c>
       <c r="D143" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E143" t="s">
         <v>11</v>
@@ -34463,7 +34463,7 @@
         <v>183</v>
       </c>
       <c r="D144" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E144" t="s">
         <v>96</v>
@@ -34550,7 +34550,7 @@
         <v>183</v>
       </c>
       <c r="D145" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E145" t="s">
         <v>711</v>
@@ -34637,7 +34637,7 @@
         <v>194</v>
       </c>
       <c r="D146" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E146" t="s">
         <v>708</v>
@@ -34701,7 +34701,7 @@
         <v>479</v>
       </c>
       <c r="Z146" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA146" t="s">
         <v>38</v>
@@ -34722,7 +34722,7 @@
         <v>194</v>
       </c>
       <c r="D147" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E147" t="s">
         <v>11</v>
@@ -34788,7 +34788,7 @@
         <v>479</v>
       </c>
       <c r="Z147" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA147" t="s">
         <v>38</v>
@@ -34809,7 +34809,7 @@
         <v>194</v>
       </c>
       <c r="D148" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E148" t="s">
         <v>109</v>
@@ -34875,7 +34875,7 @@
         <v>479</v>
       </c>
       <c r="Z148" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA148" t="s">
         <v>38</v>
@@ -34896,7 +34896,7 @@
         <v>194</v>
       </c>
       <c r="D149" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E149" t="s">
         <v>711</v>
@@ -34960,7 +34960,7 @@
         <v>479</v>
       </c>
       <c r="Z149" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA149" t="s">
         <v>38</v>
@@ -34981,7 +34981,7 @@
         <v>194</v>
       </c>
       <c r="D150" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E150" t="s">
         <v>708</v>
@@ -35045,7 +35045,7 @@
         <v>484</v>
       </c>
       <c r="Z150" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA150" t="s">
         <v>38</v>
@@ -35066,7 +35066,7 @@
         <v>194</v>
       </c>
       <c r="D151" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E151" t="s">
         <v>11</v>
@@ -35132,7 +35132,7 @@
         <v>484</v>
       </c>
       <c r="Z151" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA151" t="s">
         <v>38</v>
@@ -35153,7 +35153,7 @@
         <v>194</v>
       </c>
       <c r="D152" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E152" t="s">
         <v>109</v>
@@ -35219,7 +35219,7 @@
         <v>484</v>
       </c>
       <c r="Z152" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA152" t="s">
         <v>38</v>
@@ -35240,7 +35240,7 @@
         <v>194</v>
       </c>
       <c r="D153" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E153" t="s">
         <v>711</v>
@@ -35306,7 +35306,7 @@
         <v>484</v>
       </c>
       <c r="Z153" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA153" t="s">
         <v>38</v>
@@ -35327,7 +35327,7 @@
         <v>194</v>
       </c>
       <c r="D154" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E154" t="s">
         <v>708</v>
@@ -35391,7 +35391,7 @@
         <v>487</v>
       </c>
       <c r="Z154" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA154" t="s">
         <v>38</v>
@@ -35412,7 +35412,7 @@
         <v>194</v>
       </c>
       <c r="D155" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -35478,7 +35478,7 @@
         <v>487</v>
       </c>
       <c r="Z155" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA155" t="s">
         <v>38</v>
@@ -35499,7 +35499,7 @@
         <v>194</v>
       </c>
       <c r="D156" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E156" t="s">
         <v>109</v>
@@ -35565,7 +35565,7 @@
         <v>487</v>
       </c>
       <c r="Z156" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AA156" t="s">
         <v>38</v>
@@ -35586,10 +35586,10 @@
         <v>204</v>
       </c>
       <c r="D157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E157" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F157" t="s">
         <v>203</v>
@@ -35646,7 +35646,7 @@
         <v>35</v>
       </c>
       <c r="X157" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y157" t="s">
         <v>491</v>
@@ -35671,7 +35671,7 @@
         <v>204</v>
       </c>
       <c r="D158" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E158" t="s">
         <v>708</v>
@@ -35729,7 +35729,7 @@
         <v>709</v>
       </c>
       <c r="X158" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y158" t="s">
         <v>491</v>
@@ -35754,7 +35754,7 @@
         <v>204</v>
       </c>
       <c r="D159" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E159" t="s">
         <v>11</v>
@@ -35814,7 +35814,7 @@
         <v>710</v>
       </c>
       <c r="X159" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y159" t="s">
         <v>491</v>
@@ -35839,7 +35839,7 @@
         <v>204</v>
       </c>
       <c r="D160" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E160" t="s">
         <v>711</v>
@@ -35899,7 +35899,7 @@
         <v>709</v>
       </c>
       <c r="X160" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y160" t="s">
         <v>491</v>
@@ -35924,10 +35924,10 @@
         <v>204</v>
       </c>
       <c r="D161" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E161" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F161" t="s">
         <v>205</v>
@@ -36011,7 +36011,7 @@
         <v>204</v>
       </c>
       <c r="D162" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E162" t="s">
         <v>708</v>
@@ -36096,7 +36096,7 @@
         <v>204</v>
       </c>
       <c r="D163" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E163" t="s">
         <v>11</v>
@@ -36183,7 +36183,7 @@
         <v>204</v>
       </c>
       <c r="D164" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E164" t="s">
         <v>109</v>
@@ -36268,7 +36268,7 @@
         <v>204</v>
       </c>
       <c r="D165" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E165" t="s">
         <v>711</v>
@@ -36355,10 +36355,10 @@
         <v>204</v>
       </c>
       <c r="D166" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E166" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F166" t="s">
         <v>209</v>
@@ -36397,7 +36397,7 @@
         <v>0</v>
       </c>
       <c r="R166" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S166" t="s">
         <v>38</v>
@@ -36442,7 +36442,7 @@
         <v>204</v>
       </c>
       <c r="D167" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E167" t="s">
         <v>708</v>
@@ -36484,7 +36484,7 @@
         <v>0</v>
       </c>
       <c r="R167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S167" t="s">
         <v>38</v>
@@ -36527,7 +36527,7 @@
         <v>204</v>
       </c>
       <c r="D168" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E168" t="s">
         <v>11</v>
@@ -36569,7 +36569,7 @@
         <v>0</v>
       </c>
       <c r="R168" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S168" t="s">
         <v>38</v>
@@ -36614,7 +36614,7 @@
         <v>204</v>
       </c>
       <c r="D169" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E169" t="s">
         <v>711</v>
@@ -36656,7 +36656,7 @@
         <v>0</v>
       </c>
       <c r="R169" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S169" t="s">
         <v>38</v>
@@ -36741,10 +36741,10 @@
         <v>0</v>
       </c>
       <c r="R170" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S170" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T170" t="s">
         <v>336</v>
@@ -36826,10 +36826,10 @@
         <v>0</v>
       </c>
       <c r="R171" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S171" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T171" t="s">
         <v>336</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="R172" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S172" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T172" t="s">
         <v>336</v>
@@ -36998,10 +36998,10 @@
         <v>0</v>
       </c>
       <c r="R173" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S173" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T173" t="s">
         <v>336</v>
@@ -37085,10 +37085,10 @@
         <v>0</v>
       </c>
       <c r="R174" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S174" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T174" t="s">
         <v>336</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="R175" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S175" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T175" t="s">
         <v>336</v>
@@ -37253,10 +37253,10 @@
         <v>0</v>
       </c>
       <c r="R176" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S176" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T176" t="s">
         <v>336</v>
@@ -38295,7 +38295,7 @@
         <v>519</v>
       </c>
       <c r="Z188" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA188" t="s">
         <v>38</v>
@@ -38380,7 +38380,7 @@
         <v>519</v>
       </c>
       <c r="Z189" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA189" t="s">
         <v>38</v>
@@ -38465,7 +38465,7 @@
         <v>519</v>
       </c>
       <c r="Z190" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA190" t="s">
         <v>38</v>
@@ -38548,7 +38548,7 @@
         <v>519</v>
       </c>
       <c r="Z191" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA191" t="s">
         <v>38</v>
@@ -38633,7 +38633,7 @@
         <v>519</v>
       </c>
       <c r="Z192" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA192" t="s">
         <v>38</v>
@@ -38718,7 +38718,7 @@
         <v>519</v>
       </c>
       <c r="Z193" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA193" t="s">
         <v>38</v>
@@ -40106,7 +40106,7 @@
         <v>238</v>
       </c>
       <c r="E210" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F210" t="s">
         <v>242</v>
@@ -41233,7 +41233,7 @@
         <v>238</v>
       </c>
       <c r="E223" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F223" t="s">
         <v>247</v>
@@ -41972,10 +41972,10 @@
         <v>537</v>
       </c>
       <c r="Z231" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA231" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB231" t="s">
         <v>253</v>
@@ -42061,10 +42061,10 @@
         <v>537</v>
       </c>
       <c r="Z232" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA232" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB232" t="s">
         <v>253</v>
@@ -42150,10 +42150,10 @@
         <v>537</v>
       </c>
       <c r="Z233" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA233" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB233" t="s">
         <v>253</v>
@@ -42239,10 +42239,10 @@
         <v>537</v>
       </c>
       <c r="Z234" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA234" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB234" t="s">
         <v>253</v>
@@ -42265,7 +42265,7 @@
         <v>238</v>
       </c>
       <c r="E235" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F235" t="s">
         <v>251</v>
@@ -42328,10 +42328,10 @@
         <v>537</v>
       </c>
       <c r="Z235" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA235" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB235" t="s">
         <v>253</v>
@@ -42417,10 +42417,10 @@
         <v>537</v>
       </c>
       <c r="Z236" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA236" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB236" t="s">
         <v>253</v>
@@ -42506,10 +42506,10 @@
         <v>537</v>
       </c>
       <c r="Z237" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA237" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB237" t="s">
         <v>253</v>
@@ -42595,10 +42595,10 @@
         <v>537</v>
       </c>
       <c r="Z238" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA238" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB238" t="s">
         <v>253</v>
@@ -42684,10 +42684,10 @@
         <v>537</v>
       </c>
       <c r="Z239" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA239" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB239" t="s">
         <v>253</v>
@@ -42773,10 +42773,10 @@
         <v>537</v>
       </c>
       <c r="Z240" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA240" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB240" t="s">
         <v>253</v>
@@ -42862,10 +42862,10 @@
         <v>537</v>
       </c>
       <c r="Z241" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA241" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB241" t="s">
         <v>253</v>
@@ -42951,10 +42951,10 @@
         <v>537</v>
       </c>
       <c r="Z242" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA242" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB242" t="s">
         <v>253</v>
@@ -43034,7 +43034,7 @@
         <v>709</v>
       </c>
       <c r="X243" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y243" t="s">
         <v>542</v>
@@ -43123,7 +43123,7 @@
         <v>710</v>
       </c>
       <c r="X244" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y244" t="s">
         <v>542</v>
@@ -43212,7 +43212,7 @@
         <v>710</v>
       </c>
       <c r="X245" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y245" t="s">
         <v>542</v>
@@ -43301,7 +43301,7 @@
         <v>35</v>
       </c>
       <c r="X246" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y246" t="s">
         <v>542</v>
@@ -43333,7 +43333,7 @@
         <v>238</v>
       </c>
       <c r="E247" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F247" t="s">
         <v>257</v>
@@ -43388,7 +43388,7 @@
         <v>709</v>
       </c>
       <c r="X247" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y247" t="s">
         <v>542</v>
@@ -43477,7 +43477,7 @@
         <v>709</v>
       </c>
       <c r="X248" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y248" t="s">
         <v>542</v>
@@ -43566,7 +43566,7 @@
         <v>710</v>
       </c>
       <c r="X249" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y249" t="s">
         <v>542</v>
@@ -43655,7 +43655,7 @@
         <v>714</v>
       </c>
       <c r="X250" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y250" t="s">
         <v>542</v>
@@ -43742,7 +43742,7 @@
         <v>709</v>
       </c>
       <c r="X251" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y251" t="s">
         <v>542</v>
@@ -43831,7 +43831,7 @@
         <v>35</v>
       </c>
       <c r="X252" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y252" t="s">
         <v>542</v>
@@ -43918,7 +43918,7 @@
       </c>
       <c r="W253"/>
       <c r="X253" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y253" t="s">
         <v>542</v>
@@ -43989,7 +43989,7 @@
         <v>0</v>
       </c>
       <c r="R254" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S254" t="s">
         <v>38</v>
@@ -44008,7 +44008,7 @@
         <v>264</v>
       </c>
       <c r="Y254" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z254" t="s">
         <v>38</v>
@@ -44072,7 +44072,7 @@
         <v>0</v>
       </c>
       <c r="R255" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S255" t="s">
         <v>38</v>
@@ -44093,7 +44093,7 @@
         <v>264</v>
       </c>
       <c r="Y255" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z255" t="s">
         <v>38</v>
@@ -44157,7 +44157,7 @@
         <v>0</v>
       </c>
       <c r="R256" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S256" t="s">
         <v>38</v>
@@ -44178,7 +44178,7 @@
         <v>264</v>
       </c>
       <c r="Y256" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z256" t="s">
         <v>38</v>
@@ -44242,7 +44242,7 @@
         <v>0</v>
       </c>
       <c r="R257" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S257" t="s">
         <v>38</v>
@@ -44263,7 +44263,7 @@
         <v>264</v>
       </c>
       <c r="Y257" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z257" t="s">
         <v>38</v>
@@ -44748,7 +44748,7 @@
         <v>0</v>
       </c>
       <c r="R263" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S263" t="s">
         <v>38</v>
@@ -44831,7 +44831,7 @@
         <v>0</v>
       </c>
       <c r="R264" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S264" t="s">
         <v>38</v>
@@ -44916,7 +44916,7 @@
         <v>0</v>
       </c>
       <c r="R265" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S265" t="s">
         <v>38</v>
@@ -45001,7 +45001,7 @@
         <v>0</v>
       </c>
       <c r="R266" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S266" t="s">
         <v>38</v>
@@ -45086,7 +45086,7 @@
         <v>0</v>
       </c>
       <c r="R267" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S267" t="s">
         <v>38</v>
@@ -46759,10 +46759,10 @@
         <v>565</v>
       </c>
       <c r="Z286" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA286" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB286" t="s">
         <v>285</v>
@@ -46848,10 +46848,10 @@
         <v>565</v>
       </c>
       <c r="Z287" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA287" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB287" t="s">
         <v>285</v>
@@ -46937,10 +46937,10 @@
         <v>565</v>
       </c>
       <c r="Z288" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA288" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB288" t="s">
         <v>285</v>
@@ -47026,10 +47026,10 @@
         <v>565</v>
       </c>
       <c r="Z289" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA289" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB289" t="s">
         <v>285</v>
@@ -47115,10 +47115,10 @@
         <v>565</v>
       </c>
       <c r="Z290" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA290" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB290" t="s">
         <v>285</v>
@@ -47204,10 +47204,10 @@
         <v>565</v>
       </c>
       <c r="Z291" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA291" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB291" t="s">
         <v>285</v>
@@ -47293,10 +47293,10 @@
         <v>565</v>
       </c>
       <c r="Z292" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA292" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB292" t="s">
         <v>285</v>
@@ -47382,10 +47382,10 @@
         <v>565</v>
       </c>
       <c r="Z293" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA293" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB293" t="s">
         <v>285</v>
@@ -47471,10 +47471,10 @@
         <v>565</v>
       </c>
       <c r="Z294" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA294" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB294" t="s">
         <v>285</v>
@@ -47560,10 +47560,10 @@
         <v>565</v>
       </c>
       <c r="Z295" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA295" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB295" t="s">
         <v>285</v>
@@ -50008,10 +50008,10 @@
         <v>579</v>
       </c>
       <c r="Z323" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA323" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB323" t="s">
         <v>299</v>
@@ -50095,10 +50095,10 @@
         <v>579</v>
       </c>
       <c r="Z324" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA324" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB324" t="s">
         <v>299</v>
@@ -50184,10 +50184,10 @@
         <v>579</v>
       </c>
       <c r="Z325" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA325" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB325" t="s">
         <v>299</v>
@@ -50273,10 +50273,10 @@
         <v>579</v>
       </c>
       <c r="Z326" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA326" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB326" t="s">
         <v>299</v>
@@ -50362,10 +50362,10 @@
         <v>579</v>
       </c>
       <c r="Z327" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA327" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB327" t="s">
         <v>299</v>
@@ -50388,7 +50388,7 @@
         <v>238</v>
       </c>
       <c r="E328" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F328" t="s">
         <v>297</v>
@@ -50451,10 +50451,10 @@
         <v>579</v>
       </c>
       <c r="Z328" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA328" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB328" t="s">
         <v>299</v>
@@ -50540,10 +50540,10 @@
         <v>579</v>
       </c>
       <c r="Z329" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA329" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB329" t="s">
         <v>299</v>
@@ -50629,10 +50629,10 @@
         <v>579</v>
       </c>
       <c r="Z330" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA330" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB330" t="s">
         <v>299</v>
@@ -50716,10 +50716,10 @@
         <v>579</v>
       </c>
       <c r="Z331" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA331" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB331" t="s">
         <v>299</v>
@@ -50805,10 +50805,10 @@
         <v>579</v>
       </c>
       <c r="Z332" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AA332" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB332" t="s">
         <v>299</v>
@@ -53127,7 +53127,7 @@
         <v>238</v>
       </c>
       <c r="E359" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F359" t="s">
         <v>312</v>
@@ -54011,7 +54011,7 @@
         <v>238</v>
       </c>
       <c r="E369" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F369" t="s">
         <v>317</v>
@@ -54787,7 +54787,7 @@
         <v>38</v>
       </c>
       <c r="AA377" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB377"/>
       <c r="AC377" t="s">
@@ -54872,7 +54872,7 @@
         <v>38</v>
       </c>
       <c r="AA378" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="AB378"/>
       <c r="AC378" t="s">
@@ -57139,7 +57139,7 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="E17"/>
     </row>
@@ -57148,13 +57148,13 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="E18"/>
     </row>
@@ -57163,7 +57163,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
@@ -57178,7 +57178,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
@@ -57193,7 +57193,7 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
@@ -57208,7 +57208,7 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
@@ -57223,10 +57223,10 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
         <v>38</v>
@@ -57238,10 +57238,10 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
         <v>38</v>
@@ -57253,10 +57253,10 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
         <v>38</v>
@@ -57268,10 +57268,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D26" t="s">
         <v>38</v>
@@ -57283,10 +57283,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
         <v>38</v>
@@ -57298,10 +57298,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
         <v>38</v>
@@ -57313,13 +57313,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="E29" t="s">
         <v>160</v>
@@ -57333,7 +57333,7 @@
         <v>161</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
         <v>38</v>
@@ -57348,7 +57348,7 @@
         <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
         <v>38</v>
@@ -57363,7 +57363,7 @@
         <v>169</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
         <v>38</v>
@@ -57378,7 +57378,7 @@
         <v>174</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
@@ -57393,7 +57393,7 @@
         <v>178</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
@@ -57408,7 +57408,7 @@
         <v>182</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
@@ -57423,7 +57423,7 @@
         <v>187</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
@@ -57438,7 +57438,7 @@
         <v>190</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
         <v>38</v>
@@ -57453,10 +57453,10 @@
         <v>193</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="E38"/>
     </row>
@@ -57468,10 +57468,10 @@
         <v>197</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="E39"/>
     </row>
@@ -57483,10 +57483,10 @@
         <v>200</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="E40"/>
     </row>
@@ -57498,7 +57498,7 @@
         <v>203</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
         <v>38</v>
@@ -57513,7 +57513,7 @@
         <v>205</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" t="s">
         <v>38</v>
@@ -57528,7 +57528,7 @@
         <v>209</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" t="s">
         <v>38</v>
@@ -57621,7 +57621,7 @@
         <v>225</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="E49" t="s">
         <v>160</v>
@@ -57683,7 +57683,7 @@
         <v>238</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="E53" t="s">
         <v>254</v>
@@ -57790,7 +57790,7 @@
         <v>238</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="E60" t="s">
         <v>254</v>
@@ -57837,7 +57837,7 @@
         <v>238</v>
       </c>
       <c r="D63" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="E63" t="s">
         <v>254</v>
@@ -58139,7 +58139,7 @@
         <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="E83" t="s">
         <v>160</v>
@@ -58156,7 +58156,7 @@
         <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="E84" t="s">
         <v>160</v>
@@ -58248,7 +58248,7 @@
         <v>33</v>
       </c>
       <c r="D90" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="E90" t="s">
         <v>160</v>
@@ -58277,7 +58277,7 @@
         <v>418</v>
       </c>
       <c r="C92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D92" t="s">
         <v>38</v>
@@ -58292,7 +58292,7 @@
         <v>421</v>
       </c>
       <c r="C93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D93" t="s">
         <v>38</v>
@@ -58307,7 +58307,7 @@
         <v>424</v>
       </c>
       <c r="C94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D94" t="s">
         <v>38</v>
@@ -58322,7 +58322,7 @@
         <v>428</v>
       </c>
       <c r="C95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D95" t="s">
         <v>38</v>
@@ -58337,7 +58337,7 @@
         <v>432</v>
       </c>
       <c r="C96" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D96" t="s">
         <v>38</v>
@@ -58352,7 +58352,7 @@
         <v>436</v>
       </c>
       <c r="C97" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D97" t="s">
         <v>38</v>
@@ -58367,7 +58367,7 @@
         <v>440</v>
       </c>
       <c r="C98" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D98" t="s">
         <v>38</v>
@@ -58382,7 +58382,7 @@
         <v>444</v>
       </c>
       <c r="C99" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D99" t="s">
         <v>38</v>
@@ -58397,7 +58397,7 @@
         <v>449</v>
       </c>
       <c r="C100" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D100" t="s">
         <v>38</v>
@@ -58412,7 +58412,7 @@
         <v>452</v>
       </c>
       <c r="C101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D101" t="s">
         <v>38</v>
@@ -58427,7 +58427,7 @@
         <v>456</v>
       </c>
       <c r="C102" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D102" t="s">
         <v>38</v>
@@ -58442,10 +58442,10 @@
         <v>460</v>
       </c>
       <c r="C103" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D103" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="E103" t="s">
         <v>160</v>
@@ -58459,7 +58459,7 @@
         <v>464</v>
       </c>
       <c r="C104" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D104" t="s">
         <v>38</v>
@@ -58474,7 +58474,7 @@
         <v>468</v>
       </c>
       <c r="C105" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D105" t="s">
         <v>38</v>
@@ -58489,7 +58489,7 @@
         <v>472</v>
       </c>
       <c r="C106" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D106" t="s">
         <v>38</v>
@@ -58504,7 +58504,7 @@
         <v>476</v>
       </c>
       <c r="C107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D107" t="s">
         <v>38</v>
@@ -58519,7 +58519,7 @@
         <v>481</v>
       </c>
       <c r="C108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D108" t="s">
         <v>38</v>
@@ -58534,7 +58534,7 @@
         <v>486</v>
       </c>
       <c r="C109" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D109" t="s">
         <v>38</v>
@@ -58549,7 +58549,7 @@
         <v>489</v>
       </c>
       <c r="C110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D110" t="s">
         <v>38</v>
@@ -58564,7 +58564,7 @@
         <v>493</v>
       </c>
       <c r="C111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D111" t="s">
         <v>38</v>
@@ -58579,7 +58579,7 @@
         <v>497</v>
       </c>
       <c r="C112" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D112" t="s">
         <v>38</v>
@@ -58732,7 +58732,7 @@
         <v>238</v>
       </c>
       <c r="D122" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="E122" t="s">
         <v>254</v>
@@ -58839,7 +58839,7 @@
         <v>238</v>
       </c>
       <c r="D129" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="E129" t="s">
         <v>254</v>
@@ -58886,7 +58886,7 @@
         <v>238</v>
       </c>
       <c r="D132" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="E132" t="s">
         <v>254</v>
@@ -58963,7 +58963,7 @@
         <v>324</v>
       </c>
       <c r="D137" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="E137" t="s">
         <v>160</v>

--- a/Test_QC_result.xlsx
+++ b/Test_QC_result.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t xml:space="preserve">run</t>
   </si>
@@ -103,250 +103,274 @@
     <t xml:space="preserve">不合格原因</t>
   </si>
   <si>
-    <t xml:space="preserve">240704_TPMN00173_0335_A000H7FWH2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240704</t>
+    <t xml:space="preserve">240705_TPMN00173_0337_A000H7FW5J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2P2-QFL04-DJ-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2P2-QFL04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检测限参考品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人腮腺炎病毒2型（人副流感病毒2型）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阳性</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合格，注意人内参低</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240601呼吸100成品检</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成品检</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240401多重PCR引物中间品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单管干粉引物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024.07.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1715526601520101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合格</t>
   </si>
   <si>
     <t xml:space="preserve">T2P2-QFL04-DJ-2</t>
   </si>
   <si>
-    <t xml:space="preserve">T2P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2P2-QFL04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检测限参考品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人腮腺炎病毒2型（人副流感病毒2型）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">阳性</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">原始数据不合格</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240601呼吸100成品检</t>
-  </si>
-  <si>
-    <t xml:space="preserve">成品检</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240401多重PCR引物中间品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">单管干粉引物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024.07.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39990667288847</t>
+    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1001050052502599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2P2-QFL04-DJ-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.700000000000003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8348623853210999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2P2-QFP04-DJ-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2P2-QFP04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阳性参考品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0359687818120098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2P2-QFP04-DJ-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2900763358778602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2P2-QFP04-DJ-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4125452352231598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2P2-NTC-LY-T-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2P2-NTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">格特隐球菌|弱阳|93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6327336551118901</t>
   </si>
   <si>
     <t xml:space="preserve">不合格</t>
   </si>
   <si>
-    <t xml:space="preserve">T2P2-QFL04-DJ-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2998266897747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2P2-QFP04-DJ-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2P2-QFP04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">阳性参考品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2P2-QFP04-DJ-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69971671388102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2P2-QFP04-DJ-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7996400719856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2P2-NTC-DJ-N-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2P2-NTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人腮腺炎病毒2型（人副流感病毒2型）|阳性|9550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|161</t>
+    <t xml:space="preserve">病原污染</t>
   </si>
   <si>
     <t xml:space="preserve">T2P2-NTC-LY-T-2</t>
   </si>
   <si>
-    <t xml:space="preserve">格特隐球菌|弱阳|124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6</t>
+    <t xml:space="preserve">军团菌属|滤|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1652832912306001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2P2-QFL04-LY-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">镰刀菌属|滤|4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15439856373429</t>
   </si>
   <si>
     <t xml:space="preserve">T2P2-QFL04-LY-2</t>
   </si>
   <si>
+    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20994475138122</t>
+  </si>
+  <si>
     <t xml:space="preserve">T2P2-QFL04-LY-3</t>
   </si>
   <si>
-    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|103</t>
+    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0761245674740501</t>
   </si>
   <si>
     <t xml:space="preserve">T2P2-QFP04-LY-1</t>
   </si>
   <si>
+    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9108280254777099</t>
+  </si>
+  <si>
     <t xml:space="preserve">T2P2-QFP04-LY-2</t>
   </si>
   <si>
-    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|98</t>
+    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90415741034592</t>
   </si>
   <si>
     <t xml:space="preserve">T2P2-QFP04-LY-3</t>
   </si>
   <si>
-    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
+    <t xml:space="preserve">格特隐球菌|滤|24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9537609899055699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2P2-NTC-DJ-T-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17864923747277</t>
   </si>
   <si>
     <t xml:space="preserve">T2P2-NTC-DJ-T-2</t>
   </si>
   <si>
-    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2P2-QFL04-DJ-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2P2-NTC-DJ-N-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2P2-NTC-DJ-J-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2P2-NTC-DJ-J-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2P2-NTC-LY-N-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q30不合格</t>
-  </si>
-  <si>
-    <t xml:space="preserve">合格</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2P2-NTC-LY-N-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2P2-NTC-LY-J-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2P2-NTC-LY-J-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80112044817927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2P2-NTC-LY-T-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2P2-QFL04-LY-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89993666877771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2P2-NTC-DJ-T-1</t>
+    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2514071294559099</t>
   </si>
   <si>
     <t xml:space="preserve">DJ_sample</t>
@@ -448,9 +472,21 @@
     <t xml:space="preserve">弱阳</t>
   </si>
   <si>
+    <t xml:space="preserve">军团菌属</t>
+  </si>
+  <si>
+    <t xml:space="preserve">滤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人内参ZFX</t>
+  </si>
+  <si>
     <t xml:space="preserve">内参</t>
   </si>
   <si>
+    <t xml:space="preserve">镰刀菌属</t>
+  </si>
+  <si>
     <t xml:space="preserve">RUN</t>
   </si>
   <si>
@@ -484,10 +520,7 @@
     <t xml:space="preserve">Message</t>
   </si>
   <si>
-    <t xml:space="preserve">质检表较SampleSheet多出的样本： T2P2-NTC-DJ-T-1,T2P2-NTC-DJ-T-2,T2P2-QFL04-DJ-1,T2P2-QFL04-DJ-2,T2P2-QFL04-DJ-3,T2P2-QFP04-DJ-1,T2P2-QFP04-DJ-2,T2P2-QFP04-DJ-3,T2P2-NTC-DJ-N-1,T2P2-NTC-DJ-N-2,T2P2-NTC-DJ-J-1,T2P2-NTC-DJ-J-2,T2P2-NTC-LY-N-1,T2P2-NTC-LY-N-2,T2P2-NTC-LY-J-1,T2P2-NTC-LY-J-2,T2P2-NTC-LY-T-1,T2P2-NTC-LY-T-2,T2P2-QFL04-LY-1,T2P2-QFL04-LY-2,T2P2-QFL04-LY-3,T2P2-QFP04-LY-1,T2P2-QFP04-LY-2,T2P2-QFP04-LY-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SampleSheet较质检表多出的样本： T3P3-QWP01-DJ-1,T3P3-QWP01-DJ-2,T3P3-QWP01-DJ-3,T3P3-QWP02-DJ-1,T3P3-QWP02-DJ-2,T3P3-QWP02-DJ-3,T3P3-QWP03-DJ-1,T3P3-QWP03-DJ-2,T3P3-QWP03-DJ-3,T3P3-QWP04-DJ-1,T3P3-QWP04-DJ-2,T3P3-QWP04-DJ-3,T3P3-QWP05-DJ-1,T3P3-QWP05-DJ-2,T3P3-QWP05-DJ-3,T3P3-QWP06-DJ-1,T3P3-QWP06-DJ-2,T3P3-QWP06-DJ-3,T3P3-QWP07-DJ-1,T3P3-QWP07-DJ-2,T3P3-QWP07-DJ-3,T3P3-QWL01-DJ-1,T3P3-QWL01-DJ-2,T3P3-QWL01-DJ-3,T3P3-QWL02-DJ-1,T3P3-QWL02-DJ-2,T3P3-QWL02-DJ-3,T3P3-QWL03-DJ-1,T3P3-QWL03-DJ-2,T3P3-QWL03-DJ-3,T3P3-QWL04-DJ-1,T3P3-QWL04-DJ-2,T3P3-QWL04-DJ-3,T3P3-QWL05-DJ-1,T3P3-QWL05-DJ-2,T3P3-QWL05-DJ-3,T3P3-QWL06-DJ-1,T3P3-QWL06-DJ-2,T3P3-QWL06-DJ-3,T3P3-QWL07-DJ-1,T3P3-QWL07-DJ-2,T3P3-QWL07-DJ-3,T3P3-NEG-DJ-1,T3P3-NEG-DJ-2,T3P3-NEG-DJ-3,T3P3-QWN01-DJ,T3P3-QWN02-DJ,T3P3-QWN03-DJ,T3P3-LC-DJ-1,T3P3-LC-DJ-2,T3P3-LC-DJ-3,T3P3-LC-DJ-4,T3P3-LC-DJ-5,T3P3-POS-DJ-1,T3P3-POS-DJ-2,T3P3-POS-DJ-3,T3P3-LC-DJ-6,T3P3-LC-DJ-7,T3P3-LC-DJ-8,T3P3-LC-DJ-9,T3P3-LC-DJ-10,T3P3-LC-DJ-11,T3P3-LC-DJ-12,T3P3-LC-DJ-13,T3P3-LC-DJ-14,T3P3-LC-DJ-15,T3P3-NTC-DJ-T-1,T3P3-NTC-DJ-T-2,T3P3-NTC-DJ-N-1,T3P3-NTC-DJ-N-2,T3P3-NTC-DJ-N-3,T3P3-NTC-DJ-N-4,T3P3-NTC-DJ-J-1,T3P3-NTC-DJ-J-2,T3P3-NTC-DJ-J-3,T3P3-NTC-DJ-J-4,T3P3-NTC-DJ-J-5,T3P3-NTC-DJ-J-6,T3P3-NTC-DJ-J-7,T3P3-NTC-DJ-J-8,T3P3-QWP01-LY-1,T3P3-QWP01-LY-2,T3P3-QWP01-LY-3,T3P3-QWP02-LY-1,T3P3-QWP02-LY-2,T3P3-QWP02-LY-3,T3P3-QWP03-LY-1,T3P3-QWP03-LY-2,T3P3-QWP03-LY-3,T3P3-QWP04-LY-1,T3P3-QWP04-LY-2,T3P3-QWP04-LY-3,T3P3-QWP05-LY-1,T3P3-QWP05-LY-2,T3P3-QWP05-LY-3,T3P3-QWP06-LY-1,T3P3-QWP06-LY-2,T3P3-QWP06-LY-3,T3P3-QWP07-LY-1,T3P3-QWP07-LY-2,T3P3-QWP07-LY-3,T3P3-QWL01-LY-1,T3P3-QWL01-LY-2,T3P3-QWL01-LY-3,T3P3-QWL02-LY-1,T3P3-QWL02-LY-2,T3P3-QWL02-LY-3,T3P3-QWL03-LY-1,T3P3-QWL03-LY-2,T3P3-QWL03-LY-3,T3P3-QWL04-LY-1,T3P3-QWL04-LY-2,T3P3-QWL04-LY-3,T3P3-QWL05-LY-1,T3P3-QWL05-LY-2,T3P3-QWL05-LY-3,T3P3-QWL06-LY-1,T3P3-QWL06-LY-2,T3P3-QWL06-LY-3,T3P3-QWL07-LY-1,T3P3-QWL07-LY-2,T3P3-QWL07-LY-3,T3P3-NEG-LY-1,T3P3-NEG-LY-2,T3P3-NEG-LY-3,T3P3-QWN01-LY,T3P3-QWN02-LY,T3P3-QWN03-LY,T3P3-LC-LY-1,T3P3-LC-LY-2,T3P3-LC-LY-3,T3P3-LC-LY-4,T3P3-LC-LY-5,T3P3-POS-LY-1,T3P3-POS-LY-2,T3P3-POS-LY-3,T3P3-LC-LY-6,T3P3-LC-LY-7,T3P3-LC-LY-8,T3P3-LC-LY-9,T3P3-LC-LY-10,T3P3-LC-LY-11,T3P3-LC-LY-12,T3P3-LC-LY-13,T3P3-LC-LY-14,T3P3-LC-LY-15,T3P3-NTC-LY-T-1,T3P3-NTC-LY-T-2,T3P3-NTC-LY-N-1,T3P3-NTC-LY-N-2,T3P3-NTC-LY-N-3,T3P3-NTC-LY-N-4,T3P3-NTC-LY-J-1,T3P3-NTC-LY-J-2,T3P3-NTC-LY-J-3,T3P3-NTC-LY-J-4,T3P3-NTC-LY-J-5,T3P3-NTC-LY-J-6,T3P3-NTC-LY-J-7,T3P3-NTC-LY-J-8</t>
+    <t xml:space="preserve">Samplesheet样本和质控样本一致</t>
   </si>
 </sst>
 </file>
@@ -925,22 +958,22 @@
         <v>33</v>
       </c>
       <c r="G2" t="n">
-        <v>30287</v>
+        <v>574297</v>
       </c>
       <c r="H2" t="n">
-        <v>0.708487</v>
+        <v>0.880599</v>
       </c>
       <c r="I2" t="s">
         <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>1291</v>
+        <v>1108</v>
       </c>
       <c r="K2" t="s">
         <v>35</v>
       </c>
       <c r="L2" t="n">
-        <v>5676</v>
+        <v>4830</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -987,9 +1020,7 @@
       <c r="AA2" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1011,22 +1042,22 @@
         <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>36363</v>
+        <v>658933</v>
       </c>
       <c r="H3" t="n">
-        <v>0.723423</v>
+        <v>0.895149</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
       <c r="J3" t="n">
-        <v>1180</v>
+        <v>1016</v>
       </c>
       <c r="K3" t="s">
         <v>35</v>
       </c>
       <c r="L3" t="n">
-        <v>6287</v>
+        <v>4947</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1073,9 +1104,7 @@
       <c r="AA3" t="s">
         <v>47</v>
       </c>
-      <c r="AB3" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1091,28 +1120,28 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>34033</v>
+        <v>652706</v>
       </c>
       <c r="H4" t="n">
-        <v>0.708643</v>
+        <v>0.862538</v>
       </c>
       <c r="I4" t="s">
         <v>34</v>
       </c>
       <c r="J4" t="n">
-        <v>999</v>
+        <v>928</v>
       </c>
       <c r="K4" t="s">
         <v>35</v>
       </c>
       <c r="L4" t="n">
-        <v>4372</v>
+        <v>3349</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1121,7 +1150,7 @@
         <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s">
         <v>38</v>
@@ -1151,17 +1180,15 @@
         <v>44</v>
       </c>
       <c r="Y4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Z4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1171,34 +1198,34 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G5" t="n">
-        <v>45497</v>
+        <v>617090</v>
       </c>
       <c r="H5" t="n">
-        <v>0.721718</v>
+        <v>0.839729</v>
       </c>
       <c r="I5" t="s">
         <v>34</v>
       </c>
       <c r="J5" t="n">
-        <v>20716</v>
+        <v>17741</v>
       </c>
       <c r="K5" t="s">
         <v>35</v>
       </c>
       <c r="L5" t="n">
-        <v>1677</v>
+        <v>1394</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1210,7 +1237,7 @@
         <v>59</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="Q5" t="s">
         <v>34</v>
@@ -1245,9 +1272,7 @@
       <c r="AA5" t="s">
         <v>47</v>
       </c>
-      <c r="AB5" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1263,28 +1288,28 @@
         <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G6" t="n">
-        <v>43043</v>
+        <v>662330</v>
       </c>
       <c r="H6" t="n">
-        <v>0.704417</v>
+        <v>0.862365</v>
       </c>
       <c r="I6" t="s">
         <v>34</v>
       </c>
       <c r="J6" t="n">
-        <v>11693</v>
+        <v>10781</v>
       </c>
       <c r="K6" t="s">
         <v>35</v>
       </c>
       <c r="L6" t="n">
-        <v>1926</v>
+        <v>1479</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1296,7 +1321,7 @@
         <v>63</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="Q6" t="s">
         <v>34</v>
@@ -1331,9 +1356,7 @@
       <c r="AA6" t="s">
         <v>47</v>
       </c>
-      <c r="AB6" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1349,38 +1372,44 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="n">
+        <v>439380</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.867446</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9429</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1034</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" t="s">
         <v>67</v>
       </c>
-      <c r="F7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" t="n">
-        <v>31038</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.70194</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7" t="n">
-        <v>1408</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" t="s">
-        <v>70</v>
-      </c>
       <c r="P7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7"/>
+        <v>47</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>34</v>
+      </c>
       <c r="R7" t="s">
         <v>39</v>
       </c>
@@ -1393,7 +1422,9 @@
       <c r="U7" t="s">
         <v>42</v>
       </c>
-      <c r="V7"/>
+      <c r="V7" t="s">
+        <v>43</v>
+      </c>
       <c r="W7" t="s">
         <v>44</v>
       </c>
@@ -1401,17 +1432,15 @@
         <v>44</v>
       </c>
       <c r="Y7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="Z7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AA7" t="s">
         <v>47</v>
       </c>
-      <c r="AB7" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1421,22 +1450,22 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G8" t="n">
-        <v>43592</v>
+        <v>663105</v>
       </c>
       <c r="H8" t="n">
-        <v>0.727802</v>
+        <v>0.887448</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -1450,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="P8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="Q8"/>
       <c r="R8" t="s">
@@ -1471,7 +1500,9 @@
       <c r="U8" t="s">
         <v>42</v>
       </c>
-      <c r="V8"/>
+      <c r="V8" t="s">
+        <v>43</v>
+      </c>
       <c r="W8" t="s">
         <v>44</v>
       </c>
@@ -1479,16 +1510,16 @@
         <v>44</v>
       </c>
       <c r="Y8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -1499,50 +1530,44 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="G9" t="n">
-        <v>31035</v>
+        <v>523852</v>
       </c>
       <c r="H9" t="n">
-        <v>0.718651</v>
+        <v>0.800642</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1634</v>
-      </c>
-      <c r="K9" t="s">
-        <v>35</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
       <c r="L9" t="n">
-        <v>5523</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O9" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>34</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="Q9"/>
       <c r="R9" t="s">
         <v>39</v>
       </c>
@@ -1565,17 +1590,15 @@
         <v>44</v>
       </c>
       <c r="Y9" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="Z9" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AA9" t="s">
         <v>47</v>
       </c>
-      <c r="AB9" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1585,7 +1608,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
@@ -1597,31 +1620,31 @@
         <v>33</v>
       </c>
       <c r="G10" t="n">
-        <v>21264</v>
+        <v>532771</v>
       </c>
       <c r="H10" t="n">
-        <v>0.749255</v>
+        <v>0.884679</v>
       </c>
       <c r="I10" t="s">
         <v>34</v>
       </c>
       <c r="J10" t="n">
-        <v>2469</v>
+        <v>1475</v>
       </c>
       <c r="K10" t="s">
         <v>35</v>
       </c>
       <c r="L10" t="n">
-        <v>7967</v>
+        <v>5171</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="O10" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s">
         <v>38</v>
@@ -1651,17 +1674,15 @@
         <v>44</v>
       </c>
       <c r="Y10" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="Z10" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="AA10" t="s">
         <v>47</v>
       </c>
-      <c r="AB10" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1671,34 +1692,34 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G11" t="n">
-        <v>32267</v>
+        <v>456322</v>
       </c>
       <c r="H11" t="n">
-        <v>0.712029</v>
+        <v>0.896563</v>
       </c>
       <c r="I11" t="s">
         <v>34</v>
       </c>
       <c r="J11" t="n">
-        <v>936</v>
+        <v>2100</v>
       </c>
       <c r="K11" t="s">
         <v>35</v>
       </c>
       <c r="L11" t="n">
-        <v>4131</v>
+        <v>7216</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1707,7 +1728,7 @@
         <v>36</v>
       </c>
       <c r="O11" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="P11" t="s">
         <v>38</v>
@@ -1737,17 +1758,15 @@
         <v>44</v>
       </c>
       <c r="Y11" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="Z11" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="AA11" t="s">
         <v>47</v>
       </c>
-      <c r="AB11" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1757,34 +1776,34 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G12" t="n">
-        <v>26490</v>
+        <v>539219</v>
       </c>
       <c r="H12" t="n">
-        <v>0.71815</v>
+        <v>0.876097</v>
       </c>
       <c r="I12" t="s">
         <v>34</v>
       </c>
       <c r="J12" t="n">
-        <v>16874</v>
+        <v>984</v>
       </c>
       <c r="K12" t="s">
         <v>35</v>
       </c>
       <c r="L12" t="n">
-        <v>1268</v>
+        <v>3377</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1793,7 +1812,7 @@
         <v>36</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="P12" t="s">
         <v>38</v>
@@ -1823,17 +1842,15 @@
         <v>44</v>
       </c>
       <c r="Y12" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="Z12" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="AA12" t="s">
         <v>47</v>
       </c>
-      <c r="AB12" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1843,34 +1860,34 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G13" t="n">
-        <v>34744</v>
+        <v>399865</v>
       </c>
       <c r="H13" t="n">
-        <v>0.701082</v>
+        <v>0.819599</v>
       </c>
       <c r="I13" t="s">
         <v>34</v>
       </c>
       <c r="J13" t="n">
-        <v>7478</v>
+        <v>16180</v>
       </c>
       <c r="K13" t="s">
         <v>35</v>
       </c>
       <c r="L13" t="n">
-        <v>981</v>
+        <v>1192</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1879,10 +1896,10 @@
         <v>36</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="Q13" t="s">
         <v>34</v>
@@ -1909,58 +1926,68 @@
         <v>44</v>
       </c>
       <c r="Y13" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="Z13" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="AA13" t="s">
         <v>47</v>
       </c>
-      <c r="AB13" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB13"/>
     </row>
     <row r="14">
-      <c r="A14"/>
-      <c r="B14"/>
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G14" t="n">
-        <v>27397</v>
+        <v>401544</v>
       </c>
       <c r="H14" t="n">
-        <v>0.698743</v>
+        <v>0.855786</v>
       </c>
       <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6842</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="n">
+        <v>865</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
         <v>36</v>
       </c>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14"/>
       <c r="O14" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q14"/>
+        <v>47</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>34</v>
+      </c>
       <c r="R14" t="s">
         <v>39</v>
       </c>
@@ -1973,7 +2000,9 @@
       <c r="U14" t="s">
         <v>42</v>
       </c>
-      <c r="V14"/>
+      <c r="V14" t="s">
+        <v>43</v>
+      </c>
       <c r="W14" t="s">
         <v>44</v>
       </c>
@@ -1981,58 +2010,68 @@
         <v>44</v>
       </c>
       <c r="Y14" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="Z14" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="AA14" t="s">
         <v>47</v>
       </c>
-      <c r="AB14" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB14"/>
     </row>
     <row r="15">
-      <c r="A15"/>
-      <c r="B15"/>
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="G15" t="n">
-        <v>37951</v>
+        <v>523208</v>
       </c>
       <c r="H15" t="n">
-        <v>0.695535</v>
+        <v>0.872852</v>
       </c>
       <c r="I15" t="s">
         <v>34</v>
       </c>
-      <c r="J15"/>
-      <c r="K15"/>
+      <c r="J15" t="n">
+        <v>15032</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1794</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
-      <c r="N15"/>
+      <c r="N15" t="s">
+        <v>106</v>
+      </c>
       <c r="O15" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="P15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q15"/>
+        <v>47</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>34</v>
+      </c>
       <c r="R15" t="s">
         <v>39</v>
       </c>
@@ -2055,38 +2094,36 @@
         <v>44</v>
       </c>
       <c r="Y15" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="Z15" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="AA15" t="s">
         <v>47</v>
       </c>
-      <c r="AB15" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB15"/>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G16" t="n">
-        <v>43269</v>
+        <v>543814</v>
       </c>
       <c r="H16" t="n">
-        <v>0.694129</v>
+        <v>0.870303</v>
       </c>
       <c r="I16" t="s">
         <v>36</v>
@@ -2101,10 +2138,10 @@
       </c>
       <c r="N16"/>
       <c r="O16" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="P16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="Q16"/>
       <c r="R16" t="s">
@@ -2119,7 +2156,9 @@
       <c r="U16" t="s">
         <v>42</v>
       </c>
-      <c r="V16"/>
+      <c r="V16" t="s">
+        <v>43</v>
+      </c>
       <c r="W16" t="s">
         <v>44</v>
       </c>
@@ -2127,38 +2166,36 @@
         <v>44</v>
       </c>
       <c r="Y16" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="Z16" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="AA16" t="s">
         <v>47</v>
       </c>
-      <c r="AB16" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB16"/>
     </row>
     <row r="17">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G17" t="n">
-        <v>43604</v>
+        <v>673998</v>
       </c>
       <c r="H17" t="n">
-        <v>0.703551</v>
+        <v>0.809731</v>
       </c>
       <c r="I17" t="s">
         <v>36</v>
@@ -2173,10 +2210,10 @@
       </c>
       <c r="N17"/>
       <c r="O17" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="P17" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="Q17"/>
       <c r="R17" t="s">
@@ -2191,7 +2228,9 @@
       <c r="U17" t="s">
         <v>42</v>
       </c>
-      <c r="V17"/>
+      <c r="V17" t="s">
+        <v>43</v>
+      </c>
       <c r="W17" t="s">
         <v>44</v>
       </c>
@@ -2199,581 +2238,15 @@
         <v>44</v>
       </c>
       <c r="Y17" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="Z17" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="AA17" t="s">
         <v>47</v>
       </c>
-      <c r="AB17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" t="n">
-        <v>38820</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.69155</v>
-      </c>
-      <c r="I18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18"/>
-      <c r="O18" t="s">
-        <v>36</v>
-      </c>
-      <c r="P18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q18"/>
-      <c r="R18" t="s">
-        <v>39</v>
-      </c>
-      <c r="S18" t="s">
-        <v>40</v>
-      </c>
-      <c r="T18" t="s">
-        <v>41</v>
-      </c>
-      <c r="U18" t="s">
-        <v>42</v>
-      </c>
-      <c r="V18"/>
-      <c r="W18" t="s">
-        <v>44</v>
-      </c>
-      <c r="X18" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" t="n">
-        <v>71567</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.69255</v>
-      </c>
-      <c r="I19" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19"/>
-      <c r="O19" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q19"/>
-      <c r="R19" t="s">
-        <v>39</v>
-      </c>
-      <c r="S19" t="s">
-        <v>40</v>
-      </c>
-      <c r="T19" t="s">
-        <v>41</v>
-      </c>
-      <c r="U19" t="s">
-        <v>42</v>
-      </c>
-      <c r="V19"/>
-      <c r="W19" t="s">
-        <v>44</v>
-      </c>
-      <c r="X19" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB19"/>
-    </row>
-    <row r="20">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" t="n">
-        <v>31576</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.734977</v>
-      </c>
-      <c r="I20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20"/>
-      <c r="O20" t="s">
-        <v>36</v>
-      </c>
-      <c r="P20" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q20"/>
-      <c r="R20" t="s">
-        <v>39</v>
-      </c>
-      <c r="S20" t="s">
-        <v>40</v>
-      </c>
-      <c r="T20" t="s">
-        <v>41</v>
-      </c>
-      <c r="U20" t="s">
-        <v>42</v>
-      </c>
-      <c r="V20"/>
-      <c r="W20" t="s">
-        <v>44</v>
-      </c>
-      <c r="X20" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" t="n">
-        <v>42364</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.708449</v>
-      </c>
-      <c r="I21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21"/>
-      <c r="O21" t="s">
-        <v>101</v>
-      </c>
-      <c r="P21" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q21"/>
-      <c r="R21" t="s">
-        <v>39</v>
-      </c>
-      <c r="S21" t="s">
-        <v>40</v>
-      </c>
-      <c r="T21" t="s">
-        <v>41</v>
-      </c>
-      <c r="U21" t="s">
-        <v>42</v>
-      </c>
-      <c r="V21"/>
-      <c r="W21" t="s">
-        <v>44</v>
-      </c>
-      <c r="X21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" t="n">
-        <v>39578</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.704142</v>
-      </c>
-      <c r="I22" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22"/>
-      <c r="O22" t="s">
-        <v>36</v>
-      </c>
-      <c r="P22" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q22"/>
-      <c r="R22" t="s">
-        <v>39</v>
-      </c>
-      <c r="S22" t="s">
-        <v>40</v>
-      </c>
-      <c r="T22" t="s">
-        <v>41</v>
-      </c>
-      <c r="U22" t="s">
-        <v>42</v>
-      </c>
-      <c r="V22"/>
-      <c r="W22" t="s">
-        <v>44</v>
-      </c>
-      <c r="X22" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" t="n">
-        <v>67692</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.691884</v>
-      </c>
-      <c r="I23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23"/>
-      <c r="O23" t="s">
-        <v>36</v>
-      </c>
-      <c r="P23" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q23"/>
-      <c r="R23" t="s">
-        <v>39</v>
-      </c>
-      <c r="S23" t="s">
-        <v>40</v>
-      </c>
-      <c r="T23" t="s">
-        <v>41</v>
-      </c>
-      <c r="U23" t="s">
-        <v>42</v>
-      </c>
-      <c r="V23"/>
-      <c r="W23" t="s">
-        <v>44</v>
-      </c>
-      <c r="X23" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB23"/>
-    </row>
-    <row r="24">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="n">
-        <v>33615</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.691301</v>
-      </c>
-      <c r="I24" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24"/>
-      <c r="O24" t="s">
-        <v>36</v>
-      </c>
-      <c r="P24" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q24"/>
-      <c r="R24" t="s">
-        <v>39</v>
-      </c>
-      <c r="S24" t="s">
-        <v>40</v>
-      </c>
-      <c r="T24" t="s">
-        <v>41</v>
-      </c>
-      <c r="U24" t="s">
-        <v>42</v>
-      </c>
-      <c r="V24" t="s">
-        <v>43</v>
-      </c>
-      <c r="W24" t="s">
-        <v>44</v>
-      </c>
-      <c r="X24" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25"/>
-      <c r="F25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25"/>
-      <c r="O25" t="s">
-        <v>36</v>
-      </c>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25" t="s">
-        <v>39</v>
-      </c>
-      <c r="S25" t="s">
-        <v>40</v>
-      </c>
-      <c r="T25" t="s">
-        <v>41</v>
-      </c>
-      <c r="U25" t="s">
-        <v>42</v>
-      </c>
-      <c r="V25"/>
-      <c r="W25" t="s">
-        <v>44</v>
-      </c>
-      <c r="X25" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB25"/>
+      <c r="AB17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2806,76 +2279,76 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="N1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="O1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="Q1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="R1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="S1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="T1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="U1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="V1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="W1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="X1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="Y1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="Z1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="AA1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AB1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="AC1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
@@ -2883,26 +2356,32 @@
       <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2"/>
+        <v>70</v>
+      </c>
+      <c r="H2" t="n">
+        <v>543814</v>
+      </c>
       <c r="I2" t="n">
-        <v>67692</v>
-      </c>
-      <c r="J2"/>
+        <v>663105</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.870303</v>
+      </c>
       <c r="K2" t="n">
-        <v>0.691884</v>
+        <v>0.887448</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
@@ -2919,14 +2398,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2"/>
+        <v>74</v>
+      </c>
+      <c r="T2" t="s">
+        <v>47</v>
+      </c>
       <c r="U2" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="V2" t="s">
         <v>39</v>
@@ -2935,19 +2416,21 @@
         <v>39</v>
       </c>
       <c r="X2" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="Y2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="AA2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AB2"/>
-      <c r="AC2"/>
+      <c r="AC2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3"/>
@@ -2955,31 +2438,31 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H3" t="n">
-        <v>27397</v>
+        <v>673998</v>
       </c>
       <c r="I3" t="n">
-        <v>43592</v>
+        <v>523852</v>
       </c>
       <c r="J3" t="n">
-        <v>0.698743</v>
+        <v>0.809731</v>
       </c>
       <c r="K3" t="n">
-        <v>0.727802</v>
+        <v>0.800642</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
@@ -2996,16 +2479,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="S3" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="U3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="V3" t="s">
         <v>39</v>
@@ -3014,10 +2497,10 @@
         <v>39</v>
       </c>
       <c r="X3" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="Y3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="Z3" t="s">
         <v>47</v>
@@ -3025,15 +2508,13 @@
       <c r="AA3" t="s">
         <v>47</v>
       </c>
-      <c r="AB3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB3"/>
+      <c r="AC3"/>
     </row>
     <row r="4">
-      <c r="A4"/>
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -3047,42 +2528,46 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="H4" t="n">
-        <v>37951</v>
+        <v>574297</v>
       </c>
       <c r="I4" t="n">
-        <v>33615</v>
+        <v>532771</v>
       </c>
       <c r="J4" t="n">
-        <v>0.695535</v>
+        <v>0.880599</v>
       </c>
       <c r="K4" t="n">
-        <v>0.691301</v>
-      </c>
-      <c r="L4"/>
-      <c r="M4"/>
+        <v>0.884679</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1108</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1475</v>
+      </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4830</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>5171</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="S4" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="T4" t="s">
         <v>38</v>
@@ -3097,10 +2582,10 @@
         <v>39</v>
       </c>
       <c r="X4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="Y4" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="Z4" t="s">
         <v>47</v>
@@ -3108,12 +2593,8 @@
       <c r="AA4" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB4"/>
+      <c r="AC4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3132,34 +2613,34 @@
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="H5" t="n">
-        <v>30287</v>
+        <v>658933</v>
       </c>
       <c r="I5" t="n">
-        <v>31035</v>
+        <v>456322</v>
       </c>
       <c r="J5" t="n">
-        <v>0.708487</v>
+        <v>0.895149</v>
       </c>
       <c r="K5" t="n">
-        <v>0.718651</v>
+        <v>0.896563</v>
       </c>
       <c r="L5" t="n">
-        <v>1291</v>
+        <v>1016</v>
       </c>
       <c r="M5" t="n">
-        <v>1634</v>
+        <v>2100</v>
       </c>
       <c r="N5" t="n">
-        <v>5676</v>
+        <v>4947</v>
       </c>
       <c r="O5" t="n">
-        <v>5523</v>
+        <v>7216</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -3168,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="S5" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="T5" t="s">
         <v>38</v>
@@ -3186,10 +2667,10 @@
         <v>39</v>
       </c>
       <c r="X5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="Z5" t="s">
         <v>47</v>
@@ -3197,12 +2678,8 @@
       <c r="AA5" t="s">
         <v>47</v>
       </c>
-      <c r="AB5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB5"/>
+      <c r="AC5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3221,34 +2698,34 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H6" t="n">
-        <v>36363</v>
+        <v>652706</v>
       </c>
       <c r="I6" t="n">
-        <v>21264</v>
+        <v>539219</v>
       </c>
       <c r="J6" t="n">
-        <v>0.723423</v>
+        <v>0.862538</v>
       </c>
       <c r="K6" t="n">
-        <v>0.749255</v>
+        <v>0.876097</v>
       </c>
       <c r="L6" t="n">
-        <v>1180</v>
+        <v>928</v>
       </c>
       <c r="M6" t="n">
-        <v>2469</v>
+        <v>984</v>
       </c>
       <c r="N6" t="n">
-        <v>6287</v>
+        <v>3349</v>
       </c>
       <c r="O6" t="n">
-        <v>7967</v>
+        <v>3377</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -3257,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="S6" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="T6" t="s">
         <v>38</v>
@@ -3275,10 +2752,10 @@
         <v>39</v>
       </c>
       <c r="X6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Y6" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="Z6" t="s">
         <v>47</v>
@@ -3286,12 +2763,8 @@
       <c r="AA6" t="s">
         <v>47</v>
       </c>
-      <c r="AB6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB6"/>
+      <c r="AC6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3301,43 +2774,43 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="H7" t="n">
-        <v>34033</v>
+        <v>617090</v>
       </c>
       <c r="I7" t="n">
-        <v>32267</v>
+        <v>399865</v>
       </c>
       <c r="J7" t="n">
-        <v>0.708643</v>
+        <v>0.839729</v>
       </c>
       <c r="K7" t="n">
-        <v>0.712029</v>
+        <v>0.819599</v>
       </c>
       <c r="L7" t="n">
-        <v>999</v>
+        <v>17741</v>
       </c>
       <c r="M7" t="n">
-        <v>936</v>
+        <v>16180</v>
       </c>
       <c r="N7" t="n">
-        <v>4372</v>
+        <v>1394</v>
       </c>
       <c r="O7" t="n">
-        <v>4131</v>
+        <v>1192</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -3346,16 +2819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S7" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="T7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="U7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="V7" t="s">
         <v>39</v>
@@ -3364,10 +2837,10 @@
         <v>39</v>
       </c>
       <c r="X7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Y7" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="Z7" t="s">
         <v>47</v>
@@ -3375,12 +2848,8 @@
       <c r="AA7" t="s">
         <v>47</v>
       </c>
-      <c r="AB7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB7"/>
+      <c r="AC7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -3390,43 +2859,43 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H8" t="n">
-        <v>45497</v>
+        <v>662330</v>
       </c>
       <c r="I8" t="n">
-        <v>26490</v>
+        <v>401544</v>
       </c>
       <c r="J8" t="n">
-        <v>0.721718</v>
+        <v>0.862365</v>
       </c>
       <c r="K8" t="n">
-        <v>0.71815</v>
+        <v>0.855786</v>
       </c>
       <c r="L8" t="n">
-        <v>20716</v>
+        <v>10781</v>
       </c>
       <c r="M8" t="n">
-        <v>16874</v>
+        <v>6842</v>
       </c>
       <c r="N8" t="n">
-        <v>1677</v>
+        <v>1479</v>
       </c>
       <c r="O8" t="n">
-        <v>1268</v>
+        <v>865</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -3435,16 +2904,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="S8" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="T8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="U8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="V8" t="s">
         <v>39</v>
@@ -3453,10 +2922,10 @@
         <v>39</v>
       </c>
       <c r="X8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Y8" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="Z8" t="s">
         <v>47</v>
@@ -3464,12 +2933,8 @@
       <c r="AA8" t="s">
         <v>47</v>
       </c>
-      <c r="AB8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB8"/>
+      <c r="AC8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -3479,43 +2944,43 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="H9" t="n">
-        <v>43043</v>
+        <v>439380</v>
       </c>
       <c r="I9" t="n">
-        <v>34744</v>
+        <v>523208</v>
       </c>
       <c r="J9" t="n">
-        <v>0.704417</v>
+        <v>0.867446</v>
       </c>
       <c r="K9" t="n">
-        <v>0.701082</v>
+        <v>0.872852</v>
       </c>
       <c r="L9" t="n">
-        <v>11693</v>
+        <v>9429</v>
       </c>
       <c r="M9" t="n">
-        <v>7478</v>
+        <v>15032</v>
       </c>
       <c r="N9" t="n">
-        <v>1926</v>
+        <v>1034</v>
       </c>
       <c r="O9" t="n">
-        <v>981</v>
+        <v>1794</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -3524,16 +2989,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="S9" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="T9" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="U9" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="V9" t="s">
         <v>39</v>
@@ -3542,10 +3007,10 @@
         <v>39</v>
       </c>
       <c r="X9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Y9" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="Z9" t="s">
         <v>47</v>
@@ -3553,344 +3018,8 @@
       <c r="AA9" t="s">
         <v>47</v>
       </c>
-      <c r="AB9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" t="n">
-        <v>31038</v>
-      </c>
-      <c r="I10" t="n">
-        <v>71567</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.70194</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.69255</v>
-      </c>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10" t="n">
-        <v>1408</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="s">
-        <v>70</v>
-      </c>
-      <c r="S10" t="s">
-        <v>36</v>
-      </c>
-      <c r="T10" t="s">
-        <v>38</v>
-      </c>
-      <c r="U10" t="s">
-        <v>97</v>
-      </c>
-      <c r="V10" t="s">
-        <v>39</v>
-      </c>
-      <c r="W10" t="s">
-        <v>39</v>
-      </c>
-      <c r="X10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC10"/>
-    </row>
-    <row r="11">
-      <c r="A11"/>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" t="n">
-        <v>43269</v>
-      </c>
-      <c r="I11" t="n">
-        <v>31576</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.694129</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.734977</v>
-      </c>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S11" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" t="s">
-        <v>38</v>
-      </c>
-      <c r="U11" t="s">
-        <v>38</v>
-      </c>
-      <c r="V11" t="s">
-        <v>39</v>
-      </c>
-      <c r="W11" t="s">
-        <v>39</v>
-      </c>
-      <c r="X11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12"/>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" t="n">
-        <v>43604</v>
-      </c>
-      <c r="I12" t="n">
-        <v>42364</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.703551</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.708449</v>
-      </c>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
-        <v>92</v>
-      </c>
-      <c r="S12" t="s">
-        <v>101</v>
-      </c>
-      <c r="T12" t="s">
-        <v>38</v>
-      </c>
-      <c r="U12" t="s">
-        <v>38</v>
-      </c>
-      <c r="V12" t="s">
-        <v>39</v>
-      </c>
-      <c r="W12" t="s">
-        <v>39</v>
-      </c>
-      <c r="X12" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13"/>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" t="n">
-        <v>38820</v>
-      </c>
-      <c r="I13" t="n">
-        <v>39578</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.69155</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.704142</v>
-      </c>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U13" t="s">
-        <v>38</v>
-      </c>
-      <c r="V13" t="s">
-        <v>39</v>
-      </c>
-      <c r="W13" t="s">
-        <v>39</v>
-      </c>
-      <c r="X13" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB9"/>
+      <c r="AC9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3920,79 +3049,79 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U1" t="s">
         <v>134</v>
       </c>
-      <c r="F1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="V1" t="s">
+        <v>145</v>
+      </c>
+      <c r="W1" t="s">
+        <v>146</v>
+      </c>
+      <c r="X1" t="s">
         <v>136</v>
       </c>
-      <c r="J1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" t="s">
-        <v>124</v>
-      </c>
-      <c r="S1" t="s">
-        <v>125</v>
-      </c>
-      <c r="T1" t="s">
-        <v>127</v>
-      </c>
-      <c r="U1" t="s">
-        <v>126</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>137</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>138</v>
       </c>
-      <c r="X1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>130</v>
-      </c>
       <c r="AA1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AB1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="AC1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2">
@@ -4000,30 +3129,38 @@
       <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
       <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2"/>
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>149</v>
+      </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2"/>
+        <v>93</v>
+      </c>
+      <c r="J2" t="n">
+        <v>543814</v>
+      </c>
       <c r="K2" t="n">
-        <v>67692</v>
-      </c>
-      <c r="L2"/>
+        <v>663105</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.870303</v>
+      </c>
       <c r="M2" t="n">
-        <v>0.691884</v>
+        <v>0.887448</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -4037,9 +3174,11 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2"/>
+      <c r="R2" t="s">
+        <v>47</v>
+      </c>
       <c r="S2" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="T2" t="s">
         <v>39</v>
@@ -4048,21 +3187,27 @@
         <v>39</v>
       </c>
       <c r="V2"/>
-      <c r="W2"/>
+      <c r="W2" t="s">
+        <v>150</v>
+      </c>
       <c r="X2" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="Y2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="AA2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB2"/>
-      <c r="AC2"/>
+        <v>77</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3"/>
@@ -4070,37 +3215,35 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>141</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>27397</v>
+        <v>543814</v>
       </c>
       <c r="K3" t="n">
-        <v>43592</v>
+        <v>663105</v>
       </c>
       <c r="L3" t="n">
-        <v>0.698743</v>
+        <v>0.870303</v>
       </c>
       <c r="M3" t="n">
-        <v>0.727802</v>
+        <v>0.887448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -4115,10 +3258,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="T3" t="s">
         <v>39</v>
@@ -4127,25 +3270,25 @@
         <v>39</v>
       </c>
       <c r="V3"/>
-      <c r="W3" t="s">
-        <v>142</v>
-      </c>
+      <c r="W3"/>
       <c r="X3" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="Y3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s">
         <v>47</v>
       </c>
       <c r="AA3" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC3"/>
+        <v>111</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4"/>
@@ -4153,35 +3296,37 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4"/>
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>151</v>
+      </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>27397</v>
+        <v>673998</v>
       </c>
       <c r="K4" t="n">
-        <v>43592</v>
+        <v>523852</v>
       </c>
       <c r="L4" t="n">
-        <v>0.698743</v>
+        <v>0.809731</v>
       </c>
       <c r="M4" t="n">
-        <v>0.727802</v>
+        <v>0.800642</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4196,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="S4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="T4" t="s">
         <v>39</v>
@@ -4208,12 +3353,14 @@
         <v>39</v>
       </c>
       <c r="V4"/>
-      <c r="W4"/>
+      <c r="W4" t="s">
+        <v>152</v>
+      </c>
       <c r="X4" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="Z4" t="s">
         <v>47</v>
@@ -4222,9 +3369,11 @@
         <v>47</v>
       </c>
       <c r="AB4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC4"/>
+        <v>115</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5"/>
@@ -4232,17 +3381,17 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -4251,16 +3400,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>37951</v>
+        <v>673998</v>
       </c>
       <c r="K5" t="n">
-        <v>33615</v>
+        <v>523852</v>
       </c>
       <c r="L5" t="n">
-        <v>0.695535</v>
+        <v>0.809731</v>
       </c>
       <c r="M5" t="n">
-        <v>0.691301</v>
+        <v>0.800642</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -4275,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="S5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="T5" t="s">
         <v>39</v>
@@ -4289,10 +3438,10 @@
       <c r="V5"/>
       <c r="W5"/>
       <c r="X5" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="Y5" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="Z5" t="s">
         <v>47</v>
@@ -4301,9 +3450,11 @@
         <v>47</v>
       </c>
       <c r="AB5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC5"/>
+        <v>115</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -4319,43 +3470,43 @@
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H6" t="n">
-        <v>1291</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1634</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>30287</v>
+        <v>574297</v>
       </c>
       <c r="K6" t="n">
-        <v>31035</v>
+        <v>532771</v>
       </c>
       <c r="L6" t="n">
-        <v>0.708487</v>
+        <v>0.880599</v>
       </c>
       <c r="M6" t="n">
-        <v>0.718651</v>
+        <v>0.884679</v>
       </c>
       <c r="N6" t="n">
-        <v>5676</v>
+        <v>4830</v>
       </c>
       <c r="O6" t="n">
-        <v>5523</v>
+        <v>5171</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="s">
         <v>38</v>
@@ -4369,17 +3520,15 @@
       <c r="U6" t="s">
         <v>39</v>
       </c>
-      <c r="V6" t="s">
-        <v>35</v>
-      </c>
+      <c r="V6"/>
       <c r="W6" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="X6" t="s">
         <v>45</v>
       </c>
       <c r="Y6" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="Z6" t="s">
         <v>47</v>
@@ -4390,7 +3539,9 @@
       <c r="AB6" t="s">
         <v>37</v>
       </c>
-      <c r="AC6"/>
+      <c r="AC6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -4406,43 +3557,43 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H7" t="n">
-        <v>5676</v>
+        <v>1108</v>
       </c>
       <c r="I7" t="n">
-        <v>5523</v>
+        <v>1475</v>
       </c>
       <c r="J7" t="n">
-        <v>30287</v>
+        <v>574297</v>
       </c>
       <c r="K7" t="n">
-        <v>31035</v>
+        <v>532771</v>
       </c>
       <c r="L7" t="n">
-        <v>0.708487</v>
+        <v>0.880599</v>
       </c>
       <c r="M7" t="n">
-        <v>0.718651</v>
+        <v>0.884679</v>
       </c>
       <c r="N7" t="n">
-        <v>5676</v>
+        <v>4830</v>
       </c>
       <c r="O7" t="n">
-        <v>5523</v>
+        <v>5171</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="s">
         <v>38</v>
@@ -4457,16 +3608,16 @@
         <v>39</v>
       </c>
       <c r="V7" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="W7" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="X7" t="s">
         <v>45</v>
       </c>
       <c r="Y7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="Z7" t="s">
         <v>47</v>
@@ -4477,7 +3628,9 @@
       <c r="AB7" t="s">
         <v>37</v>
       </c>
-      <c r="AC7"/>
+      <c r="AC7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -4493,43 +3646,43 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H8" t="n">
-        <v>1180</v>
+        <v>4830</v>
       </c>
       <c r="I8" t="n">
-        <v>2469</v>
+        <v>5171</v>
       </c>
       <c r="J8" t="n">
-        <v>36363</v>
+        <v>574297</v>
       </c>
       <c r="K8" t="n">
-        <v>21264</v>
+        <v>532771</v>
       </c>
       <c r="L8" t="n">
-        <v>0.723423</v>
+        <v>0.880599</v>
       </c>
       <c r="M8" t="n">
-        <v>0.749255</v>
+        <v>0.884679</v>
       </c>
       <c r="N8" t="n">
-        <v>6287</v>
+        <v>4830</v>
       </c>
       <c r="O8" t="n">
-        <v>7967</v>
+        <v>5171</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="s">
         <v>38</v>
@@ -4544,16 +3697,16 @@
         <v>39</v>
       </c>
       <c r="V8" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="W8" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="X8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Y8" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="Z8" t="s">
         <v>47</v>
@@ -4562,10 +3715,10 @@
         <v>47</v>
       </c>
       <c r="AB8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AC8" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -4582,43 +3735,43 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H9" t="n">
-        <v>6287</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7967</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>36363</v>
+        <v>574297</v>
       </c>
       <c r="K9" t="n">
-        <v>21264</v>
+        <v>532771</v>
       </c>
       <c r="L9" t="n">
-        <v>0.723423</v>
+        <v>0.880599</v>
       </c>
       <c r="M9" t="n">
-        <v>0.749255</v>
+        <v>0.884679</v>
       </c>
       <c r="N9" t="n">
-        <v>6287</v>
+        <v>4830</v>
       </c>
       <c r="O9" t="n">
-        <v>7967</v>
+        <v>5171</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="s">
         <v>38</v>
@@ -4632,17 +3785,15 @@
       <c r="U9" t="s">
         <v>39</v>
       </c>
-      <c r="V9" t="s">
-        <v>143</v>
-      </c>
+      <c r="V9"/>
       <c r="W9" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="X9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Y9" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="Z9" t="s">
         <v>47</v>
@@ -4651,10 +3802,10 @@
         <v>47</v>
       </c>
       <c r="AB9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AC9" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -4665,43 +3816,43 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
         <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H10" t="n">
-        <v>999</v>
+        <v>1016</v>
       </c>
       <c r="I10" t="n">
-        <v>936</v>
+        <v>2100</v>
       </c>
       <c r="J10" t="n">
-        <v>34033</v>
+        <v>658933</v>
       </c>
       <c r="K10" t="n">
-        <v>32267</v>
+        <v>456322</v>
       </c>
       <c r="L10" t="n">
-        <v>0.708643</v>
+        <v>0.895149</v>
       </c>
       <c r="M10" t="n">
-        <v>0.712029</v>
+        <v>0.896563</v>
       </c>
       <c r="N10" t="n">
-        <v>4372</v>
+        <v>4947</v>
       </c>
       <c r="O10" t="n">
-        <v>4131</v>
+        <v>7216</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -4728,10 +3879,10 @@
         <v>35</v>
       </c>
       <c r="X10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Y10" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="Z10" t="s">
         <v>47</v>
@@ -4740,9 +3891,11 @@
         <v>47</v>
       </c>
       <c r="AB10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC10"/>
+        <v>49</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -4752,43 +3905,43 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H11" t="n">
-        <v>4372</v>
+        <v>4947</v>
       </c>
       <c r="I11" t="n">
-        <v>4131</v>
+        <v>7216</v>
       </c>
       <c r="J11" t="n">
-        <v>34033</v>
+        <v>658933</v>
       </c>
       <c r="K11" t="n">
-        <v>32267</v>
+        <v>456322</v>
       </c>
       <c r="L11" t="n">
-        <v>0.708643</v>
+        <v>0.895149</v>
       </c>
       <c r="M11" t="n">
-        <v>0.712029</v>
+        <v>0.896563</v>
       </c>
       <c r="N11" t="n">
-        <v>4372</v>
+        <v>4947</v>
       </c>
       <c r="O11" t="n">
-        <v>4131</v>
+        <v>7216</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -4809,16 +3962,16 @@
         <v>39</v>
       </c>
       <c r="V11" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="W11" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="X11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Y11" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="Z11" t="s">
         <v>47</v>
@@ -4827,9 +3980,11 @@
         <v>47</v>
       </c>
       <c r="AB11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC11"/>
+        <v>49</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -4839,43 +3994,43 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H12" t="n">
-        <v>20716</v>
+        <v>928</v>
       </c>
       <c r="I12" t="n">
-        <v>16874</v>
+        <v>984</v>
       </c>
       <c r="J12" t="n">
-        <v>45497</v>
+        <v>652706</v>
       </c>
       <c r="K12" t="n">
-        <v>26490</v>
+        <v>539219</v>
       </c>
       <c r="L12" t="n">
-        <v>0.721718</v>
+        <v>0.862538</v>
       </c>
       <c r="M12" t="n">
-        <v>0.71815</v>
+        <v>0.876097</v>
       </c>
       <c r="N12" t="n">
-        <v>1677</v>
+        <v>3349</v>
       </c>
       <c r="O12" t="n">
-        <v>1268</v>
+        <v>3377</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -4902,10 +4057,10 @@
         <v>35</v>
       </c>
       <c r="X12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y12" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="Z12" t="s">
         <v>47</v>
@@ -4914,10 +4069,10 @@
         <v>47</v>
       </c>
       <c r="AB12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AC12" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
@@ -4928,43 +4083,43 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H13" t="n">
-        <v>1677</v>
+        <v>3349</v>
       </c>
       <c r="I13" t="n">
-        <v>1268</v>
+        <v>3377</v>
       </c>
       <c r="J13" t="n">
-        <v>45497</v>
+        <v>652706</v>
       </c>
       <c r="K13" t="n">
-        <v>26490</v>
+        <v>539219</v>
       </c>
       <c r="L13" t="n">
-        <v>0.721718</v>
+        <v>0.862538</v>
       </c>
       <c r="M13" t="n">
-        <v>0.71815</v>
+        <v>0.876097</v>
       </c>
       <c r="N13" t="n">
-        <v>1677</v>
+        <v>3349</v>
       </c>
       <c r="O13" t="n">
-        <v>1268</v>
+        <v>3377</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -4985,16 +4140,16 @@
         <v>39</v>
       </c>
       <c r="V13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="W13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="X13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y13" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="Z13" t="s">
         <v>47</v>
@@ -5003,10 +4158,10 @@
         <v>47</v>
       </c>
       <c r="AB13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AC13" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
@@ -5017,43 +4172,43 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
         <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="H14" t="n">
-        <v>11693</v>
+        <v>17741</v>
       </c>
       <c r="I14" t="n">
-        <v>7478</v>
+        <v>16180</v>
       </c>
       <c r="J14" t="n">
-        <v>43043</v>
+        <v>617090</v>
       </c>
       <c r="K14" t="n">
-        <v>34744</v>
+        <v>399865</v>
       </c>
       <c r="L14" t="n">
-        <v>0.704417</v>
+        <v>0.839729</v>
       </c>
       <c r="M14" t="n">
-        <v>0.701082</v>
+        <v>0.819599</v>
       </c>
       <c r="N14" t="n">
-        <v>1926</v>
+        <v>1394</v>
       </c>
       <c r="O14" t="n">
-        <v>981</v>
+        <v>1192</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -5062,10 +4217,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="S14" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="T14" t="s">
         <v>39</v>
@@ -5080,10 +4235,10 @@
         <v>35</v>
       </c>
       <c r="X14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Y14" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="Z14" t="s">
         <v>47</v>
@@ -5092,10 +4247,10 @@
         <v>47</v>
       </c>
       <c r="AB14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AC14" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -5106,43 +4261,43 @@
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="H15" t="n">
-        <v>1926</v>
+        <v>1394</v>
       </c>
       <c r="I15" t="n">
-        <v>981</v>
+        <v>1192</v>
       </c>
       <c r="J15" t="n">
-        <v>43043</v>
+        <v>617090</v>
       </c>
       <c r="K15" t="n">
-        <v>34744</v>
+        <v>399865</v>
       </c>
       <c r="L15" t="n">
-        <v>0.704417</v>
+        <v>0.839729</v>
       </c>
       <c r="M15" t="n">
-        <v>0.701082</v>
+        <v>0.819599</v>
       </c>
       <c r="N15" t="n">
-        <v>1926</v>
+        <v>1394</v>
       </c>
       <c r="O15" t="n">
-        <v>981</v>
+        <v>1192</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5151,10 +4306,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="S15" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="T15" t="s">
         <v>39</v>
@@ -5163,16 +4318,16 @@
         <v>39</v>
       </c>
       <c r="V15" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="W15" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="X15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Y15" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="Z15" t="s">
         <v>47</v>
@@ -5181,10 +4336,10 @@
         <v>47</v>
       </c>
       <c r="AB15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AC15" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
@@ -5195,43 +4350,43 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
         <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H16" t="n">
-        <v>9550</v>
+        <v>10781</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>6842</v>
       </c>
       <c r="J16" t="n">
-        <v>31038</v>
+        <v>662330</v>
       </c>
       <c r="K16" t="n">
-        <v>71567</v>
+        <v>401544</v>
       </c>
       <c r="L16" t="n">
-        <v>0.70194</v>
+        <v>0.862365</v>
       </c>
       <c r="M16" t="n">
-        <v>0.69255</v>
+        <v>0.855786</v>
       </c>
       <c r="N16" t="n">
-        <v>1408</v>
+        <v>1479</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>865</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -5240,10 +4395,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="S16" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="T16" t="s">
         <v>39</v>
@@ -5254,23 +4409,27 @@
       <c r="V16" t="s">
         <v>35</v>
       </c>
-      <c r="W16"/>
+      <c r="W16" t="s">
+        <v>35</v>
+      </c>
       <c r="X16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Y16" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="Z16" t="s">
         <v>47</v>
       </c>
       <c r="AA16" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="AB16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC16"/>
+        <v>63</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -5280,43 +4439,43 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H17" t="n">
-        <v>1408</v>
+        <v>1479</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>865</v>
       </c>
       <c r="J17" t="n">
-        <v>31038</v>
+        <v>662330</v>
       </c>
       <c r="K17" t="n">
-        <v>71567</v>
+        <v>401544</v>
       </c>
       <c r="L17" t="n">
-        <v>0.70194</v>
+        <v>0.862365</v>
       </c>
       <c r="M17" t="n">
-        <v>0.69255</v>
+        <v>0.855786</v>
       </c>
       <c r="N17" t="n">
-        <v>1408</v>
+        <v>1479</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>865</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -5325,10 +4484,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="S17" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="T17" t="s">
         <v>39</v>
@@ -5337,25 +4496,29 @@
         <v>39</v>
       </c>
       <c r="V17" t="s">
-        <v>143</v>
-      </c>
-      <c r="W17"/>
+        <v>154</v>
+      </c>
+      <c r="W17" t="s">
+        <v>154</v>
+      </c>
       <c r="X17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Y17" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="Z17" t="s">
         <v>47</v>
       </c>
       <c r="AA17" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="AB17" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC17"/>
+        <v>63</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -5365,41 +4528,43 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18"/>
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
       <c r="F18" t="s">
         <v>66</v>
       </c>
       <c r="G18" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>9429</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>15032</v>
       </c>
       <c r="J18" t="n">
-        <v>31038</v>
+        <v>439380</v>
       </c>
       <c r="K18" t="n">
-        <v>71567</v>
+        <v>523208</v>
       </c>
       <c r="L18" t="n">
-        <v>0.70194</v>
+        <v>0.867446</v>
       </c>
       <c r="M18" t="n">
-        <v>0.69255</v>
+        <v>0.872852</v>
       </c>
       <c r="N18" t="n">
-        <v>1408</v>
+        <v>1034</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1794</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -5408,10 +4573,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="S18" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="T18" t="s">
         <v>39</v>
@@ -5419,261 +4584,206 @@
       <c r="U18" t="s">
         <v>39</v>
       </c>
-      <c r="V18"/>
-      <c r="W18"/>
+      <c r="V18" t="s">
+        <v>35</v>
+      </c>
+      <c r="W18" t="s">
+        <v>35</v>
+      </c>
       <c r="X18" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="Y18" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="Z18" t="s">
         <v>47</v>
       </c>
       <c r="AA18" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="AB18" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC18"/>
+        <v>67</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19"/>
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
       <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1034</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1794</v>
+      </c>
+      <c r="J19" t="n">
+        <v>439380</v>
+      </c>
+      <c r="K19" t="n">
+        <v>523208</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.867446</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.872852</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1034</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1794</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>47</v>
+      </c>
+      <c r="S19" t="s">
+        <v>47</v>
+      </c>
+      <c r="T19" t="s">
+        <v>39</v>
+      </c>
+      <c r="U19" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" t="s">
+        <v>154</v>
+      </c>
+      <c r="W19" t="s">
+        <v>154</v>
+      </c>
+      <c r="X19" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB19" t="s">
         <v>67</v>
       </c>
-      <c r="D19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>43269</v>
-      </c>
-      <c r="K19" t="n">
-        <v>31576</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.694129</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.734977</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>38</v>
-      </c>
-      <c r="S19" t="s">
-        <v>38</v>
-      </c>
-      <c r="T19" t="s">
-        <v>39</v>
-      </c>
-      <c r="U19" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC19"/>
+      <c r="AC19" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20"/>
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
       <c r="B20" t="s">
         <v>31</v>
       </c>
       <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>24</v>
+      </c>
+      <c r="J20" t="n">
+        <v>439380</v>
+      </c>
+      <c r="K20" t="n">
+        <v>523208</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.867446</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.872852</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1034</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1794</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>47</v>
+      </c>
+      <c r="S20" t="s">
+        <v>47</v>
+      </c>
+      <c r="T20" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" t="s">
+        <v>39</v>
+      </c>
+      <c r="V20"/>
+      <c r="W20" t="s">
+        <v>152</v>
+      </c>
+      <c r="X20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB20" t="s">
         <v>67</v>
       </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20"/>
-      <c r="F20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>43604</v>
-      </c>
-      <c r="K20" t="n">
-        <v>42364</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.703551</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.708449</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="s">
-        <v>38</v>
-      </c>
-      <c r="S20" t="s">
-        <v>38</v>
-      </c>
-      <c r="T20" t="s">
-        <v>39</v>
-      </c>
-      <c r="U20" t="s">
-        <v>39</v>
-      </c>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>92</v>
-      </c>
       <c r="AC20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21"/>
-      <c r="F21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>38820</v>
-      </c>
-      <c r="K21" t="n">
-        <v>39578</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.69155</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.704142</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="s">
-        <v>38</v>
-      </c>
-      <c r="S21" t="s">
-        <v>38</v>
-      </c>
-      <c r="T21" t="s">
-        <v>39</v>
-      </c>
-      <c r="U21" t="s">
-        <v>39</v>
-      </c>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB21"/>
-      <c r="AC21"/>
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5691,13 +4801,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>26</v>
@@ -5719,9 +4829,7 @@
       <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
+      <c r="E2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -5736,9 +4844,7 @@
       <c r="D3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
+      <c r="E3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -5748,31 +4854,27 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
+      <c r="E4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
+      <c r="E5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -5782,14 +4884,12 @@
         <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
+      <c r="E6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -5799,30 +4899,28 @@
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
         <v>47</v>
       </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
+      <c r="E7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -5830,24 +4928,22 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
+      <c r="E9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -5855,234 +4951,108 @@
       <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
+      <c r="E10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
+      <c r="E11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
+      <c r="E12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
+      <c r="E13"/>
     </row>
     <row r="14">
-      <c r="A14"/>
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
+      <c r="E14"/>
     </row>
     <row r="15">
-      <c r="A15"/>
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
         <v>47</v>
       </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
+      <c r="E15"/>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
+      <c r="E16"/>
     </row>
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19"/>
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20">
-      <c r="A20"/>
-      <c r="B20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23"/>
-      <c r="B23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23"/>
-    </row>
-    <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25"/>
-      <c r="B25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25"/>
+      <c r="E17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6103,22 +5073,22 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="F1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2">
@@ -6126,22 +5096,22 @@
         <v>39</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>9550</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0416666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -6149,22 +5119,22 @@
         <v>39</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>124</v>
+        <v>58.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0416666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -6172,22 +5142,45 @@
         <v>39</v>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>132.5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.583333333333333</v>
+        <v>0.0625</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E5" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -6206,17 +5199,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Test_QC_result.xlsx
+++ b/Test_QC_result.xlsx
@@ -1,909 +1,926 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WWW74\Desktop\Demo_win8\QC_check_report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B88478-9748-42F1-BE0D-C69DB16396D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="汇总" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2.2各文库合格标准评估" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2.3各病原污染情况评估" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="其余信息" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="汇总" sheetId="1" r:id="rId1"/>
+    <sheet name="2.2各文库合格标准评估" sheetId="2" r:id="rId2"/>
+    <sheet name="2.3各病原污染情况评估" sheetId="3" r:id="rId3"/>
+    <sheet name="其余信息" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">汇总!$A$1:$AD$49</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
-  <si>
-    <t xml:space="preserve">run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">体系</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tag_sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">原始数据</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有效数据比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">目标病原</t>
-  </si>
-  <si>
-    <t xml:space="preserve">目标病原RPK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">目标病原预判</t>
-  </si>
-  <si>
-    <t xml:space="preserve">总人内参</t>
-  </si>
-  <si>
-    <t xml:space="preserve">其它病原</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resis_info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">耐药/毒力基因</t>
-  </si>
-  <si>
-    <t xml:space="preserve">质控评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patho_namezn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生产批号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">产品检类别</t>
-  </si>
-  <si>
-    <t xml:space="preserve">成品对应中间品批号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生产工艺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">核酸提取日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">核酸重复次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提取重复次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">文库浓度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pooling体积</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外源内参</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最终评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不合格原因</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230108_MN00604_0153_A000H57MWF_bak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-P01-DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-P01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">阳性参考品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9e-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">甲型流感病毒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">滤</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内参不合格</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20241008感染1000中间品检</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中间品检</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">单管干粉引物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024.09.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6407766990291259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不合格</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-P02-DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-P02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肠道病毒A71型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">阳性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">合格</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3333333333333335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-P03-DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-P03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人呼吸道合胞病毒A型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">弱阳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">耐甲氧西林金黄色葡萄球菌__mecA__MRSA|滤|1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1039671682626544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-P04-DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-P04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人腮腺炎病毒2型（人副流感病毒2型）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9571217348447512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-P05-DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-P05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人腺病毒4型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">铜绿假单胞菌|滤|1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.510000000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6341611144760746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">目标病原漏检</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-P07-DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-P07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">粪肠球菌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7932960893854748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-P08-DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-P08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卡他莫拉菌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1136481577581736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R01-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重复性参考品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6881720430107525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R02-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肺炎克雷伯菌|滤|9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.510000000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2414910858995136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R03-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肺炎克雷伯菌|滤|3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.690000000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0472320975114271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R04-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2822757111597372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R05-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9325513196480939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R07-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.489999999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0785017957927145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R08-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.899999999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1746031746031749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R01-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">非结核分枝杆菌|弱阳|12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4479804161566707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R02-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3670033670033668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R03-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">流感嗜血杆菌|滤|2;埃及嗜血杆菌|滤|2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2876712328767121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R04-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.809999999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0287733467945483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R05-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">铜绿假单胞菌|滤|9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.739999999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2017075773746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R07-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9225523623964929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R08-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4020542920029344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R01-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q30不合格</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8436018957345968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R02-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9585798816568047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R03-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7764923646459971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R04-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8666985188724321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R05-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">铜绿假单胞菌|滤|3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.829999999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1864046733935214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R06-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2e-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百日咳鲍特菌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.350000000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9484029484029484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R07-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8985507246376812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R08-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.420000000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4443168771526977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R01-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0349013657056148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R02-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鲍曼不动杆菌|弱阳|81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8462998102466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">病原污染</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R03-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7752081406105455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R04-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7906976744186047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R05-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">铜绿假单胞菌|滤|4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7322404371584699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R07-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9168692270296548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R08-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.260000000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6900369003690034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R01-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.380281690140845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R02-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0581039755351682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R03-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0165912518853695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R04-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.809999999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1897926634768741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R05-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">铜绿假单胞菌|滤|1;溶血嗜血杆菌|滤|1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R06-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8e-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">非结核分枝杆菌|弱阳|13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6536930561698364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R07-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7510316368638241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R08-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2583392476933994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-P06-DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-P06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1e-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.170000000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9747149231531975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R06-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1088082901554404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R06-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T11A-R06-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4e-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8490028490028494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">实验编号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">文库编号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">总样本数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">病原名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检出样本数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">病原RPK中位数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPK_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">样本频率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生信预判</t>
-  </si>
-  <si>
-    <t xml:space="preserve">埃及嗜血杆菌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">流感嗜血杆菌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">溶血嗜血杆菌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">耐甲氧西林金黄色葡萄球菌__mecA__MRSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肺炎克雷伯菌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">铜绿假单胞菌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">非结核分枝杆菌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鲍曼不动杆菌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="292">
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>体系</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>tag_sample</t>
+  </si>
+  <si>
+    <t>原始数据</t>
+  </si>
+  <si>
+    <t>Q30</t>
+  </si>
+  <si>
+    <t>有效数据比例</t>
+  </si>
+  <si>
+    <t>目标病原</t>
+  </si>
+  <si>
+    <t>目标病原RPK</t>
+  </si>
+  <si>
+    <t>目标病原预判</t>
+  </si>
+  <si>
+    <t>总人内参</t>
+  </si>
+  <si>
+    <t>其它病原</t>
+  </si>
+  <si>
+    <t>resis_info</t>
+  </si>
+  <si>
+    <t>耐药/毒力基因</t>
+  </si>
+  <si>
+    <t>质控评价</t>
+  </si>
+  <si>
+    <t>patho_namezn</t>
+  </si>
+  <si>
+    <t>生产批号</t>
+  </si>
+  <si>
+    <t>产品检类别</t>
+  </si>
+  <si>
+    <t>成品对应中间品批号</t>
+  </si>
+  <si>
+    <t>生产工艺</t>
+  </si>
+  <si>
+    <t>核酸提取日期</t>
+  </si>
+  <si>
+    <t>核酸重复次数</t>
+  </si>
+  <si>
+    <t>提取重复次数</t>
+  </si>
+  <si>
+    <t>文库浓度</t>
+  </si>
+  <si>
+    <t>Pooling体积</t>
+  </si>
+  <si>
+    <t>外源内参</t>
+  </si>
+  <si>
+    <t>最终评价</t>
+  </si>
+  <si>
+    <t>不合格原因</t>
+  </si>
+  <si>
+    <t>230108_MN00604_0153_A000H57MWF_bak</t>
+  </si>
+  <si>
+    <t>230108</t>
+  </si>
+  <si>
+    <t>T11A-P01-DJ</t>
+  </si>
+  <si>
+    <t>T11A</t>
+  </si>
+  <si>
+    <t>T11A-P01</t>
+  </si>
+  <si>
+    <t>阳性参考品</t>
+  </si>
+  <si>
+    <t>9e-04</t>
+  </si>
+  <si>
+    <t>甲型流感病毒</t>
+  </si>
+  <si>
+    <t>滤</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>内参不合格</t>
+  </si>
+  <si>
+    <t>20241008感染1000中间品检</t>
+  </si>
+  <si>
+    <t>中间品检</t>
+  </si>
+  <si>
+    <t>20240901</t>
+  </si>
+  <si>
+    <t>单管干粉引物</t>
+  </si>
+  <si>
+    <t>2024.09.25</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>16.48</t>
+  </si>
+  <si>
+    <t>3.6407766990291259</t>
+  </si>
+  <si>
+    <t>不合格</t>
+  </si>
+  <si>
+    <t>目标病原漏检</t>
+  </si>
+  <si>
+    <t>T11A-P02-DJ</t>
+  </si>
+  <si>
+    <t>T11A-P02</t>
+  </si>
+  <si>
+    <t>0.1506</t>
+  </si>
+  <si>
+    <t>肠道病毒A71型</t>
+  </si>
+  <si>
+    <t>阳性</t>
+  </si>
+  <si>
+    <t>合格</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>3.3333333333333335</t>
+  </si>
+  <si>
+    <t>T11A-P03-DJ</t>
+  </si>
+  <si>
+    <t>T11A-P03</t>
+  </si>
+  <si>
+    <t>0.0022</t>
+  </si>
+  <si>
+    <t>人呼吸道合胞病毒A型</t>
+  </si>
+  <si>
+    <t>弱阳</t>
+  </si>
+  <si>
+    <t>耐甲氧西林金黄色葡萄球菌__mecA__MRSA|滤|1</t>
+  </si>
+  <si>
+    <t>14.62</t>
+  </si>
+  <si>
+    <t>4.1039671682626544</t>
+  </si>
+  <si>
+    <t>T11A-P04-DJ</t>
+  </si>
+  <si>
+    <t>T11A-P04</t>
+  </si>
+  <si>
+    <t>0.3234</t>
+  </si>
+  <si>
+    <t>人腮腺炎病毒2型（人副流感病毒2型）</t>
+  </si>
+  <si>
+    <t>20.29</t>
+  </si>
+  <si>
+    <t>2.9571217348447512</t>
+  </si>
+  <si>
+    <t>T11A-P05-DJ</t>
+  </si>
+  <si>
+    <t>T11A-P05</t>
+  </si>
+  <si>
+    <t>0.2553</t>
+  </si>
+  <si>
+    <t>人腺病毒4型</t>
+  </si>
+  <si>
+    <t>铜绿假单胞菌|滤|1</t>
+  </si>
+  <si>
+    <t>16.510000000000002</t>
+  </si>
+  <si>
+    <t>3.6341611144760746</t>
+  </si>
+  <si>
+    <t>T11A-P07-DJ</t>
+  </si>
+  <si>
+    <t>T11A-P07</t>
+  </si>
+  <si>
+    <t>0.0023</t>
+  </si>
+  <si>
+    <t>粪肠球菌</t>
+  </si>
+  <si>
+    <t>21.48</t>
+  </si>
+  <si>
+    <t>2.7932960893854748</t>
+  </si>
+  <si>
+    <t>T11A-P08-DJ</t>
+  </si>
+  <si>
+    <t>T11A-P08</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>卡他莫拉菌</t>
+  </si>
+  <si>
+    <t>19.27</t>
+  </si>
+  <si>
+    <t>3.1136481577581736</t>
+  </si>
+  <si>
+    <t>T11A-R01-1</t>
+  </si>
+  <si>
+    <t>T11A-R01</t>
+  </si>
+  <si>
+    <t>重复性参考品</t>
+  </si>
+  <si>
+    <t>0.0016</t>
+  </si>
+  <si>
+    <t>22.32</t>
+  </si>
+  <si>
+    <t>2.6881720430107525</t>
+  </si>
+  <si>
+    <t>T11A-R02-1</t>
+  </si>
+  <si>
+    <t>T11A-R02</t>
+  </si>
+  <si>
+    <t>0.1444</t>
+  </si>
+  <si>
+    <t>肺炎克雷伯菌|滤|9</t>
+  </si>
+  <si>
+    <t>18.510000000000002</t>
+  </si>
+  <si>
+    <t>3.2414910858995136</t>
+  </si>
+  <si>
+    <t>T11A-R03-1</t>
+  </si>
+  <si>
+    <t>T11A-R03</t>
+  </si>
+  <si>
+    <t>0.0036</t>
+  </si>
+  <si>
+    <t>肺炎克雷伯菌|滤|3</t>
+  </si>
+  <si>
+    <t>19.690000000000001</t>
+  </si>
+  <si>
+    <t>3.0472320975114271</t>
+  </si>
+  <si>
+    <t>T11A-R04-1</t>
+  </si>
+  <si>
+    <t>T11A-R04</t>
+  </si>
+  <si>
+    <t>0.4193</t>
+  </si>
+  <si>
+    <t>18.28</t>
+  </si>
+  <si>
+    <t>3.2822757111597372</t>
+  </si>
+  <si>
+    <t>T11A-R05-1</t>
+  </si>
+  <si>
+    <t>T11A-R05</t>
+  </si>
+  <si>
+    <t>0.2363</t>
+  </si>
+  <si>
+    <t>20.46</t>
+  </si>
+  <si>
+    <t>2.9325513196480939</t>
+  </si>
+  <si>
+    <t>T11A-R07-1</t>
+  </si>
+  <si>
+    <t>T11A-R07</t>
+  </si>
+  <si>
+    <t>0.0042</t>
+  </si>
+  <si>
+    <t>19.489999999999998</t>
+  </si>
+  <si>
+    <t>3.0785017957927145</t>
+  </si>
+  <si>
+    <t>T11A-R08-1</t>
+  </si>
+  <si>
+    <t>T11A-R08</t>
+  </si>
+  <si>
+    <t>0.0019</t>
+  </si>
+  <si>
+    <t>18.899999999999999</t>
+  </si>
+  <si>
+    <t>3.1746031746031749</t>
+  </si>
+  <si>
+    <t>T11A-R01-2</t>
+  </si>
+  <si>
+    <t>0.0029</t>
+  </si>
+  <si>
+    <t>非结核分枝杆菌|弱阳|12</t>
+  </si>
+  <si>
+    <t>24.51</t>
+  </si>
+  <si>
+    <t>2.4479804161566707</t>
+  </si>
+  <si>
+    <t>病原污染</t>
+  </si>
+  <si>
+    <t>T11A-R02-2</t>
+  </si>
+  <si>
+    <t>0.6748</t>
+  </si>
+  <si>
+    <t>17.82</t>
+  </si>
+  <si>
+    <t>3.3670033670033668</t>
+  </si>
+  <si>
+    <t>T11A-R03-2</t>
+  </si>
+  <si>
+    <t>0.0247</t>
+  </si>
+  <si>
+    <t>流感嗜血杆菌|滤|2;埃及嗜血杆菌|滤|2</t>
+  </si>
+  <si>
+    <t>18.25</t>
+  </si>
+  <si>
+    <t>3.2876712328767121</t>
+  </si>
+  <si>
+    <t>T11A-R04-2</t>
+  </si>
+  <si>
+    <t>0.5325</t>
+  </si>
+  <si>
+    <t>19.809999999999999</t>
+  </si>
+  <si>
+    <t>3.0287733467945483</t>
+  </si>
+  <si>
+    <t>T11A-R05-2</t>
+  </si>
+  <si>
+    <t>0.5439</t>
+  </si>
+  <si>
+    <t>铜绿假单胞菌|滤|9</t>
+  </si>
+  <si>
+    <t>18.739999999999998</t>
+  </si>
+  <si>
+    <t>3.2017075773746</t>
+  </si>
+  <si>
+    <t>T11A-R07-2</t>
+  </si>
+  <si>
+    <t>0.0064</t>
+  </si>
+  <si>
+    <t>20.53</t>
+  </si>
+  <si>
+    <t>2.9225523623964929</t>
+  </si>
+  <si>
+    <t>T11A-R08-2</t>
+  </si>
+  <si>
+    <t>0.0122</t>
+  </si>
+  <si>
+    <t>13.63</t>
+  </si>
+  <si>
+    <t>4.4020542920029344</t>
+  </si>
+  <si>
+    <t>T11A-R01-3</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>Q30不合格</t>
+  </si>
+  <si>
+    <t>21.1</t>
+  </si>
+  <si>
+    <t>2.8436018957345968</t>
+  </si>
+  <si>
+    <t>T11A-R02-3</t>
+  </si>
+  <si>
+    <t>0.2678</t>
+  </si>
+  <si>
+    <t>20.28</t>
+  </si>
+  <si>
+    <t>2.9585798816568047</t>
+  </si>
+  <si>
+    <t>T11A-R03-3</t>
+  </si>
+  <si>
+    <t>21.61</t>
+  </si>
+  <si>
+    <t>2.7764923646459971</t>
+  </si>
+  <si>
+    <t>T11A-R04-3</t>
+  </si>
+  <si>
+    <t>0.2974</t>
+  </si>
+  <si>
+    <t>20.93</t>
+  </si>
+  <si>
+    <t>2.8666985188724321</t>
+  </si>
+  <si>
+    <t>T11A-R05-3</t>
+  </si>
+  <si>
+    <t>0.2191</t>
+  </si>
+  <si>
+    <t>铜绿假单胞菌|滤|3</t>
+  </si>
+  <si>
+    <t>18.829999999999998</t>
+  </si>
+  <si>
+    <t>3.1864046733935214</t>
+  </si>
+  <si>
+    <t>T11A-R06-3</t>
+  </si>
+  <si>
+    <t>T11A-R06</t>
+  </si>
+  <si>
+    <t>2e-04</t>
+  </si>
+  <si>
+    <t>百日咳鲍特菌</t>
+  </si>
+  <si>
+    <t>20.350000000000001</t>
+  </si>
+  <si>
+    <t>2.9484029484029484</t>
+  </si>
+  <si>
+    <t>T11A-R07-3</t>
+  </si>
+  <si>
+    <t>0.0032</t>
+  </si>
+  <si>
+    <t>20.7</t>
+  </si>
+  <si>
+    <t>2.8985507246376812</t>
+  </si>
+  <si>
+    <t>T11A-R08-3</t>
+  </si>
+  <si>
+    <t>17.420000000000002</t>
+  </si>
+  <si>
+    <t>3.4443168771526977</t>
+  </si>
+  <si>
+    <t>T11A-R01-4</t>
+  </si>
+  <si>
+    <t>0.0235</t>
+  </si>
+  <si>
+    <t>19.77</t>
+  </si>
+  <si>
+    <t>3.0349013657056148</t>
+  </si>
+  <si>
+    <t>T11A-R02-4</t>
+  </si>
+  <si>
+    <t>0.4797</t>
+  </si>
+  <si>
+    <t>鲍曼不动杆菌|弱阳|81</t>
+  </si>
+  <si>
+    <t>21.08</t>
+  </si>
+  <si>
+    <t>2.8462998102466797</t>
+  </si>
+  <si>
+    <t>T11A-R03-4</t>
+  </si>
+  <si>
+    <t>0.0089</t>
+  </si>
+  <si>
+    <t>21.62</t>
+  </si>
+  <si>
+    <t>2.7752081406105455</t>
+  </si>
+  <si>
+    <t>T11A-R04-4</t>
+  </si>
+  <si>
+    <t>0.4811</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>2.7906976744186047</t>
+  </si>
+  <si>
+    <t>T11A-R05-4</t>
+  </si>
+  <si>
+    <t>0.3363</t>
+  </si>
+  <si>
+    <t>铜绿假单胞菌|滤|4</t>
+  </si>
+  <si>
+    <t>21.96</t>
+  </si>
+  <si>
+    <t>2.7322404371584699</t>
+  </si>
+  <si>
+    <t>T11A-R07-4</t>
+  </si>
+  <si>
+    <t>0.0037</t>
+  </si>
+  <si>
+    <t>20.57</t>
+  </si>
+  <si>
+    <t>2.9168692270296548</t>
+  </si>
+  <si>
+    <t>T11A-R08-4</t>
+  </si>
+  <si>
+    <t>0.0013</t>
+  </si>
+  <si>
+    <t>16.260000000000002</t>
+  </si>
+  <si>
+    <t>3.6900369003690034</t>
+  </si>
+  <si>
+    <t>T11A-R01-5</t>
+  </si>
+  <si>
+    <t>0.0212</t>
+  </si>
+  <si>
+    <t>17.75</t>
+  </si>
+  <si>
+    <t>3.380281690140845</t>
+  </si>
+  <si>
+    <t>T11A-R02-5</t>
+  </si>
+  <si>
+    <t>0.2366</t>
+  </si>
+  <si>
+    <t>19.62</t>
+  </si>
+  <si>
+    <t>3.0581039755351682</t>
+  </si>
+  <si>
+    <t>T11A-R03-5</t>
+  </si>
+  <si>
+    <t>19.89</t>
+  </si>
+  <si>
+    <t>3.0165912518853695</t>
+  </si>
+  <si>
+    <t>T11A-R04-5</t>
+  </si>
+  <si>
+    <t>0.3793</t>
+  </si>
+  <si>
+    <t>18.809999999999999</t>
+  </si>
+  <si>
+    <t>3.1897926634768741</t>
+  </si>
+  <si>
+    <t>T11A-R05-5</t>
+  </si>
+  <si>
+    <t>0.2039</t>
+  </si>
+  <si>
+    <t>铜绿假单胞菌|滤|1;溶血嗜血杆菌|滤|1</t>
+  </si>
+  <si>
+    <t>20.48</t>
+  </si>
+  <si>
+    <t>2.9296875</t>
+  </si>
+  <si>
+    <t>T11A-R06-5</t>
+  </si>
+  <si>
+    <t>8e-04</t>
+  </si>
+  <si>
+    <t>非结核分枝杆菌|弱阳|13</t>
+  </si>
+  <si>
+    <t>22.61</t>
+  </si>
+  <si>
+    <t>2.6536930561698364</t>
+  </si>
+  <si>
+    <t>T11A-R07-5</t>
+  </si>
+  <si>
+    <t>21.81</t>
+  </si>
+  <si>
+    <t>2.7510316368638241</t>
+  </si>
+  <si>
+    <t>T11A-R08-5</t>
+  </si>
+  <si>
+    <t>14.09</t>
+  </si>
+  <si>
+    <t>4.2583392476933994</t>
+  </si>
+  <si>
+    <t>T11A-P06-DJ</t>
+  </si>
+  <si>
+    <t>T11A-P06</t>
+  </si>
+  <si>
+    <t>1e-04</t>
+  </si>
+  <si>
+    <t>20.170000000000002</t>
+  </si>
+  <si>
+    <t>2.9747149231531975</t>
+  </si>
+  <si>
+    <t>T11A-R06-1</t>
+  </si>
+  <si>
+    <t>19.3</t>
+  </si>
+  <si>
+    <t>3.1088082901554404</t>
+  </si>
+  <si>
+    <t>T11A-R06-2</t>
+  </si>
+  <si>
+    <t>T11A-R06-4</t>
+  </si>
+  <si>
+    <t>4e-04</t>
+  </si>
+  <si>
+    <t>21.06</t>
+  </si>
+  <si>
+    <t>2.8490028490028494</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>实验编号</t>
+  </si>
+  <si>
+    <t>文库编号</t>
+  </si>
+  <si>
+    <t>总样本数</t>
+  </si>
+  <si>
+    <t>病原名</t>
+  </si>
+  <si>
+    <t>检出样本数</t>
+  </si>
+  <si>
+    <t>病原RPK中位数</t>
+  </si>
+  <si>
+    <t>RPK_mean</t>
+  </si>
+  <si>
+    <t>样本频率</t>
+  </si>
+  <si>
+    <t>生信预判</t>
+  </si>
+  <si>
+    <t>埃及嗜血杆菌</t>
+  </si>
+  <si>
+    <t>流感嗜血杆菌</t>
+  </si>
+  <si>
+    <t>溶血嗜血杆菌</t>
+  </si>
+  <si>
+    <t>耐甲氧西林金黄色葡萄球菌__mecA__MRSA</t>
+  </si>
+  <si>
+    <t>肺炎克雷伯菌</t>
+  </si>
+  <si>
+    <t>铜绿假单胞菌</t>
+  </si>
+  <si>
+    <t>非结核分枝杆菌</t>
+  </si>
+  <si>
+    <t>鲍曼不动杆菌</t>
+  </si>
+  <si>
+    <t>Message</t>
   </si>
   <si>
     <t xml:space="preserve">质检表较SampleSheet多出的样本： </t>
   </si>
   <si>
-    <t xml:space="preserve">SampleSheet较质检表多出的样本： T11A-L01,T11A-L02,T11A-L03,T11A-NC-1,T11A-NC-2,T11A-NC-3,T11A-NC,T11A-P0C,T11B-NC-1,T11B-NC-2,T11B-NC-3,T11B-NC,T11B-PC,T11B-NTC-T,T11B-NTC-J-1,T11B-NTC-J-2,T2-H-1,T2-H-2,T2-H-3,T2-E-1,T2-E-2,T2-E-3,T2-NTC-1,T2-NTC-2,T11B-H-1,T11B-H-2,T11B-H-3,T11B-E-1,T11B-E-2,T11B-E-3,T11B-NTC-1,T11B-NTC-2</t>
+    <t>SampleSheet较质检表多出的样本： T11A-L01,T11A-L02,T11A-L03,T11A-NC-1,T11A-NC-2,T11A-NC-3,T11A-NC,T11A-P0C,T11B-NC-1,T11B-NC-2,T11B-NC-3,T11B-NC,T11B-PC,T11B-NTC-T,T11B-NTC-J-1,T11B-NTC-J-2,T2-H-1,T2-H-2,T2-H-3,T2-E-1,T2-E-2,T2-E-3,T2-NTC-1,T2-NTC-2,T11B-H-1,T11B-H-2,T11B-H-3,T11B-E-1,T11B-E-2,T11B-E-3,T11B-NTC-1,T11B-NTC-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -931,9 +948,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1215,14 +1241,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1333,11 +1361,11 @@
       <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>355271</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.793931</v>
+      <c r="H2">
+        <v>0.79393100000000005</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
@@ -1345,13 +1373,13 @@
       <c r="J2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>33</v>
       </c>
       <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>0</v>
       </c>
       <c r="N2" t="s">
@@ -1396,17 +1424,17 @@
       <c r="AA2" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2" t="s">
         <v>50</v>
       </c>
       <c r="AD2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1414,36 +1442,36 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>328991</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.793619</v>
+      <c r="H3">
+        <v>0.79361899999999996</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" t="n">
+        <v>55</v>
+      </c>
+      <c r="K3">
         <v>12199</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" t="n">
+        <v>56</v>
+      </c>
+      <c r="M3">
         <v>0</v>
       </c>
       <c r="N3" t="s">
@@ -1456,10 +1484,10 @@
         <v>39</v>
       </c>
       <c r="Q3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S3" t="s">
         <v>42</v>
@@ -1483,22 +1511,22 @@
         <v>47</v>
       </c>
       <c r="Z3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB3" t="n">
+        <v>59</v>
+      </c>
+      <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1506,40 +1534,40 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>340990</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.845762</v>
+      <c r="H4">
+        <v>0.84576200000000001</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="n">
+        <v>63</v>
+      </c>
+      <c r="K4">
         <v>167</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" t="n">
+        <v>64</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
         <v>40</v>
@@ -1551,7 +1579,7 @@
         <v>41</v>
       </c>
       <c r="R4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S4" t="s">
         <v>42</v>
@@ -1575,22 +1603,22 @@
         <v>47</v>
       </c>
       <c r="Z4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1598,36 +1626,36 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>268714</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.847804</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" t="n">
+        <v>71</v>
+      </c>
+      <c r="K5">
         <v>27173</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" t="n">
+        <v>56</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
@@ -1640,10 +1668,10 @@
         <v>39</v>
       </c>
       <c r="Q5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s">
         <v>42</v>
@@ -1667,22 +1695,22 @@
         <v>47</v>
       </c>
       <c r="Z5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB5" t="n">
+        <v>73</v>
+      </c>
+      <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1690,36 +1718,34 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>255253</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.846733</v>
+      <c r="H6">
+        <v>0.84673299999999996</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6" t="n">
+        <v>77</v>
+      </c>
+      <c r="M6">
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
         <v>40</v>
@@ -1728,9 +1754,8 @@
         <v>39</v>
       </c>
       <c r="Q6" t="s">
-        <v>56</v>
-      </c>
-      <c r="R6"/>
+        <v>57</v>
+      </c>
       <c r="S6" t="s">
         <v>42</v>
       </c>
@@ -1753,22 +1778,22 @@
         <v>47</v>
       </c>
       <c r="Z6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6" t="s">
         <v>50</v>
       </c>
       <c r="AD6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1787,11 +1812,11 @@
       <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>273057</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.824924</v>
+      <c r="H7">
+        <v>0.82492399999999999</v>
       </c>
       <c r="I7" t="s">
         <v>83</v>
@@ -1799,13 +1824,13 @@
       <c r="J7" t="s">
         <v>84</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>194</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" t="n">
+        <v>56</v>
+      </c>
+      <c r="M7">
         <v>0</v>
       </c>
       <c r="N7" t="s">
@@ -1850,17 +1875,17 @@
       <c r="AA7" t="s">
         <v>86</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1879,10 +1904,10 @@
       <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>347217</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.840283</v>
       </c>
       <c r="I8" t="s">
@@ -1891,13 +1916,13 @@
       <c r="J8" t="s">
         <v>90</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>166</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" t="n">
+        <v>56</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
       <c r="N8" t="s">
@@ -1942,17 +1967,17 @@
       <c r="AA8" t="s">
         <v>92</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1971,10 +1996,10 @@
       <c r="F9" t="s">
         <v>95</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>291513</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.846248</v>
       </c>
       <c r="I9" t="s">
@@ -1983,13 +2008,13 @@
       <c r="J9" t="s">
         <v>37</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>74</v>
       </c>
       <c r="L9" t="s">
-        <v>63</v>
-      </c>
-      <c r="M9" t="n">
+        <v>64</v>
+      </c>
+      <c r="M9">
         <v>0</v>
       </c>
       <c r="N9" t="s">
@@ -2034,17 +2059,17 @@
       <c r="AA9" t="s">
         <v>98</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2063,25 +2088,25 @@
       <c r="F10" t="s">
         <v>95</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>258441</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.781583</v>
+      <c r="H10">
+        <v>0.78158300000000003</v>
       </c>
       <c r="I10" t="s">
         <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" t="n">
+        <v>55</v>
+      </c>
+      <c r="K10">
         <v>12202</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" t="n">
+        <v>56</v>
+      </c>
+      <c r="M10">
         <v>0</v>
       </c>
       <c r="N10" t="s">
@@ -2094,10 +2119,10 @@
         <v>39</v>
       </c>
       <c r="Q10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S10" t="s">
         <v>42</v>
@@ -2126,17 +2151,17 @@
       <c r="AA10" t="s">
         <v>104</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2155,25 +2180,25 @@
       <c r="F11" t="s">
         <v>95</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>303305</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.846587</v>
+      <c r="H11">
+        <v>0.84658699999999998</v>
       </c>
       <c r="I11" t="s">
         <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" t="n">
+        <v>63</v>
+      </c>
+      <c r="K11">
         <v>271</v>
       </c>
       <c r="L11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" t="n">
+        <v>64</v>
+      </c>
+      <c r="M11">
         <v>2</v>
       </c>
       <c r="N11" t="s">
@@ -2189,7 +2214,7 @@
         <v>41</v>
       </c>
       <c r="R11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S11" t="s">
         <v>42</v>
@@ -2218,17 +2243,17 @@
       <c r="AA11" t="s">
         <v>110</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>0</v>
       </c>
       <c r="AC11" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -2247,25 +2272,25 @@
       <c r="F12" t="s">
         <v>95</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>255186</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.829651</v>
+      <c r="H12">
+        <v>0.82965100000000003</v>
       </c>
       <c r="I12" t="s">
         <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" t="n">
+        <v>71</v>
+      </c>
+      <c r="K12">
         <v>35990</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" t="n">
+        <v>56</v>
+      </c>
+      <c r="M12">
         <v>0</v>
       </c>
       <c r="N12" t="s">
@@ -2278,10 +2303,10 @@
         <v>39</v>
       </c>
       <c r="Q12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S12" t="s">
         <v>42</v>
@@ -2310,17 +2335,17 @@
       <c r="AA12" t="s">
         <v>115</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12">
         <v>0</v>
       </c>
       <c r="AC12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -2339,25 +2364,23 @@
       <c r="F13" t="s">
         <v>95</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>250577</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.845381</v>
+      <c r="H13">
+        <v>0.84538100000000005</v>
       </c>
       <c r="I13" t="s">
         <v>118</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13" t="n">
+        <v>77</v>
+      </c>
+      <c r="M13">
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O13" t="s">
         <v>40</v>
@@ -2366,9 +2389,8 @@
         <v>39</v>
       </c>
       <c r="Q13" t="s">
-        <v>56</v>
-      </c>
-      <c r="R13"/>
+        <v>57</v>
+      </c>
       <c r="S13" t="s">
         <v>42</v>
       </c>
@@ -2396,17 +2418,17 @@
       <c r="AA13" t="s">
         <v>120</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13">
         <v>0</v>
       </c>
       <c r="AC13" t="s">
         <v>50</v>
       </c>
       <c r="AD13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -2425,11 +2447,11 @@
       <c r="F14" t="s">
         <v>95</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>261128</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.805507</v>
+      <c r="H14">
+        <v>0.80550699999999997</v>
       </c>
       <c r="I14" t="s">
         <v>123</v>
@@ -2437,13 +2459,13 @@
       <c r="J14" t="s">
         <v>84</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>344</v>
       </c>
       <c r="L14" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" t="n">
+        <v>56</v>
+      </c>
+      <c r="M14">
         <v>0</v>
       </c>
       <c r="N14" t="s">
@@ -2488,17 +2510,17 @@
       <c r="AA14" t="s">
         <v>125</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14">
         <v>0</v>
       </c>
       <c r="AC14" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2517,11 +2539,11 @@
       <c r="F15" t="s">
         <v>95</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>280855</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.820147</v>
+      <c r="H15">
+        <v>0.82014699999999996</v>
       </c>
       <c r="I15" t="s">
         <v>128</v>
@@ -2529,13 +2551,13 @@
       <c r="J15" t="s">
         <v>90</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>135</v>
       </c>
       <c r="L15" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15" t="n">
+        <v>56</v>
+      </c>
+      <c r="M15">
         <v>0</v>
       </c>
       <c r="N15" t="s">
@@ -2580,17 +2602,17 @@
       <c r="AA15" t="s">
         <v>130</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15">
         <v>0</v>
       </c>
       <c r="AC15" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2609,11 +2631,11 @@
       <c r="F16" t="s">
         <v>95</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>227338</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.829881</v>
+      <c r="H16">
+        <v>0.82988099999999998</v>
       </c>
       <c r="I16" t="s">
         <v>132</v>
@@ -2621,13 +2643,13 @@
       <c r="J16" t="s">
         <v>37</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>73</v>
       </c>
       <c r="L16" t="s">
-        <v>63</v>
-      </c>
-      <c r="M16" t="n">
+        <v>64</v>
+      </c>
+      <c r="M16">
         <v>0</v>
       </c>
       <c r="N16" t="s">
@@ -2672,17 +2694,17 @@
       <c r="AA16" t="s">
         <v>135</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16">
         <v>0</v>
       </c>
       <c r="AC16" t="s">
         <v>50</v>
       </c>
       <c r="AD16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2690,7 +2712,7 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
@@ -2701,25 +2723,25 @@
       <c r="F17" t="s">
         <v>95</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>89999</v>
       </c>
-      <c r="H17" t="n">
-        <v>0.810565</v>
+      <c r="H17">
+        <v>0.81056499999999998</v>
       </c>
       <c r="I17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" t="n">
+        <v>55</v>
+      </c>
+      <c r="K17">
         <v>65634</v>
       </c>
       <c r="L17" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" t="n">
+        <v>56</v>
+      </c>
+      <c r="M17">
         <v>0</v>
       </c>
       <c r="N17" t="s">
@@ -2732,10 +2754,10 @@
         <v>39</v>
       </c>
       <c r="Q17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S17" t="s">
         <v>42</v>
@@ -2759,22 +2781,22 @@
         <v>47</v>
       </c>
       <c r="Z17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AA17" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB17" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB17">
         <v>0</v>
       </c>
       <c r="AC17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2782,7 +2804,7 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -2793,29 +2815,29 @@
       <c r="F18" t="s">
         <v>95</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>348517</v>
       </c>
-      <c r="H18" t="n">
-        <v>0.820708</v>
+      <c r="H18">
+        <v>0.82070799999999999</v>
       </c>
       <c r="I18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" t="n">
+        <v>63</v>
+      </c>
+      <c r="K18">
         <v>1800</v>
       </c>
       <c r="L18" t="s">
-        <v>55</v>
-      </c>
-      <c r="M18" t="n">
+        <v>56</v>
+      </c>
+      <c r="M18">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O18" t="s">
         <v>40</v>
@@ -2827,7 +2849,7 @@
         <v>41</v>
       </c>
       <c r="R18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S18" t="s">
         <v>42</v>
@@ -2851,22 +2873,22 @@
         <v>47</v>
       </c>
       <c r="Z18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA18" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB18" t="n">
+        <v>145</v>
+      </c>
+      <c r="AB18">
         <v>0</v>
       </c>
       <c r="AC18" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2874,7 +2896,7 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
@@ -2885,29 +2907,29 @@
       <c r="F19" t="s">
         <v>95</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>180870</v>
       </c>
-      <c r="H19" t="n">
-        <v>0.83558</v>
+      <c r="H19">
+        <v>0.83557999999999999</v>
       </c>
       <c r="I19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19" t="n">
+        <v>71</v>
+      </c>
+      <c r="K19">
         <v>47331</v>
       </c>
       <c r="L19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M19" t="n">
+        <v>56</v>
+      </c>
+      <c r="M19">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O19" t="s">
         <v>40</v>
@@ -2916,10 +2938,10 @@
         <v>39</v>
       </c>
       <c r="Q19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S19" t="s">
         <v>42</v>
@@ -2943,22 +2965,22 @@
         <v>47</v>
       </c>
       <c r="Z19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA19" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB19" t="n">
+        <v>149</v>
+      </c>
+      <c r="AB19">
         <v>0</v>
       </c>
       <c r="AC19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2966,7 +2988,7 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
@@ -2977,25 +2999,23 @@
       <c r="F20" t="s">
         <v>95</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>189411</v>
       </c>
-      <c r="H20" t="n">
-        <v>0.825289</v>
+      <c r="H20">
+        <v>0.82528900000000005</v>
       </c>
       <c r="I20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J20" t="s">
-        <v>76</v>
-      </c>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20" t="n">
+        <v>77</v>
+      </c>
+      <c r="M20">
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O20" t="s">
         <v>40</v>
@@ -3004,9 +3024,8 @@
         <v>39</v>
       </c>
       <c r="Q20" t="s">
-        <v>56</v>
-      </c>
-      <c r="R20"/>
+        <v>57</v>
+      </c>
       <c r="S20" t="s">
         <v>42</v>
       </c>
@@ -3029,22 +3048,22 @@
         <v>47</v>
       </c>
       <c r="Z20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA20" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB20" t="n">
+        <v>154</v>
+      </c>
+      <c r="AB20">
         <v>0</v>
       </c>
       <c r="AC20" t="s">
         <v>50</v>
       </c>
       <c r="AD20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -3052,7 +3071,7 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
@@ -3063,25 +3082,25 @@
       <c r="F21" t="s">
         <v>95</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>320802</v>
       </c>
-      <c r="H21" t="n">
-        <v>0.850598</v>
+      <c r="H21">
+        <v>0.85059799999999997</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J21" t="s">
         <v>84</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>519</v>
       </c>
       <c r="L21" t="s">
-        <v>55</v>
-      </c>
-      <c r="M21" t="n">
+        <v>56</v>
+      </c>
+      <c r="M21">
         <v>0</v>
       </c>
       <c r="N21" t="s">
@@ -3121,22 +3140,22 @@
         <v>47</v>
       </c>
       <c r="Z21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA21" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB21" t="n">
+        <v>158</v>
+      </c>
+      <c r="AB21">
         <v>0</v>
       </c>
       <c r="AC21" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3144,7 +3163,7 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
@@ -3155,25 +3174,25 @@
       <c r="F22" t="s">
         <v>95</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>237789</v>
       </c>
-      <c r="H22" t="n">
-        <v>0.835926</v>
+      <c r="H22">
+        <v>0.83592599999999995</v>
       </c>
       <c r="I22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J22" t="s">
         <v>90</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>1038</v>
       </c>
       <c r="L22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M22" t="n">
+        <v>56</v>
+      </c>
+      <c r="M22">
         <v>2</v>
       </c>
       <c r="N22" t="s">
@@ -3213,22 +3232,22 @@
         <v>47</v>
       </c>
       <c r="Z22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA22" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB22" t="n">
+        <v>162</v>
+      </c>
+      <c r="AB22">
         <v>0</v>
       </c>
       <c r="AC22" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -3236,7 +3255,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -3247,25 +3266,25 @@
       <c r="F23" t="s">
         <v>95</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>265842</v>
       </c>
-      <c r="H23" t="n">
-        <v>0.738415</v>
+      <c r="H23">
+        <v>0.73841500000000004</v>
       </c>
       <c r="I23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J23" t="s">
         <v>37</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>282</v>
       </c>
       <c r="L23" t="s">
-        <v>63</v>
-      </c>
-      <c r="M23" t="n">
+        <v>64</v>
+      </c>
+      <c r="M23">
         <v>0</v>
       </c>
       <c r="N23" t="s">
@@ -3278,7 +3297,7 @@
         <v>39</v>
       </c>
       <c r="Q23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R23" t="s">
         <v>37</v>
@@ -3305,22 +3324,22 @@
         <v>47</v>
       </c>
       <c r="Z23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA23" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB23" t="n">
+        <v>167</v>
+      </c>
+      <c r="AB23">
         <v>0</v>
       </c>
       <c r="AC23" t="s">
         <v>50</v>
       </c>
       <c r="AD23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -3328,7 +3347,7 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
@@ -3339,25 +3358,25 @@
       <c r="F24" t="s">
         <v>95</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>294271</v>
       </c>
-      <c r="H24" t="n">
-        <v>0.821224</v>
+      <c r="H24">
+        <v>0.82122399999999995</v>
       </c>
       <c r="I24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24" t="n">
+        <v>55</v>
+      </c>
+      <c r="K24">
         <v>22065</v>
       </c>
       <c r="L24" t="s">
-        <v>55</v>
-      </c>
-      <c r="M24" t="n">
+        <v>56</v>
+      </c>
+      <c r="M24">
         <v>0</v>
       </c>
       <c r="N24" t="s">
@@ -3370,10 +3389,10 @@
         <v>39</v>
       </c>
       <c r="Q24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S24" t="s">
         <v>42</v>
@@ -3397,22 +3416,22 @@
         <v>47</v>
       </c>
       <c r="Z24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA24" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB24" t="n">
+        <v>171</v>
+      </c>
+      <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -3420,7 +3439,7 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
@@ -3431,25 +3450,25 @@
       <c r="F25" t="s">
         <v>95</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>293018</v>
       </c>
-      <c r="H25" t="n">
-        <v>0.838302</v>
+      <c r="H25">
+        <v>0.83830199999999999</v>
       </c>
       <c r="I25" t="s">
         <v>123</v>
       </c>
       <c r="J25" t="s">
-        <v>62</v>
-      </c>
-      <c r="K25" t="n">
+        <v>63</v>
+      </c>
+      <c r="K25">
         <v>308</v>
       </c>
       <c r="L25" t="s">
-        <v>63</v>
-      </c>
-      <c r="M25" t="n">
+        <v>64</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
       <c r="N25" t="s">
@@ -3465,7 +3484,7 @@
         <v>41</v>
       </c>
       <c r="R25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S25" t="s">
         <v>42</v>
@@ -3489,22 +3508,22 @@
         <v>47</v>
       </c>
       <c r="Z25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AA25" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB25" t="n">
+        <v>174</v>
+      </c>
+      <c r="AB25">
         <v>0</v>
       </c>
       <c r="AC25" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -3512,7 +3531,7 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -3523,25 +3542,25 @@
       <c r="F26" t="s">
         <v>95</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>236567</v>
       </c>
-      <c r="H26" t="n">
-        <v>0.836833</v>
+      <c r="H26">
+        <v>0.83683300000000005</v>
       </c>
       <c r="I26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J26" t="s">
-        <v>70</v>
-      </c>
-      <c r="K26" t="n">
+        <v>71</v>
+      </c>
+      <c r="K26">
         <v>26415</v>
       </c>
       <c r="L26" t="s">
-        <v>55</v>
-      </c>
-      <c r="M26" t="n">
+        <v>56</v>
+      </c>
+      <c r="M26">
         <v>0</v>
       </c>
       <c r="N26" t="s">
@@ -3554,10 +3573,10 @@
         <v>39</v>
       </c>
       <c r="Q26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S26" t="s">
         <v>42</v>
@@ -3581,22 +3600,22 @@
         <v>47</v>
       </c>
       <c r="Z26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA26" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB26" t="n">
+        <v>178</v>
+      </c>
+      <c r="AB26">
         <v>0</v>
       </c>
       <c r="AC26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -3604,7 +3623,7 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
@@ -3615,25 +3634,23 @@
       <c r="F27" t="s">
         <v>95</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>260213</v>
       </c>
-      <c r="H27" t="n">
-        <v>0.812714</v>
+      <c r="H27">
+        <v>0.81271400000000005</v>
       </c>
       <c r="I27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J27" t="s">
-        <v>76</v>
-      </c>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27" t="n">
+        <v>77</v>
+      </c>
+      <c r="M27">
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O27" t="s">
         <v>40</v>
@@ -3642,9 +3659,8 @@
         <v>39</v>
       </c>
       <c r="Q27" t="s">
-        <v>56</v>
-      </c>
-      <c r="R27"/>
+        <v>57</v>
+      </c>
       <c r="S27" t="s">
         <v>42</v>
       </c>
@@ -3667,22 +3683,22 @@
         <v>47</v>
       </c>
       <c r="Z27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA27" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB27" t="n">
+        <v>183</v>
+      </c>
+      <c r="AB27">
         <v>0</v>
       </c>
       <c r="AC27" t="s">
         <v>50</v>
       </c>
       <c r="AD27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -3690,36 +3706,36 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F28" t="s">
         <v>95</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>306768</v>
       </c>
-      <c r="H28" t="n">
-        <v>0.745268</v>
+      <c r="H28">
+        <v>0.74526800000000004</v>
       </c>
       <c r="I28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J28" t="s">
-        <v>186</v>
-      </c>
-      <c r="K28" t="n">
+        <v>187</v>
+      </c>
+      <c r="K28">
         <v>3</v>
       </c>
       <c r="L28" t="s">
         <v>38</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>0</v>
       </c>
       <c r="N28" t="s">
@@ -3732,10 +3748,10 @@
         <v>39</v>
       </c>
       <c r="Q28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S28" t="s">
         <v>42</v>
@@ -3759,22 +3775,22 @@
         <v>47</v>
       </c>
       <c r="Z28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA28" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB28" t="n">
+        <v>189</v>
+      </c>
+      <c r="AB28">
         <v>0</v>
       </c>
       <c r="AC28" t="s">
         <v>50</v>
       </c>
       <c r="AD28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -3782,7 +3798,7 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
@@ -3793,25 +3809,25 @@
       <c r="F29" t="s">
         <v>95</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>243249</v>
       </c>
-      <c r="H29" t="n">
-        <v>0.797846</v>
+      <c r="H29">
+        <v>0.79784600000000006</v>
       </c>
       <c r="I29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J29" t="s">
         <v>84</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>261</v>
       </c>
       <c r="L29" t="s">
-        <v>55</v>
-      </c>
-      <c r="M29" t="n">
+        <v>56</v>
+      </c>
+      <c r="M29">
         <v>0</v>
       </c>
       <c r="N29" t="s">
@@ -3851,22 +3867,22 @@
         <v>47</v>
       </c>
       <c r="Z29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA29" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB29" t="n">
+        <v>193</v>
+      </c>
+      <c r="AB29">
         <v>0</v>
       </c>
       <c r="AC29" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3874,7 +3890,7 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D30" t="s">
         <v>33</v>
@@ -3885,11 +3901,11 @@
       <c r="F30" t="s">
         <v>95</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>368121</v>
       </c>
-      <c r="H30" t="n">
-        <v>0.788947</v>
+      <c r="H30">
+        <v>0.78894699999999995</v>
       </c>
       <c r="I30" t="s">
         <v>96</v>
@@ -3897,13 +3913,13 @@
       <c r="J30" t="s">
         <v>90</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>130</v>
       </c>
       <c r="L30" t="s">
-        <v>55</v>
-      </c>
-      <c r="M30" t="n">
+        <v>56</v>
+      </c>
+      <c r="M30">
         <v>0</v>
       </c>
       <c r="N30" t="s">
@@ -3943,22 +3959,22 @@
         <v>47</v>
       </c>
       <c r="Z30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA30" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB30" t="n">
+        <v>196</v>
+      </c>
+      <c r="AB30">
         <v>0</v>
       </c>
       <c r="AC30" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3966,7 +3982,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
@@ -3977,25 +3993,25 @@
       <c r="F31" t="s">
         <v>95</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>478352</v>
       </c>
-      <c r="H31" t="n">
-        <v>0.750067</v>
+      <c r="H31">
+        <v>0.75006700000000004</v>
       </c>
       <c r="I31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J31" t="s">
         <v>37</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>1650</v>
       </c>
       <c r="L31" t="s">
-        <v>55</v>
-      </c>
-      <c r="M31" t="n">
+        <v>56</v>
+      </c>
+      <c r="M31">
         <v>0</v>
       </c>
       <c r="N31" t="s">
@@ -4035,22 +4051,22 @@
         <v>47</v>
       </c>
       <c r="Z31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA31" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB31" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB31">
         <v>0</v>
       </c>
       <c r="AC31" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4058,7 +4074,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
@@ -4069,29 +4085,29 @@
       <c r="F32" t="s">
         <v>95</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>237096</v>
       </c>
-      <c r="H32" t="n">
-        <v>0.828436</v>
+      <c r="H32">
+        <v>0.82843599999999995</v>
       </c>
       <c r="I32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
-      </c>
-      <c r="K32" t="n">
+        <v>55</v>
+      </c>
+      <c r="K32">
         <v>40805</v>
       </c>
       <c r="L32" t="s">
-        <v>55</v>
-      </c>
-      <c r="M32" t="n">
+        <v>56</v>
+      </c>
+      <c r="M32">
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O32" t="s">
         <v>40</v>
@@ -4100,10 +4116,10 @@
         <v>39</v>
       </c>
       <c r="Q32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S32" t="s">
         <v>42</v>
@@ -4127,22 +4143,22 @@
         <v>47</v>
       </c>
       <c r="Z32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA32" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB32" t="n">
+        <v>205</v>
+      </c>
+      <c r="AB32">
         <v>0</v>
       </c>
       <c r="AC32" t="s">
         <v>50</v>
       </c>
       <c r="AD32" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -4161,25 +4177,25 @@
       <c r="F33" t="s">
         <v>95</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>354967</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>0.809423</v>
       </c>
       <c r="I33" t="s">
         <v>207</v>
       </c>
       <c r="J33" t="s">
-        <v>62</v>
-      </c>
-      <c r="K33" t="n">
+        <v>63</v>
+      </c>
+      <c r="K33">
         <v>629</v>
       </c>
       <c r="L33" t="s">
-        <v>55</v>
-      </c>
-      <c r="M33" t="n">
+        <v>56</v>
+      </c>
+      <c r="M33">
         <v>1</v>
       </c>
       <c r="N33" t="s">
@@ -4195,7 +4211,7 @@
         <v>41</v>
       </c>
       <c r="R33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S33" t="s">
         <v>42</v>
@@ -4224,17 +4240,17 @@
       <c r="AA33" t="s">
         <v>209</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AB33">
         <v>0</v>
       </c>
       <c r="AC33" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -4253,25 +4269,25 @@
       <c r="F34" t="s">
         <v>95</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>270377</v>
       </c>
-      <c r="H34" t="n">
-        <v>0.812179</v>
+      <c r="H34">
+        <v>0.81217899999999998</v>
       </c>
       <c r="I34" t="s">
         <v>211</v>
       </c>
       <c r="J34" t="s">
-        <v>70</v>
-      </c>
-      <c r="K34" t="n">
+        <v>71</v>
+      </c>
+      <c r="K34">
         <v>41909</v>
       </c>
       <c r="L34" t="s">
-        <v>55</v>
-      </c>
-      <c r="M34" t="n">
+        <v>56</v>
+      </c>
+      <c r="M34">
         <v>1</v>
       </c>
       <c r="N34" t="s">
@@ -4284,10 +4300,10 @@
         <v>39</v>
       </c>
       <c r="Q34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S34" t="s">
         <v>42</v>
@@ -4316,17 +4332,17 @@
       <c r="AA34" t="s">
         <v>213</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AB34">
         <v>0</v>
       </c>
       <c r="AC34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -4345,21 +4361,19 @@
       <c r="F35" t="s">
         <v>95</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>169171</v>
       </c>
-      <c r="H35" t="n">
-        <v>0.782579</v>
+      <c r="H35">
+        <v>0.78257900000000002</v>
       </c>
       <c r="I35" t="s">
         <v>215</v>
       </c>
       <c r="J35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35" t="n">
+        <v>77</v>
+      </c>
+      <c r="M35">
         <v>0</v>
       </c>
       <c r="N35" t="s">
@@ -4372,9 +4386,8 @@
         <v>39</v>
       </c>
       <c r="Q35" t="s">
-        <v>56</v>
-      </c>
-      <c r="R35"/>
+        <v>57</v>
+      </c>
       <c r="S35" t="s">
         <v>42</v>
       </c>
@@ -4402,17 +4415,17 @@
       <c r="AA35" t="s">
         <v>218</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AB35">
         <v>0</v>
       </c>
       <c r="AC35" t="s">
         <v>50</v>
       </c>
       <c r="AD35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -4431,11 +4444,11 @@
       <c r="F36" t="s">
         <v>95</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>239219</v>
       </c>
-      <c r="H36" t="n">
-        <v>0.810425</v>
+      <c r="H36">
+        <v>0.81042499999999995</v>
       </c>
       <c r="I36" t="s">
         <v>220</v>
@@ -4443,13 +4456,13 @@
       <c r="J36" t="s">
         <v>84</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>310</v>
       </c>
       <c r="L36" t="s">
-        <v>55</v>
-      </c>
-      <c r="M36" t="n">
+        <v>56</v>
+      </c>
+      <c r="M36">
         <v>0</v>
       </c>
       <c r="N36" t="s">
@@ -4494,17 +4507,17 @@
       <c r="AA36" t="s">
         <v>222</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AB36">
         <v>0</v>
       </c>
       <c r="AC36" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -4523,11 +4536,11 @@
       <c r="F37" t="s">
         <v>95</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>305804</v>
       </c>
-      <c r="H37" t="n">
-        <v>0.826688</v>
+      <c r="H37">
+        <v>0.82668799999999998</v>
       </c>
       <c r="I37" t="s">
         <v>224</v>
@@ -4535,13 +4548,13 @@
       <c r="J37" t="s">
         <v>90</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>93</v>
       </c>
       <c r="L37" t="s">
-        <v>55</v>
-      </c>
-      <c r="M37" t="n">
+        <v>56</v>
+      </c>
+      <c r="M37">
         <v>0</v>
       </c>
       <c r="N37" t="s">
@@ -4586,17 +4599,17 @@
       <c r="AA37" t="s">
         <v>226</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AB37">
         <v>0</v>
       </c>
       <c r="AC37" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -4615,11 +4628,11 @@
       <c r="F38" t="s">
         <v>95</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>422690</v>
       </c>
-      <c r="H38" t="n">
-        <v>0.845403</v>
+      <c r="H38">
+        <v>0.84540300000000002</v>
       </c>
       <c r="I38" t="s">
         <v>228</v>
@@ -4627,13 +4640,13 @@
       <c r="J38" t="s">
         <v>37</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>1455</v>
       </c>
       <c r="L38" t="s">
-        <v>55</v>
-      </c>
-      <c r="M38" t="n">
+        <v>56</v>
+      </c>
+      <c r="M38">
         <v>0</v>
       </c>
       <c r="N38" t="s">
@@ -4678,17 +4691,17 @@
       <c r="AA38" t="s">
         <v>230</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AB38">
         <v>0</v>
       </c>
       <c r="AC38" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -4707,25 +4720,25 @@
       <c r="F39" t="s">
         <v>95</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>299647</v>
       </c>
-      <c r="H39" t="n">
-        <v>0.8529</v>
+      <c r="H39">
+        <v>0.85289999999999999</v>
       </c>
       <c r="I39" t="s">
         <v>232</v>
       </c>
       <c r="J39" t="s">
-        <v>54</v>
-      </c>
-      <c r="K39" t="n">
+        <v>55</v>
+      </c>
+      <c r="K39">
         <v>19498</v>
       </c>
       <c r="L39" t="s">
-        <v>55</v>
-      </c>
-      <c r="M39" t="n">
+        <v>56</v>
+      </c>
+      <c r="M39">
         <v>1</v>
       </c>
       <c r="N39" t="s">
@@ -4738,10 +4751,10 @@
         <v>39</v>
       </c>
       <c r="Q39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S39" t="s">
         <v>42</v>
@@ -4770,17 +4783,17 @@
       <c r="AA39" t="s">
         <v>234</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AB39">
         <v>0</v>
       </c>
       <c r="AC39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -4799,25 +4812,25 @@
       <c r="F40" t="s">
         <v>95</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>291720</v>
       </c>
-      <c r="H40" t="n">
-        <v>0.762815</v>
+      <c r="H40">
+        <v>0.76281500000000002</v>
       </c>
       <c r="I40" t="s">
         <v>220</v>
       </c>
       <c r="J40" t="s">
-        <v>62</v>
-      </c>
-      <c r="K40" t="n">
+        <v>63</v>
+      </c>
+      <c r="K40">
         <v>281</v>
       </c>
       <c r="L40" t="s">
-        <v>63</v>
-      </c>
-      <c r="M40" t="n">
+        <v>64</v>
+      </c>
+      <c r="M40">
         <v>0</v>
       </c>
       <c r="N40" t="s">
@@ -4833,7 +4846,7 @@
         <v>41</v>
       </c>
       <c r="R40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S40" t="s">
         <v>42</v>
@@ -4862,17 +4875,17 @@
       <c r="AA40" t="s">
         <v>237</v>
       </c>
-      <c r="AB40" t="n">
+      <c r="AB40">
         <v>0</v>
       </c>
       <c r="AC40" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -4891,25 +4904,25 @@
       <c r="F41" t="s">
         <v>95</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>245540</v>
       </c>
-      <c r="H41" t="n">
-        <v>0.806044</v>
+      <c r="H41">
+        <v>0.80604399999999998</v>
       </c>
       <c r="I41" t="s">
         <v>239</v>
       </c>
       <c r="J41" t="s">
-        <v>70</v>
-      </c>
-      <c r="K41" t="n">
+        <v>71</v>
+      </c>
+      <c r="K41">
         <v>32470</v>
       </c>
       <c r="L41" t="s">
-        <v>55</v>
-      </c>
-      <c r="M41" t="n">
+        <v>56</v>
+      </c>
+      <c r="M41">
         <v>1</v>
       </c>
       <c r="N41" t="s">
@@ -4922,10 +4935,10 @@
         <v>39</v>
       </c>
       <c r="Q41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S41" t="s">
         <v>42</v>
@@ -4954,17 +4967,17 @@
       <c r="AA41" t="s">
         <v>241</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AB41">
         <v>0</v>
       </c>
       <c r="AC41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -4983,21 +4996,19 @@
       <c r="F42" t="s">
         <v>95</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>228622</v>
       </c>
-      <c r="H42" t="n">
-        <v>0.824435</v>
+      <c r="H42">
+        <v>0.82443500000000003</v>
       </c>
       <c r="I42" t="s">
         <v>243</v>
       </c>
       <c r="J42" t="s">
-        <v>76</v>
-      </c>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42" t="n">
+        <v>77</v>
+      </c>
+      <c r="M42">
         <v>0</v>
       </c>
       <c r="N42" t="s">
@@ -5010,9 +5021,8 @@
         <v>39</v>
       </c>
       <c r="Q42" t="s">
-        <v>56</v>
-      </c>
-      <c r="R42"/>
+        <v>57</v>
+      </c>
       <c r="S42" t="s">
         <v>42</v>
       </c>
@@ -5040,17 +5050,17 @@
       <c r="AA42" t="s">
         <v>246</v>
       </c>
-      <c r="AB42" t="n">
+      <c r="AB42">
         <v>0</v>
       </c>
       <c r="AC42" t="s">
         <v>50</v>
       </c>
       <c r="AD42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -5064,26 +5074,24 @@
         <v>33</v>
       </c>
       <c r="E43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F43" t="s">
         <v>95</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>191572</v>
       </c>
-      <c r="H43" t="n">
-        <v>0.842833</v>
+      <c r="H43">
+        <v>0.84283300000000005</v>
       </c>
       <c r="I43" t="s">
         <v>248</v>
       </c>
       <c r="J43" t="s">
-        <v>186</v>
-      </c>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43" t="n">
+        <v>187</v>
+      </c>
+      <c r="M43">
         <v>0</v>
       </c>
       <c r="N43" t="s">
@@ -5098,7 +5106,6 @@
       <c r="Q43" t="s">
         <v>41</v>
       </c>
-      <c r="R43"/>
       <c r="S43" t="s">
         <v>42</v>
       </c>
@@ -5126,17 +5133,17 @@
       <c r="AA43" t="s">
         <v>251</v>
       </c>
-      <c r="AB43" t="n">
+      <c r="AB43">
         <v>0</v>
       </c>
       <c r="AC43" t="s">
         <v>50</v>
       </c>
       <c r="AD43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -5155,11 +5162,11 @@
       <c r="F44" t="s">
         <v>95</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>257390</v>
       </c>
-      <c r="H44" t="n">
-        <v>0.835081</v>
+      <c r="H44">
+        <v>0.83508099999999996</v>
       </c>
       <c r="I44" t="s">
         <v>89</v>
@@ -5167,13 +5174,13 @@
       <c r="J44" t="s">
         <v>84</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>165</v>
       </c>
       <c r="L44" t="s">
-        <v>55</v>
-      </c>
-      <c r="M44" t="n">
+        <v>56</v>
+      </c>
+      <c r="M44">
         <v>0</v>
       </c>
       <c r="N44" t="s">
@@ -5218,17 +5225,17 @@
       <c r="AA44" t="s">
         <v>254</v>
       </c>
-      <c r="AB44" t="n">
+      <c r="AB44">
         <v>0</v>
       </c>
       <c r="AC44" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -5247,11 +5254,11 @@
       <c r="F45" t="s">
         <v>95</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>292098</v>
       </c>
-      <c r="H45" t="n">
-        <v>0.793453</v>
+      <c r="H45">
+        <v>0.79345299999999996</v>
       </c>
       <c r="I45" t="s">
         <v>248</v>
@@ -5259,13 +5266,13 @@
       <c r="J45" t="s">
         <v>90</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>48</v>
       </c>
       <c r="L45" t="s">
-        <v>63</v>
-      </c>
-      <c r="M45" t="n">
+        <v>64</v>
+      </c>
+      <c r="M45">
         <v>0</v>
       </c>
       <c r="N45" t="s">
@@ -5310,19 +5317,17 @@
       <c r="AA45" t="s">
         <v>257</v>
       </c>
-      <c r="AB45" t="n">
+      <c r="AB45">
         <v>0</v>
       </c>
       <c r="AC45" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AD45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46"/>
-      <c r="B46"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>258</v>
       </c>
@@ -5335,21 +5340,19 @@
       <c r="F46" t="s">
         <v>35</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>312574</v>
       </c>
-      <c r="H46" t="n">
-        <v>0.864149</v>
+      <c r="H46">
+        <v>0.86414899999999994</v>
       </c>
       <c r="I46" t="s">
         <v>260</v>
       </c>
       <c r="J46" t="s">
-        <v>186</v>
-      </c>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46" t="n">
+        <v>187</v>
+      </c>
+      <c r="M46">
         <v>0</v>
       </c>
       <c r="N46" t="s">
@@ -5364,7 +5367,6 @@
       <c r="Q46" t="s">
         <v>41</v>
       </c>
-      <c r="R46"/>
       <c r="S46" t="s">
         <v>42</v>
       </c>
@@ -5392,19 +5394,17 @@
       <c r="AA46" t="s">
         <v>262</v>
       </c>
-      <c r="AB46" t="n">
+      <c r="AB46">
         <v>0</v>
       </c>
       <c r="AC46" t="s">
         <v>50</v>
       </c>
       <c r="AD46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47"/>
-      <c r="B47"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>263</v>
       </c>
@@ -5412,26 +5412,24 @@
         <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F47" t="s">
         <v>95</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>273056</v>
       </c>
-      <c r="H47" t="n">
-        <v>0.850621</v>
+      <c r="H47">
+        <v>0.85062099999999996</v>
       </c>
       <c r="I47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J47" t="s">
-        <v>186</v>
-      </c>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47" t="n">
+        <v>187</v>
+      </c>
+      <c r="M47">
         <v>0</v>
       </c>
       <c r="N47" t="s">
@@ -5446,7 +5444,6 @@
       <c r="Q47" t="s">
         <v>41</v>
       </c>
-      <c r="R47"/>
       <c r="S47" t="s">
         <v>42</v>
       </c>
@@ -5474,19 +5471,17 @@
       <c r="AA47" t="s">
         <v>265</v>
       </c>
-      <c r="AB47" t="n">
+      <c r="AB47">
         <v>0</v>
       </c>
       <c r="AC47" t="s">
         <v>50</v>
       </c>
       <c r="AD47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48"/>
-      <c r="B48"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>266</v>
       </c>
@@ -5494,26 +5489,24 @@
         <v>33</v>
       </c>
       <c r="E48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F48" t="s">
         <v>95</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>205826</v>
       </c>
-      <c r="H48" t="n">
-        <v>0.857484</v>
+      <c r="H48">
+        <v>0.85748400000000002</v>
       </c>
       <c r="I48" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J48" t="s">
-        <v>186</v>
-      </c>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48" t="n">
+        <v>187</v>
+      </c>
+      <c r="M48">
         <v>0</v>
       </c>
       <c r="N48" t="s">
@@ -5528,7 +5521,6 @@
       <c r="Q48" t="s">
         <v>41</v>
       </c>
-      <c r="R48"/>
       <c r="S48" t="s">
         <v>42</v>
       </c>
@@ -5556,19 +5548,17 @@
       <c r="AA48" t="s">
         <v>241</v>
       </c>
-      <c r="AB48" t="n">
+      <c r="AB48">
         <v>0</v>
       </c>
       <c r="AC48" t="s">
         <v>50</v>
       </c>
       <c r="AD48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49"/>
-      <c r="B49"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>267</v>
       </c>
@@ -5576,26 +5566,24 @@
         <v>33</v>
       </c>
       <c r="E49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F49" t="s">
         <v>95</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>345058</v>
       </c>
-      <c r="H49" t="n">
-        <v>0.779957</v>
+      <c r="H49">
+        <v>0.77995700000000001</v>
       </c>
       <c r="I49" t="s">
         <v>268</v>
       </c>
       <c r="J49" t="s">
-        <v>186</v>
-      </c>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49" t="n">
+        <v>187</v>
+      </c>
+      <c r="M49">
         <v>0</v>
       </c>
       <c r="N49" t="s">
@@ -5610,7 +5598,6 @@
       <c r="Q49" t="s">
         <v>41</v>
       </c>
-      <c r="R49"/>
       <c r="S49" t="s">
         <v>42</v>
       </c>
@@ -5638,31 +5625,32 @@
       <c r="AA49" t="s">
         <v>270</v>
       </c>
-      <c r="AB49" t="n">
+      <c r="AB49">
         <v>0</v>
       </c>
       <c r="AC49" t="s">
         <v>50</v>
       </c>
       <c r="AD49" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5688,7 +5676,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -5711,10 +5699,10 @@
         <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -5725,22 +5713,22 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -5751,22 +5739,22 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5777,22 +5765,22 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -5803,22 +5791,22 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -5838,13 +5826,13 @@
         <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -5864,13 +5852,13 @@
         <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -5890,13 +5878,13 @@
         <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -5916,13 +5904,13 @@
         <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -5942,13 +5930,13 @@
         <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -5968,13 +5956,13 @@
         <v>113</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -5997,10 +5985,10 @@
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -6020,13 +6008,13 @@
         <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -6046,13 +6034,13 @@
         <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -6075,10 +6063,10 @@
         <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -6089,22 +6077,22 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
         <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -6115,22 +6103,22 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E18" t="s">
         <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -6141,22 +6129,22 @@
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s">
         <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -6167,22 +6155,22 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E20" t="s">
         <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G20" t="s">
         <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -6193,22 +6181,22 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E21" t="s">
         <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -6219,22 +6207,22 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E22" t="s">
         <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -6245,22 +6233,22 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E23" t="s">
         <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G23" t="s">
         <v>50</v>
       </c>
       <c r="H23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -6271,22 +6259,22 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E24" t="s">
         <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -6297,7 +6285,7 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E25" t="s">
         <v>95</v>
@@ -6306,13 +6294,13 @@
         <v>123</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -6323,22 +6311,22 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E26" t="s">
         <v>95</v>
       </c>
       <c r="F26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -6349,22 +6337,22 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E27" t="s">
         <v>95</v>
       </c>
       <c r="F27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G27" t="s">
         <v>50</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -6375,22 +6363,22 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E28" t="s">
         <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G28" t="s">
         <v>50</v>
       </c>
       <c r="H28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -6401,22 +6389,22 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E29" t="s">
         <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -6427,7 +6415,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E30" t="s">
         <v>95</v>
@@ -6436,13 +6424,13 @@
         <v>96</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -6453,22 +6441,22 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E31" t="s">
         <v>95</v>
       </c>
       <c r="F31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -6479,22 +6467,22 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E32" t="s">
         <v>95</v>
       </c>
       <c r="F32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G32" t="s">
         <v>50</v>
       </c>
       <c r="H32" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -6514,13 +6502,13 @@
         <v>207</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -6540,13 +6528,13 @@
         <v>211</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -6569,10 +6557,10 @@
         <v>50</v>
       </c>
       <c r="H35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -6592,13 +6580,13 @@
         <v>220</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -6618,13 +6606,13 @@
         <v>224</v>
       </c>
       <c r="G37" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -6644,13 +6632,13 @@
         <v>228</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -6670,13 +6658,13 @@
         <v>232</v>
       </c>
       <c r="G39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -6696,13 +6684,13 @@
         <v>220</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -6722,13 +6710,13 @@
         <v>239</v>
       </c>
       <c r="G41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -6751,10 +6739,10 @@
         <v>50</v>
       </c>
       <c r="H42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -6777,10 +6765,10 @@
         <v>50</v>
       </c>
       <c r="H43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -6800,13 +6788,13 @@
         <v>89</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -6826,20 +6814,19 @@
         <v>248</v>
       </c>
       <c r="G45" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
       </c>
-      <c r="C46"/>
       <c r="D46" t="s">
         <v>258</v>
       </c>
@@ -6853,17 +6840,16 @@
         <v>50</v>
       </c>
       <c r="H46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
       <c r="B47" t="s">
         <v>42</v>
       </c>
-      <c r="C47"/>
       <c r="D47" t="s">
         <v>263</v>
       </c>
@@ -6871,23 +6857,22 @@
         <v>95</v>
       </c>
       <c r="F47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G47" t="s">
         <v>50</v>
       </c>
       <c r="H47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
       <c r="B48" t="s">
         <v>42</v>
       </c>
-      <c r="C48"/>
       <c r="D48" t="s">
         <v>266</v>
       </c>
@@ -6895,23 +6880,22 @@
         <v>95</v>
       </c>
       <c r="F48" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G48" t="s">
         <v>50</v>
       </c>
       <c r="H48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>33</v>
       </c>
       <c r="B49" t="s">
         <v>42</v>
       </c>
-      <c r="C49"/>
       <c r="D49" t="s">
         <v>267</v>
       </c>
@@ -6925,24 +6909,25 @@
         <v>50</v>
       </c>
       <c r="H49" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -6971,269 +6956,271 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>281</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.0208333333333333</v>
+      <c r="H2">
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>282</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.0208333333333333</v>
+      <c r="H3">
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>283</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.0208333333333333</v>
+      <c r="H4">
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>284</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.0416666666666667</v>
+      <c r="H5">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>285</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>6</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.0416666666666667</v>
+      <c r="H6">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>286</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>3.2</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.125</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>287</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>12.5</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>12.5</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.0416666666666667</v>
+      <c r="H8">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>288</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>81</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>81</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.0208333333333333</v>
+      <c r="H9">
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>291</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Test_QC_result.xlsx
+++ b/Test_QC_result.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="409">
   <si>
     <t xml:space="preserve">run</t>
   </si>
@@ -448,51 +448,51 @@
     <t xml:space="preserve">0.0184</t>
   </si>
   <si>
+    <t xml:space="preserve">17.739999999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3821871476888399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2P3-QFL05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大肠埃希菌|滤|35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.809999999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3688938798427901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2P3-QFL06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5820895522388101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2P3-QFL07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0163</t>
+  </si>
+  <si>
     <t xml:space="preserve">弱阳</t>
   </si>
   <si>
-    <t xml:space="preserve">17.739999999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3821871476888399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2P3-QFL05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大肠埃希菌|滤|35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.809999999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3688938798427901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2P3-QFL06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百日咳鲍特菌耐药|敏感|39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5820895522388101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2P3-QFL07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0163</t>
-  </si>
-  <si>
     <t xml:space="preserve">耐碳青霉烯肠杆菌__KPC__CRE|滤|10</t>
   </si>
   <si>
@@ -502,6 +502,12 @@
     <t xml:space="preserve">3.3130866924351201</t>
   </si>
   <si>
+    <t xml:space="preserve">不合格</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内参不合格</t>
+  </si>
+  <si>
     <t xml:space="preserve">T2P3-QFL08</t>
   </si>
   <si>
@@ -842,9 +848,6 @@
   </si>
   <si>
     <t xml:space="preserve">大肠埃希菌|弱阳|54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不合格</t>
   </si>
   <si>
     <t xml:space="preserve">病原污染</t>
@@ -3331,7 +3334,7 @@
         <v>345</v>
       </c>
       <c r="L20" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="M20" t="n">
         <v>1052</v>
@@ -3376,10 +3379,10 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB20" t="s">
         <v>144</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>145</v>
       </c>
       <c r="AC20" t="s">
         <v>39</v>
@@ -3396,43 +3399,43 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F21" t="s">
         <v>80</v>
       </c>
       <c r="G21" t="n">
-        <v>148997</v>
+        <v>160486</v>
       </c>
       <c r="H21" t="n">
-        <v>0.824722</v>
+        <v>0.810062</v>
       </c>
       <c r="I21" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J21" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K21" t="n">
-        <v>345</v>
+        <v>279</v>
       </c>
       <c r="L21" t="s">
         <v>37</v>
       </c>
       <c r="M21" t="n">
-        <v>1052</v>
+        <v>5009</v>
       </c>
       <c r="N21" t="n">
-        <v>171</v>
+        <v>402</v>
       </c>
       <c r="O21" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="P21" t="s">
         <v>38</v>
@@ -3444,7 +3447,7 @@
         <v>39</v>
       </c>
       <c r="S21" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="T21" t="s">
         <v>40</v>
@@ -3468,10 +3471,10 @@
         <v>45</v>
       </c>
       <c r="AA21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AB21" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AC21" t="s">
         <v>39</v>
@@ -3488,46 +3491,46 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F22" t="s">
         <v>80</v>
       </c>
       <c r="G22" t="n">
-        <v>160486</v>
+        <v>181057</v>
       </c>
       <c r="H22" t="n">
-        <v>0.810062</v>
+        <v>0.890601</v>
       </c>
       <c r="I22" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J22" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K22" t="n">
-        <v>279</v>
+        <v>3648</v>
       </c>
       <c r="L22" t="s">
         <v>37</v>
       </c>
       <c r="M22" t="n">
-        <v>5009</v>
+        <v>8790</v>
       </c>
       <c r="N22" t="n">
-        <v>402</v>
+        <v>183</v>
       </c>
       <c r="O22" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="P22" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="Q22" t="s">
         <v>38</v>
@@ -3536,7 +3539,7 @@
         <v>39</v>
       </c>
       <c r="S22" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="T22" t="s">
         <v>40</v>
@@ -3560,10 +3563,10 @@
         <v>45</v>
       </c>
       <c r="AA22" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AB22" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AC22" t="s">
         <v>39</v>
@@ -3580,55 +3583,55 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F23" t="s">
         <v>80</v>
       </c>
       <c r="G23" t="n">
-        <v>181057</v>
+        <v>147141</v>
       </c>
       <c r="H23" t="n">
-        <v>0.890601</v>
+        <v>0.891482</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="J23" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K23" t="n">
-        <v>3648</v>
+        <v>38</v>
       </c>
       <c r="L23" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="M23" t="n">
-        <v>8790</v>
+        <v>1234</v>
       </c>
       <c r="N23" t="n">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="O23" t="s">
         <v>38</v>
       </c>
       <c r="P23" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="Q23" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="R23" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="S23" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="T23" t="s">
         <v>40</v>
@@ -3652,16 +3655,16 @@
         <v>45</v>
       </c>
       <c r="AA23" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AB23" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AC23" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="AD23" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24">
@@ -3672,40 +3675,40 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F24" t="s">
         <v>80</v>
       </c>
       <c r="G24" t="n">
-        <v>147141</v>
+        <v>172220</v>
       </c>
       <c r="H24" t="n">
-        <v>0.891482</v>
+        <v>0.874876</v>
       </c>
       <c r="I24" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="J24" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K24" t="n">
-        <v>38</v>
+        <v>1889</v>
       </c>
       <c r="L24" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="M24" t="n">
-        <v>1234</v>
+        <v>8799</v>
       </c>
       <c r="N24" t="n">
-        <v>27</v>
+        <v>305</v>
       </c>
       <c r="O24" t="s">
         <v>38</v>
@@ -3714,13 +3717,13 @@
         <v>38</v>
       </c>
       <c r="Q24" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="R24" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="S24" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="T24" t="s">
         <v>40</v>
@@ -3744,10 +3747,10 @@
         <v>45</v>
       </c>
       <c r="AA24" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AB24" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AC24" t="s">
         <v>39</v>
@@ -3764,43 +3767,43 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="G25" t="n">
-        <v>172220</v>
+        <v>149563</v>
       </c>
       <c r="H25" t="n">
-        <v>0.874876</v>
+        <v>0.898314</v>
       </c>
       <c r="I25" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J25" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="K25" t="n">
-        <v>1889</v>
+        <v>3001</v>
       </c>
       <c r="L25" t="s">
         <v>37</v>
       </c>
       <c r="M25" t="n">
-        <v>8799</v>
+        <v>7168</v>
       </c>
       <c r="N25" t="n">
-        <v>305</v>
+        <v>414</v>
       </c>
       <c r="O25" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="P25" t="s">
         <v>38</v>
@@ -3812,7 +3815,7 @@
         <v>39</v>
       </c>
       <c r="S25" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="T25" t="s">
         <v>40</v>
@@ -3836,10 +3839,10 @@
         <v>45</v>
       </c>
       <c r="AA25" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AB25" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AC25" t="s">
         <v>39</v>
@@ -3856,43 +3859,43 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G26" t="n">
-        <v>149563</v>
+        <v>183753</v>
       </c>
       <c r="H26" t="n">
-        <v>0.898314</v>
+        <v>0.84863</v>
       </c>
       <c r="I26" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="J26" t="s">
         <v>88</v>
       </c>
       <c r="K26" t="n">
-        <v>3001</v>
+        <v>2970</v>
       </c>
       <c r="L26" t="s">
         <v>37</v>
       </c>
       <c r="M26" t="n">
-        <v>7168</v>
+        <v>5033</v>
       </c>
       <c r="N26" t="n">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="O26" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="P26" t="s">
         <v>38</v>
@@ -3928,10 +3931,10 @@
         <v>45</v>
       </c>
       <c r="AA26" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AB26" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AC26" t="s">
         <v>39</v>
@@ -3948,43 +3951,43 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G27" t="n">
-        <v>183753</v>
+        <v>162916</v>
       </c>
       <c r="H27" t="n">
-        <v>0.84863</v>
+        <v>0.891097</v>
       </c>
       <c r="I27" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="J27" t="s">
         <v>88</v>
       </c>
       <c r="K27" t="n">
-        <v>2970</v>
+        <v>4478</v>
       </c>
       <c r="L27" t="s">
         <v>37</v>
       </c>
       <c r="M27" t="n">
-        <v>5033</v>
+        <v>9196</v>
       </c>
       <c r="N27" t="n">
-        <v>444</v>
+        <v>868</v>
       </c>
       <c r="O27" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="P27" t="s">
         <v>38</v>
@@ -4020,10 +4023,10 @@
         <v>45</v>
       </c>
       <c r="AA27" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AB27" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AC27" t="s">
         <v>39</v>
@@ -4040,43 +4043,43 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G28" t="n">
-        <v>162916</v>
+        <v>195547</v>
       </c>
       <c r="H28" t="n">
-        <v>0.891097</v>
+        <v>0.869172</v>
       </c>
       <c r="I28" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="J28" t="s">
         <v>88</v>
       </c>
       <c r="K28" t="n">
-        <v>4478</v>
+        <v>5174</v>
       </c>
       <c r="L28" t="s">
         <v>37</v>
       </c>
       <c r="M28" t="n">
-        <v>9196</v>
+        <v>6773</v>
       </c>
       <c r="N28" t="n">
-        <v>868</v>
+        <v>736</v>
       </c>
       <c r="O28" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P28" t="s">
         <v>38</v>
@@ -4112,10 +4115,10 @@
         <v>45</v>
       </c>
       <c r="AA28" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AB28" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AC28" t="s">
         <v>39</v>
@@ -4132,43 +4135,43 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G29" t="n">
-        <v>195547</v>
+        <v>134100</v>
       </c>
       <c r="H29" t="n">
-        <v>0.869172</v>
+        <v>0.881444</v>
       </c>
       <c r="I29" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="J29" t="s">
         <v>88</v>
       </c>
       <c r="K29" t="n">
-        <v>5174</v>
+        <v>691</v>
       </c>
       <c r="L29" t="s">
         <v>37</v>
       </c>
       <c r="M29" t="n">
-        <v>6773</v>
+        <v>1544</v>
       </c>
       <c r="N29" t="n">
-        <v>736</v>
+        <v>119</v>
       </c>
       <c r="O29" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="P29" t="s">
         <v>38</v>
@@ -4204,10 +4207,10 @@
         <v>45</v>
       </c>
       <c r="AA29" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="AB29" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AC29" t="s">
         <v>39</v>
@@ -4224,46 +4227,46 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D30" t="s">
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="F30" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G30" t="n">
-        <v>134100</v>
+        <v>157876</v>
       </c>
       <c r="H30" t="n">
-        <v>0.881444</v>
+        <v>0.824894</v>
       </c>
       <c r="I30" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="J30" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="K30" t="n">
-        <v>691</v>
+        <v>4961</v>
       </c>
       <c r="L30" t="s">
         <v>37</v>
       </c>
       <c r="M30" t="n">
-        <v>1544</v>
+        <v>4607</v>
       </c>
       <c r="N30" t="n">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="O30" t="s">
         <v>38</v>
       </c>
       <c r="P30" t="s">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="Q30" t="s">
         <v>38</v>
@@ -4272,7 +4275,7 @@
         <v>39</v>
       </c>
       <c r="S30" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="T30" t="s">
         <v>40</v>
@@ -4296,10 +4299,10 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AB30" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="AC30" t="s">
         <v>39</v>
@@ -4316,46 +4319,46 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G31" t="n">
-        <v>157876</v>
+        <v>193930</v>
       </c>
       <c r="H31" t="n">
-        <v>0.824894</v>
+        <v>0.868851</v>
       </c>
       <c r="I31" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="J31" t="s">
         <v>111</v>
       </c>
       <c r="K31" t="n">
-        <v>4961</v>
+        <v>6294</v>
       </c>
       <c r="L31" t="s">
         <v>37</v>
       </c>
       <c r="M31" t="n">
-        <v>4607</v>
+        <v>5021</v>
       </c>
       <c r="N31" t="n">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="O31" t="s">
         <v>38</v>
       </c>
       <c r="P31" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q31" t="s">
         <v>38</v>
@@ -4388,10 +4391,10 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AB31" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="AC31" t="s">
         <v>39</v>
@@ -4408,46 +4411,46 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G32" t="n">
-        <v>193930</v>
+        <v>114891</v>
       </c>
       <c r="H32" t="n">
-        <v>0.868851</v>
+        <v>0.894469</v>
       </c>
       <c r="I32" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="J32" t="s">
         <v>111</v>
       </c>
       <c r="K32" t="n">
-        <v>6294</v>
+        <v>8314</v>
       </c>
       <c r="L32" t="s">
         <v>37</v>
       </c>
       <c r="M32" t="n">
-        <v>5021</v>
+        <v>8836</v>
       </c>
       <c r="N32" t="n">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="O32" t="s">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Q32" t="s">
         <v>38</v>
@@ -4480,10 +4483,10 @@
         <v>45</v>
       </c>
       <c r="AA32" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="AB32" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="AC32" t="s">
         <v>39</v>
@@ -4500,46 +4503,46 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D33" t="s">
         <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F33" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G33" t="n">
-        <v>114891</v>
+        <v>177783</v>
       </c>
       <c r="H33" t="n">
-        <v>0.894469</v>
+        <v>0.865483</v>
       </c>
       <c r="I33" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J33" t="s">
         <v>111</v>
       </c>
       <c r="K33" t="n">
-        <v>8314</v>
+        <v>1689</v>
       </c>
       <c r="L33" t="s">
         <v>37</v>
       </c>
       <c r="M33" t="n">
-        <v>8836</v>
+        <v>2443</v>
       </c>
       <c r="N33" t="n">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="O33" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P33" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q33" t="s">
         <v>38</v>
@@ -4572,10 +4575,10 @@
         <v>45</v>
       </c>
       <c r="AA33" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AB33" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AC33" t="s">
         <v>39</v>
@@ -4592,46 +4595,46 @@
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D34" t="s">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F34" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G34" t="n">
-        <v>177783</v>
+        <v>149714</v>
       </c>
       <c r="H34" t="n">
-        <v>0.865483</v>
+        <v>0.900037</v>
       </c>
       <c r="I34" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="J34" t="s">
         <v>111</v>
       </c>
       <c r="K34" t="n">
-        <v>1689</v>
+        <v>5052</v>
       </c>
       <c r="L34" t="s">
         <v>37</v>
       </c>
       <c r="M34" t="n">
-        <v>2443</v>
+        <v>5347</v>
       </c>
       <c r="N34" t="n">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="O34" t="s">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q34" t="s">
         <v>38</v>
@@ -4664,10 +4667,10 @@
         <v>45</v>
       </c>
       <c r="AA34" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="AB34" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="AC34" t="s">
         <v>39</v>
@@ -4684,55 +4687,55 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D35" t="s">
         <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="F35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G35" t="n">
-        <v>149714</v>
+        <v>195947</v>
       </c>
       <c r="H35" t="n">
-        <v>0.900037</v>
+        <v>0.791176</v>
       </c>
       <c r="I35" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="J35" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K35" t="n">
-        <v>5052</v>
+        <v>1513</v>
       </c>
       <c r="L35" t="s">
         <v>37</v>
       </c>
       <c r="M35" t="n">
-        <v>5347</v>
+        <v>6972</v>
       </c>
       <c r="N35" t="n">
-        <v>111</v>
+        <v>299</v>
       </c>
       <c r="O35" t="s">
         <v>38</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="Q35" t="s">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="R35" t="s">
         <v>39</v>
       </c>
       <c r="S35" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="T35" t="s">
         <v>40</v>
@@ -4756,10 +4759,10 @@
         <v>45</v>
       </c>
       <c r="AA35" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="AB35" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="AC35" t="s">
         <v>39</v>
@@ -4776,49 +4779,49 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F36" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G36" t="n">
-        <v>195947</v>
+        <v>93956</v>
       </c>
       <c r="H36" t="n">
-        <v>0.791176</v>
+        <v>0.869319</v>
       </c>
       <c r="I36" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="J36" t="s">
         <v>117</v>
       </c>
       <c r="K36" t="n">
-        <v>1513</v>
+        <v>699</v>
       </c>
       <c r="L36" t="s">
         <v>37</v>
       </c>
       <c r="M36" t="n">
-        <v>6972</v>
+        <v>2469</v>
       </c>
       <c r="N36" t="n">
-        <v>299</v>
+        <v>75</v>
       </c>
       <c r="O36" t="s">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="P36" t="s">
         <v>38</v>
       </c>
       <c r="Q36" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="R36" t="s">
         <v>39</v>
@@ -4848,10 +4851,10 @@
         <v>45</v>
       </c>
       <c r="AA36" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AB36" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AC36" t="s">
         <v>39</v>
@@ -4868,49 +4871,49 @@
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D37" t="s">
         <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F37" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G37" t="n">
-        <v>93956</v>
+        <v>158403</v>
       </c>
       <c r="H37" t="n">
-        <v>0.869319</v>
+        <v>0.87681</v>
       </c>
       <c r="I37" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="J37" t="s">
         <v>117</v>
       </c>
       <c r="K37" t="n">
-        <v>699</v>
+        <v>1275</v>
       </c>
       <c r="L37" t="s">
         <v>37</v>
       </c>
       <c r="M37" t="n">
-        <v>2469</v>
+        <v>7047</v>
       </c>
       <c r="N37" t="n">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="O37" t="s">
-        <v>225</v>
+        <v>38</v>
       </c>
       <c r="P37" t="s">
         <v>38</v>
       </c>
       <c r="Q37" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="R37" t="s">
         <v>39</v>
@@ -4940,10 +4943,10 @@
         <v>45</v>
       </c>
       <c r="AA37" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="AB37" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="AC37" t="s">
         <v>39</v>
@@ -4960,40 +4963,40 @@
         <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D38" t="s">
         <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F38" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G38" t="n">
-        <v>158403</v>
+        <v>151913</v>
       </c>
       <c r="H38" t="n">
-        <v>0.87681</v>
+        <v>0.870833</v>
       </c>
       <c r="I38" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="J38" t="s">
         <v>117</v>
       </c>
       <c r="K38" t="n">
-        <v>1275</v>
+        <v>409</v>
       </c>
       <c r="L38" t="s">
         <v>37</v>
       </c>
       <c r="M38" t="n">
-        <v>7047</v>
+        <v>2336</v>
       </c>
       <c r="N38" t="n">
-        <v>243</v>
+        <v>90</v>
       </c>
       <c r="O38" t="s">
         <v>38</v>
@@ -5002,7 +5005,7 @@
         <v>38</v>
       </c>
       <c r="Q38" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="R38" t="s">
         <v>39</v>
@@ -5032,10 +5035,10 @@
         <v>45</v>
       </c>
       <c r="AA38" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="AB38" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AC38" t="s">
         <v>39</v>
@@ -5052,49 +5055,49 @@
         <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D39" t="s">
         <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F39" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G39" t="n">
-        <v>151913</v>
+        <v>169779</v>
       </c>
       <c r="H39" t="n">
-        <v>0.870833</v>
+        <v>0.873099</v>
       </c>
       <c r="I39" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="J39" t="s">
         <v>117</v>
       </c>
       <c r="K39" t="n">
-        <v>409</v>
+        <v>1470</v>
       </c>
       <c r="L39" t="s">
         <v>37</v>
       </c>
       <c r="M39" t="n">
-        <v>2336</v>
+        <v>9054</v>
       </c>
       <c r="N39" t="n">
-        <v>90</v>
+        <v>281</v>
       </c>
       <c r="O39" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="P39" t="s">
         <v>38</v>
       </c>
       <c r="Q39" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="R39" t="s">
         <v>39</v>
@@ -5124,10 +5127,10 @@
         <v>45</v>
       </c>
       <c r="AA39" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AB39" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AC39" t="s">
         <v>39</v>
@@ -5144,56 +5147,50 @@
         <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D40" t="s">
         <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="F40" t="s">
-        <v>167</v>
+        <v>248</v>
       </c>
       <c r="G40" t="n">
-        <v>169779</v>
+        <v>152773</v>
       </c>
       <c r="H40" t="n">
-        <v>0.873099</v>
+        <v>0.872741</v>
       </c>
       <c r="I40" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="J40" t="s">
-        <v>117</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1470</v>
-      </c>
-      <c r="L40" t="s">
-        <v>37</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="K40"/>
+      <c r="L40"/>
       <c r="M40" t="n">
-        <v>9054</v>
+        <v>7092</v>
       </c>
       <c r="N40" t="n">
-        <v>281</v>
+        <v>1008</v>
       </c>
       <c r="O40" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="P40" t="s">
         <v>38</v>
       </c>
       <c r="Q40" t="s">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="R40" t="s">
         <v>39</v>
       </c>
-      <c r="S40" t="s">
-        <v>117</v>
-      </c>
+      <c r="S40"/>
       <c r="T40" t="s">
         <v>40</v>
       </c>
@@ -5216,10 +5213,10 @@
         <v>45</v>
       </c>
       <c r="AA40" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="AB40" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AC40" t="s">
         <v>39</v>
@@ -5236,42 +5233,42 @@
         <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D41" t="s">
         <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F41" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G41" t="n">
-        <v>152773</v>
+        <v>169807</v>
       </c>
       <c r="H41" t="n">
-        <v>0.872741</v>
+        <v>0.79582</v>
       </c>
       <c r="I41" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="J41" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41" t="n">
-        <v>7092</v>
+        <v>8637</v>
       </c>
       <c r="N41" t="n">
-        <v>1008</v>
+        <v>1206</v>
       </c>
       <c r="O41" t="s">
         <v>38</v>
       </c>
       <c r="P41" t="s">
-        <v>38</v>
+        <v>255</v>
       </c>
       <c r="Q41" t="s">
         <v>38</v>
@@ -5302,10 +5299,10 @@
         <v>45</v>
       </c>
       <c r="AA41" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="AB41" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="AC41" t="s">
         <v>39</v>
@@ -5322,42 +5319,42 @@
         <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D42" t="s">
         <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F42" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="G42" t="n">
-        <v>169807</v>
+        <v>183351</v>
       </c>
       <c r="H42" t="n">
-        <v>0.79582</v>
+        <v>0.893609</v>
       </c>
       <c r="I42" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J42" t="s">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42" t="n">
-        <v>8637</v>
+        <v>9867</v>
       </c>
       <c r="N42" t="n">
-        <v>1206</v>
+        <v>1093</v>
       </c>
       <c r="O42" t="s">
-        <v>38</v>
+        <v>261</v>
       </c>
       <c r="P42" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="Q42" t="s">
         <v>38</v>
@@ -5388,10 +5385,10 @@
         <v>45</v>
       </c>
       <c r="AA42" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AB42" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AC42" t="s">
         <v>39</v>
@@ -5408,25 +5405,25 @@
         <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D43" t="s">
         <v>33</v>
       </c>
       <c r="E43" t="s">
-        <v>256</v>
+        <v>73</v>
       </c>
       <c r="F43" t="s">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="G43" t="n">
-        <v>183351</v>
+        <v>177051</v>
       </c>
       <c r="H43" t="n">
-        <v>0.893609</v>
+        <v>0.783563</v>
       </c>
       <c r="I43" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="J43" t="s">
         <v>38</v>
@@ -5434,16 +5431,16 @@
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43" t="n">
-        <v>9867</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1093</v>
+        <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P43" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="Q43" t="s">
         <v>38</v>
@@ -5474,10 +5471,10 @@
         <v>45</v>
       </c>
       <c r="AA43" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="AB43" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AC43" t="s">
         <v>39</v>
@@ -5494,39 +5491,43 @@
         <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D44" t="s">
         <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G44" t="n">
-        <v>177051</v>
+        <v>179081</v>
       </c>
       <c r="H44" t="n">
-        <v>0.783563</v>
+        <v>0.876886</v>
       </c>
       <c r="I44" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="J44" t="s">
-        <v>38</v>
-      </c>
-      <c r="K44"/>
-      <c r="L44"/>
+        <v>82</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2172</v>
+      </c>
+      <c r="L44" t="s">
+        <v>37</v>
+      </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>6707</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="O44" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="P44" t="s">
         <v>38</v>
@@ -5537,12 +5538,14 @@
       <c r="R44" t="s">
         <v>39</v>
       </c>
-      <c r="S44"/>
+      <c r="S44" t="s">
+        <v>83</v>
+      </c>
       <c r="T44" t="s">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="U44" t="s">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="V44" t="s">
         <v>42</v>
@@ -5553,17 +5556,13 @@
       <c r="X44" t="s">
         <v>50</v>
       </c>
-      <c r="Y44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>45</v>
-      </c>
+      <c r="Y44"/>
+      <c r="Z44"/>
       <c r="AA44" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="AB44" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="AC44" t="s">
         <v>39</v>
@@ -5580,43 +5579,43 @@
         <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D45" t="s">
         <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F45" t="s">
         <v>80</v>
       </c>
       <c r="G45" t="n">
-        <v>179081</v>
+        <v>164019</v>
       </c>
       <c r="H45" t="n">
-        <v>0.876886</v>
+        <v>0.829912</v>
       </c>
       <c r="I45" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="J45" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K45" t="n">
-        <v>2172</v>
+        <v>1186</v>
       </c>
       <c r="L45" t="s">
         <v>37</v>
       </c>
       <c r="M45" t="n">
-        <v>6707</v>
+        <v>4907</v>
       </c>
       <c r="N45" t="n">
-        <v>89</v>
+        <v>307</v>
       </c>
       <c r="O45" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="P45" t="s">
         <v>38</v>
@@ -5628,13 +5627,13 @@
         <v>39</v>
       </c>
       <c r="S45" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="T45" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U45" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="V45" t="s">
         <v>42</v>
@@ -5648,16 +5647,16 @@
       <c r="Y45"/>
       <c r="Z45"/>
       <c r="AA45" t="s">
-        <v>270</v>
+        <v>96</v>
       </c>
       <c r="AB45" t="s">
-        <v>271</v>
+        <v>97</v>
       </c>
       <c r="AC45" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="AD45" t="s">
-        <v>38</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46">
@@ -5668,46 +5667,42 @@
         <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D46" t="s">
         <v>33</v>
       </c>
       <c r="E46" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="F46" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="G46" t="n">
-        <v>164019</v>
+        <v>147983</v>
       </c>
       <c r="H46" t="n">
-        <v>0.829912</v>
+        <v>0.799164</v>
       </c>
       <c r="I46" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="J46" t="s">
-        <v>88</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1186</v>
-      </c>
-      <c r="L46" t="s">
-        <v>37</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="K46"/>
+      <c r="L46"/>
       <c r="M46" t="n">
-        <v>4907</v>
+        <v>7234</v>
       </c>
       <c r="N46" t="n">
-        <v>307</v>
+        <v>1280</v>
       </c>
       <c r="O46" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="P46" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="Q46" t="s">
         <v>38</v>
@@ -5715,14 +5710,12 @@
       <c r="R46" t="s">
         <v>39</v>
       </c>
-      <c r="S46" t="s">
-        <v>88</v>
-      </c>
+      <c r="S46"/>
       <c r="T46" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U46" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="V46" t="s">
         <v>42</v>
@@ -5736,16 +5729,16 @@
       <c r="Y46"/>
       <c r="Z46"/>
       <c r="AA46" t="s">
-        <v>96</v>
+        <v>281</v>
       </c>
       <c r="AB46" t="s">
-        <v>97</v>
+        <v>282</v>
       </c>
       <c r="AC46" t="s">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="AD46" t="s">
-        <v>276</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
@@ -5756,42 +5749,42 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D47" t="s">
         <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F47" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G47" t="n">
-        <v>147983</v>
+        <v>176028</v>
       </c>
       <c r="H47" t="n">
-        <v>0.799164</v>
+        <v>0.885213</v>
       </c>
       <c r="I47" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="J47" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47" t="n">
-        <v>7234</v>
+        <v>14977</v>
       </c>
       <c r="N47" t="n">
-        <v>1280</v>
+        <v>1999</v>
       </c>
       <c r="O47" t="s">
-        <v>279</v>
+        <v>38</v>
       </c>
       <c r="P47" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="Q47" t="s">
         <v>38</v>
@@ -5801,10 +5794,10 @@
       </c>
       <c r="S47"/>
       <c r="T47" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U47" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="V47" t="s">
         <v>42</v>
@@ -5818,10 +5811,10 @@
       <c r="Y47"/>
       <c r="Z47"/>
       <c r="AA47" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AB47" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AC47" t="s">
         <v>39</v>
@@ -5838,36 +5831,40 @@
         <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D48" t="s">
         <v>33</v>
       </c>
       <c r="E48" t="s">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>246</v>
+        <v>35</v>
       </c>
       <c r="G48" t="n">
-        <v>176028</v>
+        <v>138380</v>
       </c>
       <c r="H48" t="n">
-        <v>0.885213</v>
+        <v>0.90515</v>
       </c>
       <c r="I48" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="J48" t="s">
-        <v>248</v>
-      </c>
-      <c r="K48"/>
-      <c r="L48"/>
+        <v>35</v>
+      </c>
+      <c r="K48" t="n">
+        <v>33955</v>
+      </c>
+      <c r="L48" t="s">
+        <v>37</v>
+      </c>
       <c r="M48" t="n">
-        <v>14977</v>
+        <v>6955</v>
       </c>
       <c r="N48" t="n">
-        <v>1999</v>
+        <v>0</v>
       </c>
       <c r="O48" t="s">
         <v>38</v>
@@ -5881,12 +5878,14 @@
       <c r="R48" t="s">
         <v>39</v>
       </c>
-      <c r="S48"/>
+      <c r="S48" t="s">
+        <v>35</v>
+      </c>
       <c r="T48" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U48" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="V48" t="s">
         <v>42</v>
@@ -5900,10 +5899,10 @@
       <c r="Y48"/>
       <c r="Z48"/>
       <c r="AA48" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AB48" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AC48" t="s">
         <v>39</v>
@@ -5920,61 +5919,55 @@
         <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D49" t="s">
         <v>33</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G49" t="n">
-        <v>138380</v>
+        <v>182649</v>
       </c>
       <c r="H49" t="n">
-        <v>0.90515</v>
+        <v>0.896254</v>
       </c>
       <c r="I49" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="J49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K49" t="n">
-        <v>33955</v>
-      </c>
-      <c r="L49" t="s">
-        <v>37</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="K49"/>
+      <c r="L49"/>
       <c r="M49" t="n">
-        <v>6955</v>
+        <v>5096</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="P49" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="Q49" t="s">
         <v>38</v>
       </c>
       <c r="R49" t="s">
-        <v>39</v>
-      </c>
-      <c r="S49" t="s">
-        <v>35</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="S49"/>
       <c r="T49" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U49" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="V49" t="s">
         <v>42</v>
@@ -5988,10 +5981,10 @@
       <c r="Y49"/>
       <c r="Z49"/>
       <c r="AA49" t="s">
-        <v>288</v>
+        <v>187</v>
       </c>
       <c r="AB49" t="s">
-        <v>289</v>
+        <v>188</v>
       </c>
       <c r="AC49" t="s">
         <v>39</v>
@@ -6008,55 +6001,61 @@
         <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D50" t="s">
         <v>33</v>
       </c>
       <c r="E50" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="F50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" t="n">
+        <v>161762</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.847771</v>
+      </c>
+      <c r="I50" t="s">
+        <v>295</v>
+      </c>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+      <c r="K50" t="n">
+        <v>746</v>
+      </c>
+      <c r="L50" t="s">
+        <v>37</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3372</v>
+      </c>
+      <c r="N50" t="n">
         <v>59</v>
       </c>
-      <c r="G50" t="n">
-        <v>182649</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.896254</v>
-      </c>
-      <c r="I50" t="s">
-        <v>291</v>
-      </c>
-      <c r="J50" t="s">
-        <v>38</v>
-      </c>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50" t="n">
-        <v>5096</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
       <c r="O50" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P50" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="Q50" t="s">
         <v>38</v>
       </c>
       <c r="R50" t="s">
-        <v>61</v>
-      </c>
-      <c r="S50"/>
+        <v>39</v>
+      </c>
+      <c r="S50" t="s">
+        <v>83</v>
+      </c>
       <c r="T50" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U50" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="V50" t="s">
         <v>42</v>
@@ -6070,10 +6069,10 @@
       <c r="Y50"/>
       <c r="Z50"/>
       <c r="AA50" t="s">
-        <v>185</v>
+        <v>297</v>
       </c>
       <c r="AB50" t="s">
-        <v>186</v>
+        <v>298</v>
       </c>
       <c r="AC50" t="s">
         <v>39</v>
@@ -6090,46 +6089,46 @@
         <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D51" t="s">
         <v>33</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F51" t="s">
         <v>80</v>
       </c>
       <c r="G51" t="n">
-        <v>161762</v>
+        <v>162328</v>
       </c>
       <c r="H51" t="n">
-        <v>0.847771</v>
+        <v>0.893487</v>
       </c>
       <c r="I51" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="J51" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K51" t="n">
-        <v>746</v>
+        <v>567</v>
       </c>
       <c r="L51" t="s">
         <v>37</v>
       </c>
       <c r="M51" t="n">
-        <v>3372</v>
+        <v>2181</v>
       </c>
       <c r="N51" t="n">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="O51" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="P51" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="Q51" t="s">
         <v>38</v>
@@ -6138,13 +6137,13 @@
         <v>39</v>
       </c>
       <c r="S51" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="T51" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U51" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="V51" t="s">
         <v>42</v>
@@ -6158,10 +6157,10 @@
       <c r="Y51"/>
       <c r="Z51"/>
       <c r="AA51" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AB51" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AC51" t="s">
         <v>39</v>
@@ -6178,46 +6177,42 @@
         <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D52" t="s">
         <v>33</v>
       </c>
       <c r="E52" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="F52" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="G52" t="n">
-        <v>162328</v>
+        <v>165642</v>
       </c>
       <c r="H52" t="n">
-        <v>0.893487</v>
+        <v>0.848564</v>
       </c>
       <c r="I52" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="J52" t="s">
-        <v>88</v>
-      </c>
-      <c r="K52" t="n">
-        <v>567</v>
-      </c>
-      <c r="L52" t="s">
-        <v>37</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="K52"/>
+      <c r="L52"/>
       <c r="M52" t="n">
-        <v>2181</v>
+        <v>4125</v>
       </c>
       <c r="N52" t="n">
-        <v>222</v>
+        <v>1037</v>
       </c>
       <c r="O52" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P52" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="Q52" t="s">
         <v>38</v>
@@ -6225,14 +6220,12 @@
       <c r="R52" t="s">
         <v>39</v>
       </c>
-      <c r="S52" t="s">
-        <v>88</v>
-      </c>
+      <c r="S52"/>
       <c r="T52" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U52" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="V52" t="s">
         <v>42</v>
@@ -6246,10 +6239,10 @@
       <c r="Y52"/>
       <c r="Z52"/>
       <c r="AA52" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AB52" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AC52" t="s">
         <v>39</v>
@@ -6266,39 +6259,39 @@
         <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D53" t="s">
         <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F53" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G53" t="n">
-        <v>165642</v>
+        <v>174000</v>
       </c>
       <c r="H53" t="n">
-        <v>0.848564</v>
+        <v>0.887085</v>
       </c>
       <c r="I53" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="J53" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53" t="n">
-        <v>4125</v>
+        <v>3818</v>
       </c>
       <c r="N53" t="n">
-        <v>1037</v>
+        <v>1116</v>
       </c>
       <c r="O53" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P53" t="s">
         <v>38</v>
@@ -6311,10 +6304,10 @@
       </c>
       <c r="S53"/>
       <c r="T53" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U53" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="V53" t="s">
         <v>42</v>
@@ -6328,10 +6321,10 @@
       <c r="Y53"/>
       <c r="Z53"/>
       <c r="AA53" t="s">
-        <v>306</v>
+        <v>139</v>
       </c>
       <c r="AB53" t="s">
-        <v>307</v>
+        <v>140</v>
       </c>
       <c r="AC53" t="s">
         <v>39</v>
@@ -6348,39 +6341,43 @@
         <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D54" t="s">
         <v>33</v>
       </c>
       <c r="E54" t="s">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>246</v>
+        <v>35</v>
       </c>
       <c r="G54" t="n">
-        <v>174000</v>
+        <v>157214</v>
       </c>
       <c r="H54" t="n">
-        <v>0.887085</v>
+        <v>0.902005</v>
       </c>
       <c r="I54" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="J54" t="s">
-        <v>248</v>
-      </c>
-      <c r="K54"/>
-      <c r="L54"/>
+        <v>35</v>
+      </c>
+      <c r="K54" t="n">
+        <v>22781</v>
+      </c>
+      <c r="L54" t="s">
+        <v>37</v>
+      </c>
       <c r="M54" t="n">
-        <v>3818</v>
+        <v>2223</v>
       </c>
       <c r="N54" t="n">
-        <v>1116</v>
+        <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="P54" t="s">
         <v>38</v>
@@ -6391,12 +6388,14 @@
       <c r="R54" t="s">
         <v>39</v>
       </c>
-      <c r="S54"/>
+      <c r="S54" t="s">
+        <v>35</v>
+      </c>
       <c r="T54" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U54" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="V54" t="s">
         <v>42</v>
@@ -6410,10 +6409,10 @@
       <c r="Y54"/>
       <c r="Z54"/>
       <c r="AA54" t="s">
-        <v>139</v>
+        <v>314</v>
       </c>
       <c r="AB54" t="s">
-        <v>140</v>
+        <v>315</v>
       </c>
       <c r="AC54" t="s">
         <v>39</v>
@@ -6430,43 +6429,39 @@
         <v>31</v>
       </c>
       <c r="C55" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D55" t="s">
         <v>33</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G55" t="n">
-        <v>157214</v>
+        <v>143052</v>
       </c>
       <c r="H55" t="n">
-        <v>0.902005</v>
+        <v>0.89177</v>
       </c>
       <c r="I55" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="J55" t="s">
-        <v>35</v>
-      </c>
-      <c r="K55" t="n">
-        <v>22781</v>
-      </c>
-      <c r="L55" t="s">
-        <v>37</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="K55"/>
+      <c r="L55"/>
       <c r="M55" t="n">
-        <v>2223</v>
+        <v>2538</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P55" t="s">
         <v>38</v>
@@ -6475,16 +6470,14 @@
         <v>38</v>
       </c>
       <c r="R55" t="s">
-        <v>39</v>
-      </c>
-      <c r="S55" t="s">
-        <v>35</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="S55"/>
       <c r="T55" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U55" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="V55" t="s">
         <v>42</v>
@@ -6498,10 +6491,10 @@
       <c r="Y55"/>
       <c r="Z55"/>
       <c r="AA55" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AB55" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AC55" t="s">
         <v>39</v>
@@ -6518,25 +6511,25 @@
         <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D56" t="s">
         <v>33</v>
       </c>
       <c r="E56" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F56" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G56" t="n">
-        <v>143052</v>
+        <v>178905</v>
       </c>
       <c r="H56" t="n">
-        <v>0.89177</v>
+        <v>0.853457</v>
       </c>
       <c r="I56" t="s">
-        <v>316</v>
+        <v>75</v>
       </c>
       <c r="J56" t="s">
         <v>38</v>
@@ -6544,13 +6537,13 @@
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56" t="n">
-        <v>2538</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
       </c>
       <c r="O56" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="P56" t="s">
         <v>38</v>
@@ -6559,14 +6552,14 @@
         <v>38</v>
       </c>
       <c r="R56" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="S56"/>
       <c r="T56" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U56" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="V56" t="s">
         <v>42</v>
@@ -6580,10 +6573,10 @@
       <c r="Y56"/>
       <c r="Z56"/>
       <c r="AA56" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AB56" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AC56" t="s">
         <v>39</v>
@@ -6600,7 +6593,7 @@
         <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D57" t="s">
         <v>33</v>
@@ -6612,13 +6605,13 @@
         <v>74</v>
       </c>
       <c r="G57" t="n">
-        <v>178905</v>
+        <v>177646</v>
       </c>
       <c r="H57" t="n">
-        <v>0.853457</v>
+        <v>0.811884</v>
       </c>
       <c r="I57" t="s">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="J57" t="s">
         <v>38</v>
@@ -6632,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="P57" t="s">
         <v>38</v>
@@ -6645,10 +6638,10 @@
       </c>
       <c r="S57"/>
       <c r="T57" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U57" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="V57" t="s">
         <v>42</v>
@@ -6662,10 +6655,10 @@
       <c r="Y57"/>
       <c r="Z57"/>
       <c r="AA57" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AB57" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AC57" t="s">
         <v>39</v>
@@ -6675,14 +6668,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" t="s">
-        <v>31</v>
-      </c>
+      <c r="A58"/>
+      <c r="B58"/>
       <c r="C58" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D58" t="s">
         <v>33</v>
@@ -6694,13 +6683,13 @@
         <v>74</v>
       </c>
       <c r="G58" t="n">
-        <v>177646</v>
+        <v>160884</v>
       </c>
       <c r="H58" t="n">
-        <v>0.811884</v>
+        <v>0.871718</v>
       </c>
       <c r="I58" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J58" t="s">
         <v>38</v>
@@ -6714,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="P58" t="s">
         <v>38</v>
@@ -6727,10 +6716,10 @@
       </c>
       <c r="S58"/>
       <c r="T58" t="s">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="U58" t="s">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="V58" t="s">
         <v>42</v>
@@ -6741,13 +6730,17 @@
       <c r="X58" t="s">
         <v>50</v>
       </c>
-      <c r="Y58"/>
-      <c r="Z58"/>
+      <c r="Y58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>45</v>
+      </c>
       <c r="AA58" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AB58" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AC58" t="s">
         <v>39</v>
@@ -6760,7 +6753,7 @@
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D59" t="s">
         <v>33</v>
@@ -6772,13 +6765,13 @@
         <v>74</v>
       </c>
       <c r="G59" t="n">
-        <v>160884</v>
+        <v>172570</v>
       </c>
       <c r="H59" t="n">
-        <v>0.871718</v>
+        <v>0.860641</v>
       </c>
       <c r="I59" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J59" t="s">
         <v>38</v>
@@ -6826,10 +6819,10 @@
         <v>45</v>
       </c>
       <c r="AA59" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AB59" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AC59" t="s">
         <v>39</v>
@@ -6842,7 +6835,7 @@
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D60" t="s">
         <v>33</v>
@@ -6854,13 +6847,13 @@
         <v>74</v>
       </c>
       <c r="G60" t="n">
-        <v>172570</v>
+        <v>173782</v>
       </c>
       <c r="H60" t="n">
-        <v>0.860641</v>
+        <v>0.818471</v>
       </c>
       <c r="I60" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J60" t="s">
         <v>38</v>
@@ -6908,10 +6901,10 @@
         <v>45</v>
       </c>
       <c r="AA60" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AB60" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AC60" t="s">
         <v>39</v>
@@ -6924,7 +6917,7 @@
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D61" t="s">
         <v>33</v>
@@ -6936,13 +6929,13 @@
         <v>74</v>
       </c>
       <c r="G61" t="n">
-        <v>173782</v>
+        <v>169761</v>
       </c>
       <c r="H61" t="n">
-        <v>0.818471</v>
+        <v>0.886428</v>
       </c>
       <c r="I61" t="s">
-        <v>324</v>
+        <v>75</v>
       </c>
       <c r="J61" t="s">
         <v>38</v>
@@ -6990,10 +6983,10 @@
         <v>45</v>
       </c>
       <c r="AA61" t="s">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="AB61" t="s">
-        <v>335</v>
+        <v>166</v>
       </c>
       <c r="AC61" t="s">
         <v>39</v>
@@ -7006,7 +6999,7 @@
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D62" t="s">
         <v>33</v>
@@ -7018,13 +7011,13 @@
         <v>74</v>
       </c>
       <c r="G62" t="n">
-        <v>169761</v>
+        <v>161557</v>
       </c>
       <c r="H62" t="n">
-        <v>0.886428</v>
+        <v>0.878663</v>
       </c>
       <c r="I62" t="s">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="J62" t="s">
         <v>38</v>
@@ -7072,10 +7065,10 @@
         <v>45</v>
       </c>
       <c r="AA62" t="s">
-        <v>163</v>
+        <v>339</v>
       </c>
       <c r="AB62" t="s">
-        <v>164</v>
+        <v>340</v>
       </c>
       <c r="AC62" t="s">
         <v>39</v>
@@ -7088,7 +7081,7 @@
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D63" t="s">
         <v>33</v>
@@ -7100,13 +7093,13 @@
         <v>74</v>
       </c>
       <c r="G63" t="n">
-        <v>161557</v>
+        <v>161735</v>
       </c>
       <c r="H63" t="n">
-        <v>0.878663</v>
+        <v>0.77295</v>
       </c>
       <c r="I63" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J63" t="s">
         <v>38</v>
@@ -7154,10 +7147,10 @@
         <v>45</v>
       </c>
       <c r="AA63" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AB63" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AC63" t="s">
         <v>39</v>
@@ -7170,7 +7163,7 @@
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D64" t="s">
         <v>33</v>
@@ -7182,13 +7175,13 @@
         <v>74</v>
       </c>
       <c r="G64" t="n">
-        <v>161735</v>
+        <v>177047</v>
       </c>
       <c r="H64" t="n">
-        <v>0.77295</v>
+        <v>0.866111</v>
       </c>
       <c r="I64" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J64" t="s">
         <v>38</v>
@@ -7205,7 +7198,7 @@
         <v>38</v>
       </c>
       <c r="P64" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="Q64" t="s">
         <v>38</v>
@@ -7215,10 +7208,10 @@
       </c>
       <c r="S64"/>
       <c r="T64" t="s">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="U64" t="s">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="V64" t="s">
         <v>42</v>
@@ -7229,17 +7222,13 @@
       <c r="X64" t="s">
         <v>50</v>
       </c>
-      <c r="Y64" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>45</v>
-      </c>
+      <c r="Y64"/>
+      <c r="Z64"/>
       <c r="AA64" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AB64" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AC64" t="s">
         <v>39</v>
@@ -7252,7 +7241,7 @@
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D65" t="s">
         <v>33</v>
@@ -7264,13 +7253,13 @@
         <v>74</v>
       </c>
       <c r="G65" t="n">
-        <v>177047</v>
+        <v>185674</v>
       </c>
       <c r="H65" t="n">
-        <v>0.866111</v>
+        <v>0.767146</v>
       </c>
       <c r="I65" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J65" t="s">
         <v>38</v>
@@ -7287,7 +7276,7 @@
         <v>38</v>
       </c>
       <c r="P65" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="Q65" t="s">
         <v>38</v>
@@ -7297,10 +7286,10 @@
       </c>
       <c r="S65"/>
       <c r="T65" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U65" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="V65" t="s">
         <v>42</v>
@@ -7314,93 +7303,15 @@
       <c r="Y65"/>
       <c r="Z65"/>
       <c r="AA65" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AB65" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AC65" t="s">
         <v>39</v>
       </c>
       <c r="AD65" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66" t="s">
-        <v>346</v>
-      </c>
-      <c r="D66" t="s">
-        <v>33</v>
-      </c>
-      <c r="E66" t="s">
-        <v>73</v>
-      </c>
-      <c r="F66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G66" t="n">
-        <v>185674</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.767146</v>
-      </c>
-      <c r="I66" t="s">
-        <v>324</v>
-      </c>
-      <c r="J66" t="s">
-        <v>38</v>
-      </c>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" t="s">
-        <v>38</v>
-      </c>
-      <c r="P66" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>38</v>
-      </c>
-      <c r="R66" t="s">
-        <v>39</v>
-      </c>
-      <c r="S66"/>
-      <c r="T66" t="s">
-        <v>268</v>
-      </c>
-      <c r="U66" t="s">
-        <v>269</v>
-      </c>
-      <c r="V66" t="s">
-        <v>42</v>
-      </c>
-      <c r="W66" t="s">
-        <v>43</v>
-      </c>
-      <c r="X66" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y66"/>
-      <c r="Z66"/>
-      <c r="AA66" t="s">
-        <v>347</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>348</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD66" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7435,82 +7346,82 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="R1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="V1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="W1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="X1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Y1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AA1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AB1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AC1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AD1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AE1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2">
@@ -7533,7 +7444,7 @@
         <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H2" t="n">
         <v>166326</v>
@@ -7551,7 +7462,7 @@
         <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N2" t="n">
         <v>24116</v>
@@ -7587,13 +7498,13 @@
         <v>40</v>
       </c>
       <c r="Y2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z2" t="s">
         <v>46</v>
       </c>
       <c r="AA2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AB2" t="s">
         <v>39</v>
@@ -7628,7 +7539,7 @@
         <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H3" t="n">
         <v>173214</v>
@@ -7646,7 +7557,7 @@
         <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N3" t="n">
         <v>28902</v>
@@ -7682,7 +7593,7 @@
         <v>40</v>
       </c>
       <c r="Y3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z3" t="s">
         <v>51</v>
@@ -7694,13 +7605,13 @@
         <v>39</v>
       </c>
       <c r="AC3" t="s">
-        <v>275</v>
+        <v>161</v>
       </c>
       <c r="AD3" t="s">
         <v>38</v>
       </c>
       <c r="AE3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4">
@@ -7723,7 +7634,7 @@
         <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H4" t="n">
         <v>151565</v>
@@ -7741,7 +7652,7 @@
         <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N4" t="n">
         <v>28101</v>
@@ -7775,13 +7686,13 @@
         <v>40</v>
       </c>
       <c r="Y4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z4" t="s">
         <v>55</v>
       </c>
       <c r="AA4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AB4" t="s">
         <v>39</v>
@@ -7816,7 +7727,7 @@
         <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H5" t="n">
         <v>181757</v>
@@ -7834,7 +7745,7 @@
         <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N5"/>
       <c r="O5"/>
@@ -7866,13 +7777,13 @@
         <v>40</v>
       </c>
       <c r="Y5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z5" t="s">
         <v>62</v>
       </c>
       <c r="AA5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AB5" t="s">
         <v>39</v>
@@ -7907,7 +7818,7 @@
         <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H6" t="n">
         <v>172988</v>
@@ -7925,7 +7836,7 @@
         <v>65</v>
       </c>
       <c r="M6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N6"/>
       <c r="O6" t="n">
@@ -7959,13 +7870,13 @@
         <v>40</v>
       </c>
       <c r="Y6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z6" t="s">
         <v>66</v>
       </c>
       <c r="AA6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AB6" t="s">
         <v>39</v>
@@ -8000,7 +7911,7 @@
         <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H7" t="n">
         <v>200042</v>
@@ -8018,7 +7929,7 @@
         <v>69</v>
       </c>
       <c r="M7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N7"/>
       <c r="O7"/>
@@ -8050,13 +7961,13 @@
         <v>40</v>
       </c>
       <c r="Y7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z7" t="s">
         <v>70</v>
       </c>
       <c r="AA7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AB7" t="s">
         <v>39</v>
@@ -8086,10 +7997,10 @@
         <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H8" t="n">
         <v>160884</v>
@@ -8104,10 +8015,10 @@
         <v>0.866111</v>
       </c>
       <c r="L8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -8139,13 +8050,13 @@
         <v>40</v>
       </c>
       <c r="Y8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AA8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AB8" t="s">
         <v>39</v>
@@ -8180,7 +8091,7 @@
         <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H9" t="n">
         <v>191691</v>
@@ -8198,7 +8109,7 @@
         <v>75</v>
       </c>
       <c r="M9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -8230,13 +8141,13 @@
         <v>40</v>
       </c>
       <c r="Y9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z9" t="s">
         <v>77</v>
       </c>
       <c r="AA9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AB9" t="s">
         <v>39</v>
@@ -8271,7 +8182,7 @@
         <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H10" t="n">
         <v>149356</v>
@@ -8289,7 +8200,7 @@
         <v>81</v>
       </c>
       <c r="M10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N10" t="n">
         <v>6845</v>
@@ -8325,13 +8236,13 @@
         <v>40</v>
       </c>
       <c r="Y10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z10" t="s">
         <v>84</v>
       </c>
       <c r="AA10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AB10" t="s">
         <v>39</v>
@@ -8366,7 +8277,7 @@
         <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H11" t="n">
         <v>142897</v>
@@ -8384,7 +8295,7 @@
         <v>87</v>
       </c>
       <c r="M11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
         <v>3345</v>
@@ -8420,13 +8331,13 @@
         <v>40</v>
       </c>
       <c r="Y11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z11" t="s">
         <v>91</v>
       </c>
       <c r="AA11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AB11" t="s">
         <v>39</v>
@@ -8461,7 +8372,7 @@
         <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H12" t="n">
         <v>206401</v>
@@ -8479,7 +8390,7 @@
         <v>94</v>
       </c>
       <c r="M12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N12" t="n">
         <v>3572</v>
@@ -8513,13 +8424,13 @@
         <v>40</v>
       </c>
       <c r="Y12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z12" t="s">
         <v>96</v>
       </c>
       <c r="AA12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AB12" t="s">
         <v>39</v>
@@ -8554,7 +8465,7 @@
         <v>98</v>
       </c>
       <c r="G13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H13" t="n">
         <v>211807</v>
@@ -8572,7 +8483,7 @@
         <v>99</v>
       </c>
       <c r="M13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N13" t="n">
         <v>5272</v>
@@ -8606,7 +8517,7 @@
         <v>40</v>
       </c>
       <c r="Y13" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z13" t="s">
         <v>101</v>
@@ -8647,7 +8558,7 @@
         <v>103</v>
       </c>
       <c r="G14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H14" t="n">
         <v>168684</v>
@@ -8665,7 +8576,7 @@
         <v>104</v>
       </c>
       <c r="M14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N14" t="n">
         <v>2316</v>
@@ -8701,13 +8612,13 @@
         <v>40</v>
       </c>
       <c r="Y14" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z14" t="s">
         <v>107</v>
       </c>
       <c r="AA14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AB14" t="s">
         <v>39</v>
@@ -8742,7 +8653,7 @@
         <v>109</v>
       </c>
       <c r="G15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H15" t="n">
         <v>173096</v>
@@ -8760,7 +8671,7 @@
         <v>110</v>
       </c>
       <c r="M15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N15" t="n">
         <v>8287</v>
@@ -8794,13 +8705,13 @@
         <v>40</v>
       </c>
       <c r="Y15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z15" t="s">
         <v>113</v>
       </c>
       <c r="AA15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AB15" t="s">
         <v>39</v>
@@ -8835,7 +8746,7 @@
         <v>115</v>
       </c>
       <c r="G16" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H16" t="n">
         <v>153380</v>
@@ -8887,13 +8798,13 @@
         <v>40</v>
       </c>
       <c r="Y16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z16" t="s">
         <v>119</v>
       </c>
       <c r="AA16" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AB16" t="s">
         <v>39</v>
@@ -8928,7 +8839,7 @@
         <v>121</v>
       </c>
       <c r="G17" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H17" t="n">
         <v>201450</v>
@@ -8946,7 +8857,7 @@
         <v>122</v>
       </c>
       <c r="M17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N17" t="n">
         <v>8527</v>
@@ -8980,13 +8891,13 @@
         <v>40</v>
       </c>
       <c r="Y17" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z17" t="s">
         <v>124</v>
       </c>
       <c r="AA17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AB17" t="s">
         <v>39</v>
@@ -9029,73 +8940,73 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="R1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="S1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="T1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U1" t="s">
         <v>368</v>
       </c>
-      <c r="U1" t="s">
-        <v>367</v>
-      </c>
       <c r="V1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="W1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="X1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Y1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2">
@@ -9112,13 +9023,13 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -9157,20 +9068,20 @@
         <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U2" t="s">
         <v>40</v>
       </c>
       <c r="V2"/>
       <c r="W2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X2" t="s">
         <v>46</v>
       </c>
       <c r="Y2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Z2" t="s">
         <v>39</v>
@@ -9193,13 +9104,13 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -9238,20 +9149,20 @@
         <v>39</v>
       </c>
       <c r="T3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U3" t="s">
         <v>40</v>
       </c>
       <c r="V3"/>
       <c r="W3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X3" t="s">
         <v>46</v>
       </c>
       <c r="Y3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Z3" t="s">
         <v>39</v>
@@ -9274,13 +9185,13 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -9319,20 +9230,20 @@
         <v>39</v>
       </c>
       <c r="T4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U4" t="s">
         <v>40</v>
       </c>
       <c r="V4"/>
       <c r="W4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X4" t="s">
         <v>46</v>
       </c>
       <c r="Y4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Z4" t="s">
         <v>39</v>
@@ -9361,7 +9272,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H5" t="n">
         <v>3603</v>
@@ -9400,22 +9311,22 @@
         <v>39</v>
       </c>
       <c r="T5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U5" t="s">
         <v>40</v>
       </c>
       <c r="V5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X5" t="s">
         <v>46</v>
       </c>
       <c r="Y5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Z5" t="s">
         <v>39</v>
@@ -9438,13 +9349,13 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -9483,20 +9394,20 @@
         <v>39</v>
       </c>
       <c r="T6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U6" t="s">
         <v>40</v>
       </c>
       <c r="V6"/>
       <c r="W6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X6" t="s">
         <v>46</v>
       </c>
       <c r="Y6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Z6" t="s">
         <v>39</v>
@@ -9525,7 +9436,7 @@
         <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -9564,7 +9475,7 @@
         <v>39</v>
       </c>
       <c r="T7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U7" t="s">
         <v>40</v>
@@ -9577,7 +9488,7 @@
         <v>46</v>
       </c>
       <c r="Y7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Z7" t="s">
         <v>39</v>
@@ -9606,7 +9517,7 @@
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -9645,7 +9556,7 @@
         <v>39</v>
       </c>
       <c r="T8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U8" t="s">
         <v>40</v>
@@ -9658,7 +9569,7 @@
         <v>46</v>
       </c>
       <c r="Y8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Z8" t="s">
         <v>39</v>
@@ -9687,7 +9598,7 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H9" t="n">
         <v>24116</v>
@@ -9726,7 +9637,7 @@
         <v>39</v>
       </c>
       <c r="T9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U9" t="s">
         <v>40</v>
@@ -9739,7 +9650,7 @@
         <v>46</v>
       </c>
       <c r="Y9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Z9" t="s">
         <v>39</v>
@@ -9762,13 +9673,13 @@
         <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -9807,14 +9718,14 @@
         <v>39</v>
       </c>
       <c r="T10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U10" t="s">
         <v>40</v>
       </c>
       <c r="V10"/>
       <c r="W10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X10" t="s">
         <v>51</v>
@@ -9826,7 +9737,7 @@
         <v>39</v>
       </c>
       <c r="AA10" t="s">
-        <v>275</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11">
@@ -9843,13 +9754,13 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F11" t="s">
         <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -9888,14 +9799,14 @@
         <v>39</v>
       </c>
       <c r="T11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U11" t="s">
         <v>40</v>
       </c>
       <c r="V11"/>
       <c r="W11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X11" t="s">
         <v>51</v>
@@ -9907,7 +9818,7 @@
         <v>39</v>
       </c>
       <c r="AA11" t="s">
-        <v>275</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -9924,13 +9835,13 @@
         <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F12" t="s">
         <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -9969,14 +9880,14 @@
         <v>39</v>
       </c>
       <c r="T12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U12" t="s">
         <v>40</v>
       </c>
       <c r="V12"/>
       <c r="W12" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X12" t="s">
         <v>51</v>
@@ -9988,7 +9899,7 @@
         <v>39</v>
       </c>
       <c r="AA12" t="s">
-        <v>275</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13">
@@ -10011,7 +9922,7 @@
         <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H13" t="n">
         <v>4647</v>
@@ -10050,16 +9961,16 @@
         <v>39</v>
       </c>
       <c r="T13" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U13" t="s">
         <v>40</v>
       </c>
       <c r="V13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X13" t="s">
         <v>51</v>
@@ -10071,7 +9982,7 @@
         <v>39</v>
       </c>
       <c r="AA13" t="s">
-        <v>275</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
@@ -10088,13 +9999,13 @@
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F14" t="s">
         <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -10133,14 +10044,14 @@
         <v>39</v>
       </c>
       <c r="T14" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U14" t="s">
         <v>40</v>
       </c>
       <c r="V14"/>
       <c r="W14" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="X14" t="s">
         <v>51</v>
@@ -10152,7 +10063,7 @@
         <v>39</v>
       </c>
       <c r="AA14" t="s">
-        <v>275</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
@@ -10175,7 +10086,7 @@
         <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -10214,7 +10125,7 @@
         <v>39</v>
       </c>
       <c r="T15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U15" t="s">
         <v>40</v>
@@ -10233,7 +10144,7 @@
         <v>39</v>
       </c>
       <c r="AA15" t="s">
-        <v>275</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
@@ -10256,7 +10167,7 @@
         <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H16" t="n">
         <v>28902</v>
@@ -10295,7 +10206,7 @@
         <v>39</v>
       </c>
       <c r="T16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U16" t="s">
         <v>40</v>
@@ -10314,7 +10225,7 @@
         <v>39</v>
       </c>
       <c r="AA16" t="s">
-        <v>275</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
@@ -10331,13 +10242,13 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F17" t="s">
         <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -10376,20 +10287,20 @@
         <v>39</v>
       </c>
       <c r="T17" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U17" t="s">
         <v>40</v>
       </c>
       <c r="V17"/>
       <c r="W17" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X17" t="s">
         <v>55</v>
       </c>
       <c r="Y17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z17" t="s">
         <v>39</v>
@@ -10412,13 +10323,13 @@
         <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F18" t="s">
         <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -10457,20 +10368,20 @@
         <v>39</v>
       </c>
       <c r="T18" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U18" t="s">
         <v>40</v>
       </c>
       <c r="V18"/>
       <c r="W18" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X18" t="s">
         <v>55</v>
       </c>
       <c r="Y18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z18" t="s">
         <v>39</v>
@@ -10493,13 +10404,13 @@
         <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F19" t="s">
         <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -10538,20 +10449,20 @@
         <v>39</v>
       </c>
       <c r="T19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U19" t="s">
         <v>40</v>
       </c>
       <c r="V19"/>
       <c r="W19" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X19" t="s">
         <v>55</v>
       </c>
       <c r="Y19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z19" t="s">
         <v>39</v>
@@ -10580,7 +10491,7 @@
         <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H20" t="n">
         <v>4351</v>
@@ -10619,22 +10530,22 @@
         <v>39</v>
       </c>
       <c r="T20" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U20" t="s">
         <v>40</v>
       </c>
       <c r="V20" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W20" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X20" t="s">
         <v>55</v>
       </c>
       <c r="Y20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z20" t="s">
         <v>39</v>
@@ -10657,13 +10568,13 @@
         <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F21" t="s">
         <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -10702,20 +10613,20 @@
         <v>39</v>
       </c>
       <c r="T21" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U21" t="s">
         <v>40</v>
       </c>
       <c r="V21"/>
       <c r="W21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X21" t="s">
         <v>55</v>
       </c>
       <c r="Y21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z21" t="s">
         <v>39</v>
@@ -10744,7 +10655,7 @@
         <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H22" t="n">
         <v>28101</v>
@@ -10783,7 +10694,7 @@
         <v>39</v>
       </c>
       <c r="T22" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U22" t="s">
         <v>40</v>
@@ -10796,7 +10707,7 @@
         <v>55</v>
       </c>
       <c r="Y22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z22" t="s">
         <v>39</v>
@@ -10825,7 +10736,7 @@
         <v>64</v>
       </c>
       <c r="G23" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H23" t="n">
         <v>4148</v>
@@ -10864,22 +10775,22 @@
         <v>39</v>
       </c>
       <c r="T23" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U23" t="s">
         <v>40</v>
       </c>
       <c r="V23" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W23" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X23" t="s">
         <v>66</v>
       </c>
       <c r="Y23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z23" t="s">
         <v>39</v>
@@ -10908,7 +10819,7 @@
         <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -10947,7 +10858,7 @@
         <v>39</v>
       </c>
       <c r="T24" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U24" t="s">
         <v>40</v>
@@ -10960,7 +10871,7 @@
         <v>66</v>
       </c>
       <c r="Y24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z24" t="s">
         <v>39</v>
@@ -10989,7 +10900,7 @@
         <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H25" t="n">
         <v>3273</v>
@@ -11028,22 +10939,22 @@
         <v>61</v>
       </c>
       <c r="T25" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U25" t="s">
         <v>40</v>
       </c>
       <c r="V25" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W25" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X25" t="s">
         <v>70</v>
       </c>
       <c r="Y25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Z25" t="s">
         <v>39</v>
@@ -11072,7 +10983,7 @@
         <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -11111,20 +11022,20 @@
         <v>61</v>
       </c>
       <c r="T26" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U26" t="s">
         <v>40</v>
       </c>
       <c r="V26"/>
       <c r="W26" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X26" t="s">
         <v>70</v>
       </c>
       <c r="Y26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Z26" t="s">
         <v>39</v>
@@ -11146,10 +11057,10 @@
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -11188,7 +11099,7 @@
         <v>39</v>
       </c>
       <c r="T27" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U27" t="s">
         <v>40</v>
@@ -11196,10 +11107,10 @@
       <c r="V27"/>
       <c r="W27"/>
       <c r="X27" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y27" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z27" t="s">
         <v>39</v>
@@ -11222,13 +11133,13 @@
         <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F28" t="s">
         <v>72</v>
       </c>
       <c r="G28" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -11267,20 +11178,20 @@
         <v>39</v>
       </c>
       <c r="T28" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U28" t="s">
         <v>40</v>
       </c>
       <c r="V28" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W28"/>
       <c r="X28" t="s">
         <v>77</v>
       </c>
       <c r="Y28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z28" t="s">
         <v>39</v>
@@ -11309,7 +11220,7 @@
         <v>72</v>
       </c>
       <c r="G29" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H29" t="n">
         <v>2</v>
@@ -11348,20 +11259,20 @@
         <v>39</v>
       </c>
       <c r="T29" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U29" t="s">
         <v>40</v>
       </c>
       <c r="V29" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W29"/>
       <c r="X29" t="s">
         <v>77</v>
       </c>
       <c r="Y29" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z29" t="s">
         <v>39</v>
@@ -11388,7 +11299,7 @@
         <v>72</v>
       </c>
       <c r="G30" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -11427,7 +11338,7 @@
         <v>39</v>
       </c>
       <c r="T30" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U30" t="s">
         <v>40</v>
@@ -11438,7 +11349,7 @@
         <v>77</v>
       </c>
       <c r="Y30" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z30" t="s">
         <v>39</v>
@@ -11461,13 +11372,13 @@
         <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F31" t="s">
         <v>79</v>
       </c>
       <c r="G31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H31" t="n">
         <v>8</v>
@@ -11506,22 +11417,22 @@
         <v>39</v>
       </c>
       <c r="T31" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U31" t="s">
         <v>40</v>
       </c>
       <c r="V31" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W31" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X31" t="s">
         <v>84</v>
       </c>
       <c r="Y31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z31" t="s">
         <v>39</v>
@@ -11544,13 +11455,13 @@
         <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F32" t="s">
         <v>79</v>
       </c>
       <c r="G32" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H32" t="n">
         <v>117</v>
@@ -11589,22 +11500,22 @@
         <v>39</v>
       </c>
       <c r="T32" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U32" t="s">
         <v>40</v>
       </c>
       <c r="V32" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W32" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X32" t="s">
         <v>84</v>
       </c>
       <c r="Y32" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z32" t="s">
         <v>39</v>
@@ -11627,13 +11538,13 @@
         <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F33" t="s">
         <v>79</v>
       </c>
       <c r="G33" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H33" t="n">
         <v>13</v>
@@ -11672,22 +11583,22 @@
         <v>39</v>
       </c>
       <c r="T33" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U33" t="s">
         <v>40</v>
       </c>
       <c r="V33" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W33" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X33" t="s">
         <v>84</v>
       </c>
       <c r="Y33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z33" t="s">
         <v>39</v>
@@ -11716,7 +11627,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H34" t="n">
         <v>8021</v>
@@ -11755,22 +11666,22 @@
         <v>39</v>
       </c>
       <c r="T34" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U34" t="s">
         <v>40</v>
       </c>
       <c r="V34" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W34" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X34" t="s">
         <v>84</v>
       </c>
       <c r="Y34" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z34" t="s">
         <v>39</v>
@@ -11793,13 +11704,13 @@
         <v>80</v>
       </c>
       <c r="E35" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F35" t="s">
         <v>79</v>
       </c>
       <c r="G35" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -11838,20 +11749,20 @@
         <v>39</v>
       </c>
       <c r="T35" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U35" t="s">
         <v>40</v>
       </c>
       <c r="V35"/>
       <c r="W35" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X35" t="s">
         <v>84</v>
       </c>
       <c r="Y35" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z35" t="s">
         <v>39</v>
@@ -11880,7 +11791,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H36" t="n">
         <v>6845</v>
@@ -11919,7 +11830,7 @@
         <v>39</v>
       </c>
       <c r="T36" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U36" t="s">
         <v>40</v>
@@ -11934,7 +11845,7 @@
         <v>84</v>
       </c>
       <c r="Y36" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z36" t="s">
         <v>39</v>
@@ -11963,7 +11874,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H37" t="n">
         <v>6845</v>
@@ -12002,7 +11913,7 @@
         <v>39</v>
       </c>
       <c r="T37" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U37" t="s">
         <v>40</v>
@@ -12017,7 +11928,7 @@
         <v>84</v>
       </c>
       <c r="Y37" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z37" t="s">
         <v>39</v>
@@ -12040,13 +11951,13 @@
         <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F38" t="s">
         <v>79</v>
       </c>
       <c r="G38" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -12085,20 +11996,20 @@
         <v>39</v>
       </c>
       <c r="T38" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U38" t="s">
         <v>40</v>
       </c>
       <c r="V38"/>
       <c r="W38" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X38" t="s">
         <v>84</v>
       </c>
       <c r="Y38" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z38" t="s">
         <v>39</v>
@@ -12121,13 +12032,13 @@
         <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F39" t="s">
         <v>86</v>
       </c>
       <c r="G39" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H39" t="n">
         <v>690</v>
@@ -12166,22 +12077,22 @@
         <v>39</v>
       </c>
       <c r="T39" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U39" t="s">
         <v>40</v>
       </c>
       <c r="V39" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W39" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X39" t="s">
         <v>91</v>
       </c>
       <c r="Y39" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z39" t="s">
         <v>39</v>
@@ -12204,13 +12115,13 @@
         <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F40" t="s">
         <v>86</v>
       </c>
       <c r="G40" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H40" t="n">
         <v>1294</v>
@@ -12249,22 +12160,22 @@
         <v>39</v>
       </c>
       <c r="T40" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U40" t="s">
         <v>40</v>
       </c>
       <c r="V40" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W40" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X40" t="s">
         <v>91</v>
       </c>
       <c r="Y40" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z40" t="s">
         <v>39</v>
@@ -12287,13 +12198,13 @@
         <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F41" t="s">
         <v>86</v>
       </c>
       <c r="G41" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H41" t="n">
         <v>302</v>
@@ -12332,22 +12243,22 @@
         <v>39</v>
       </c>
       <c r="T41" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U41" t="s">
         <v>40</v>
       </c>
       <c r="V41" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W41" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X41" t="s">
         <v>91</v>
       </c>
       <c r="Y41" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z41" t="s">
         <v>39</v>
@@ -12376,7 +12287,7 @@
         <v>86</v>
       </c>
       <c r="G42" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H42" t="n">
         <v>23752</v>
@@ -12415,22 +12326,22 @@
         <v>39</v>
       </c>
       <c r="T42" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U42" t="s">
         <v>40</v>
       </c>
       <c r="V42" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W42" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X42" t="s">
         <v>91</v>
       </c>
       <c r="Y42" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z42" t="s">
         <v>39</v>
@@ -12453,13 +12364,13 @@
         <v>80</v>
       </c>
       <c r="E43" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F43" t="s">
         <v>86</v>
       </c>
       <c r="G43" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -12498,20 +12409,20 @@
         <v>39</v>
       </c>
       <c r="T43" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U43" t="s">
         <v>40</v>
       </c>
       <c r="V43"/>
       <c r="W43" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X43" t="s">
         <v>91</v>
       </c>
       <c r="Y43" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z43" t="s">
         <v>39</v>
@@ -12540,7 +12451,7 @@
         <v>86</v>
       </c>
       <c r="G44" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H44" t="n">
         <v>36</v>
@@ -12579,20 +12490,20 @@
         <v>39</v>
       </c>
       <c r="T44" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U44" t="s">
         <v>40</v>
       </c>
       <c r="V44" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W44"/>
       <c r="X44" t="s">
         <v>91</v>
       </c>
       <c r="Y44" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z44" t="s">
         <v>39</v>
@@ -12621,7 +12532,7 @@
         <v>86</v>
       </c>
       <c r="G45" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H45" t="n">
         <v>6690</v>
@@ -12660,7 +12571,7 @@
         <v>39</v>
       </c>
       <c r="T45" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U45" t="s">
         <v>40</v>
@@ -12675,7 +12586,7 @@
         <v>91</v>
       </c>
       <c r="Y45" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z45" t="s">
         <v>39</v>
@@ -12698,13 +12609,13 @@
         <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F46" t="s">
         <v>86</v>
       </c>
       <c r="G46" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -12743,20 +12654,20 @@
         <v>39</v>
       </c>
       <c r="T46" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U46" t="s">
         <v>40</v>
       </c>
       <c r="V46"/>
       <c r="W46" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X46" t="s">
         <v>91</v>
       </c>
       <c r="Y46" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z46" t="s">
         <v>39</v>
@@ -12779,13 +12690,13 @@
         <v>80</v>
       </c>
       <c r="E47" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F47" t="s">
         <v>93</v>
       </c>
       <c r="G47" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H47" t="n">
         <v>31</v>
@@ -12824,22 +12735,22 @@
         <v>39</v>
       </c>
       <c r="T47" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U47" t="s">
         <v>40</v>
       </c>
       <c r="V47" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W47" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X47" t="s">
         <v>96</v>
       </c>
       <c r="Y47" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z47" t="s">
         <v>39</v>
@@ -12862,13 +12773,13 @@
         <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F48" t="s">
         <v>93</v>
       </c>
       <c r="G48" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H48" t="n">
         <v>93</v>
@@ -12907,22 +12818,22 @@
         <v>39</v>
       </c>
       <c r="T48" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U48" t="s">
         <v>40</v>
       </c>
       <c r="V48" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W48" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X48" t="s">
         <v>96</v>
       </c>
       <c r="Y48" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z48" t="s">
         <v>39</v>
@@ -12945,13 +12856,13 @@
         <v>80</v>
       </c>
       <c r="E49" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F49" t="s">
         <v>93</v>
       </c>
       <c r="G49" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H49" t="n">
         <v>52</v>
@@ -12990,22 +12901,22 @@
         <v>39</v>
       </c>
       <c r="T49" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U49" t="s">
         <v>40</v>
       </c>
       <c r="V49" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W49" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X49" t="s">
         <v>96</v>
       </c>
       <c r="Y49" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z49" t="s">
         <v>39</v>
@@ -13034,7 +12945,7 @@
         <v>93</v>
       </c>
       <c r="G50" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H50" t="n">
         <v>3572</v>
@@ -13073,7 +12984,7 @@
         <v>39</v>
       </c>
       <c r="T50" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U50" t="s">
         <v>40</v>
@@ -13086,7 +12997,7 @@
         <v>96</v>
       </c>
       <c r="Y50" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z50" t="s">
         <v>39</v>
@@ -13115,7 +13026,7 @@
         <v>93</v>
       </c>
       <c r="G51" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H51" t="n">
         <v>1051</v>
@@ -13154,22 +13065,22 @@
         <v>39</v>
       </c>
       <c r="T51" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U51" t="s">
         <v>40</v>
       </c>
       <c r="V51" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W51" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X51" t="s">
         <v>96</v>
       </c>
       <c r="Y51" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z51" t="s">
         <v>39</v>
@@ -13192,13 +13103,13 @@
         <v>80</v>
       </c>
       <c r="E52" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F52" t="s">
         <v>93</v>
       </c>
       <c r="G52" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -13237,20 +13148,20 @@
         <v>39</v>
       </c>
       <c r="T52" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U52" t="s">
         <v>40</v>
       </c>
       <c r="V52"/>
       <c r="W52" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X52" t="s">
         <v>96</v>
       </c>
       <c r="Y52" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z52" t="s">
         <v>39</v>
@@ -13273,13 +13184,13 @@
         <v>80</v>
       </c>
       <c r="E53" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F53" t="s">
         <v>98</v>
       </c>
       <c r="G53" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H53" t="n">
         <v>298</v>
@@ -13318,16 +13229,16 @@
         <v>39</v>
       </c>
       <c r="T53" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U53" t="s">
         <v>40</v>
       </c>
       <c r="V53" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W53" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X53" t="s">
         <v>101</v>
@@ -13356,13 +13267,13 @@
         <v>80</v>
       </c>
       <c r="E54" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F54" t="s">
         <v>98</v>
       </c>
       <c r="G54" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H54" t="n">
         <v>942</v>
@@ -13401,16 +13312,16 @@
         <v>39</v>
       </c>
       <c r="T54" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U54" t="s">
         <v>40</v>
       </c>
       <c r="V54" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W54" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X54" t="s">
         <v>101</v>
@@ -13439,13 +13350,13 @@
         <v>80</v>
       </c>
       <c r="E55" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F55" t="s">
         <v>98</v>
       </c>
       <c r="G55" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H55" t="n">
         <v>120</v>
@@ -13484,16 +13395,16 @@
         <v>39</v>
       </c>
       <c r="T55" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U55" t="s">
         <v>40</v>
       </c>
       <c r="V55" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W55" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X55" t="s">
         <v>101</v>
@@ -13528,10 +13439,10 @@
         <v>98</v>
       </c>
       <c r="G56" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H56" t="n">
-        <v>21088</v>
+        <v>10544</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -13567,7 +13478,7 @@
         <v>39</v>
       </c>
       <c r="T56" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U56" t="s">
         <v>40</v>
@@ -13609,7 +13520,7 @@
         <v>98</v>
       </c>
       <c r="G57" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H57" t="n">
         <v>2722</v>
@@ -13648,16 +13559,16 @@
         <v>39</v>
       </c>
       <c r="T57" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U57" t="s">
         <v>40</v>
       </c>
       <c r="V57" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W57" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X57" t="s">
         <v>101</v>
@@ -13686,13 +13597,13 @@
         <v>80</v>
       </c>
       <c r="E58" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F58" t="s">
         <v>98</v>
       </c>
       <c r="G58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -13731,14 +13642,14 @@
         <v>39</v>
       </c>
       <c r="T58" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U58" t="s">
         <v>40</v>
       </c>
       <c r="V58"/>
       <c r="W58" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X58" t="s">
         <v>101</v>
@@ -13767,13 +13678,13 @@
         <v>80</v>
       </c>
       <c r="E59" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F59" t="s">
         <v>103</v>
       </c>
       <c r="G59" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H59" t="n">
         <v>153</v>
@@ -13812,20 +13723,20 @@
         <v>39</v>
       </c>
       <c r="T59" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U59" t="s">
         <v>40</v>
       </c>
       <c r="V59" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W59"/>
       <c r="X59" t="s">
         <v>107</v>
       </c>
       <c r="Y59" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z59" t="s">
         <v>39</v>
@@ -13848,13 +13759,13 @@
         <v>80</v>
       </c>
       <c r="E60" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F60" t="s">
         <v>103</v>
       </c>
       <c r="G60" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H60" t="n">
         <v>244</v>
@@ -13893,20 +13804,20 @@
         <v>39</v>
       </c>
       <c r="T60" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U60" t="s">
         <v>40</v>
       </c>
       <c r="V60" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W60"/>
       <c r="X60" t="s">
         <v>107</v>
       </c>
       <c r="Y60" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z60" t="s">
         <v>39</v>
@@ -13929,13 +13840,13 @@
         <v>80</v>
       </c>
       <c r="E61" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F61" t="s">
         <v>103</v>
       </c>
       <c r="G61" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H61" t="n">
         <v>78</v>
@@ -13974,20 +13885,20 @@
         <v>39</v>
       </c>
       <c r="T61" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U61" t="s">
         <v>40</v>
       </c>
       <c r="V61" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W61"/>
       <c r="X61" t="s">
         <v>107</v>
       </c>
       <c r="Y61" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z61" t="s">
         <v>39</v>
@@ -14016,7 +13927,7 @@
         <v>103</v>
       </c>
       <c r="G62" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H62" t="n">
         <v>2316</v>
@@ -14055,7 +13966,7 @@
         <v>39</v>
       </c>
       <c r="T62" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U62" t="s">
         <v>40</v>
@@ -14068,7 +13979,7 @@
         <v>107</v>
       </c>
       <c r="Y62" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z62" t="s">
         <v>39</v>
@@ -14097,7 +14008,7 @@
         <v>103</v>
       </c>
       <c r="G63" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H63" t="n">
         <v>9727</v>
@@ -14136,22 +14047,22 @@
         <v>39</v>
       </c>
       <c r="T63" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U63" t="s">
         <v>40</v>
       </c>
       <c r="V63" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W63" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X63" t="s">
         <v>107</v>
       </c>
       <c r="Y63" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z63" t="s">
         <v>39</v>
@@ -14174,13 +14085,13 @@
         <v>80</v>
       </c>
       <c r="E64" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F64" t="s">
         <v>103</v>
       </c>
       <c r="G64" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H64" t="n">
         <v>7</v>
@@ -14219,20 +14130,20 @@
         <v>39</v>
       </c>
       <c r="T64" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U64" t="s">
         <v>40</v>
       </c>
       <c r="V64" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W64"/>
       <c r="X64" t="s">
         <v>107</v>
       </c>
       <c r="Y64" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z64" t="s">
         <v>39</v>
@@ -14255,13 +14166,13 @@
         <v>80</v>
       </c>
       <c r="E65" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F65" t="s">
         <v>103</v>
       </c>
       <c r="G65" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -14300,20 +14211,20 @@
         <v>39</v>
       </c>
       <c r="T65" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U65" t="s">
         <v>40</v>
       </c>
       <c r="V65"/>
       <c r="W65" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X65" t="s">
         <v>107</v>
       </c>
       <c r="Y65" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z65" t="s">
         <v>39</v>
@@ -14336,13 +14247,13 @@
         <v>80</v>
       </c>
       <c r="E66" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F66" t="s">
         <v>103</v>
       </c>
       <c r="G66" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -14381,20 +14292,20 @@
         <v>39</v>
       </c>
       <c r="T66" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U66" t="s">
         <v>40</v>
       </c>
       <c r="V66"/>
       <c r="W66" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X66" t="s">
         <v>107</v>
       </c>
       <c r="Y66" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z66" t="s">
         <v>39</v>
@@ -14423,7 +14334,7 @@
         <v>103</v>
       </c>
       <c r="G67" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -14462,7 +14373,7 @@
         <v>39</v>
       </c>
       <c r="T67" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U67" t="s">
         <v>40</v>
@@ -14475,7 +14386,7 @@
         <v>107</v>
       </c>
       <c r="Y67" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z67" t="s">
         <v>39</v>
@@ -14498,13 +14409,13 @@
         <v>80</v>
       </c>
       <c r="E68" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F68" t="s">
         <v>103</v>
       </c>
       <c r="G68" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -14543,20 +14454,20 @@
         <v>39</v>
       </c>
       <c r="T68" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U68" t="s">
         <v>40</v>
       </c>
       <c r="V68"/>
       <c r="W68" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X68" t="s">
         <v>107</v>
       </c>
       <c r="Y68" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z68" t="s">
         <v>39</v>
@@ -14579,13 +14490,13 @@
         <v>80</v>
       </c>
       <c r="E69" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F69" t="s">
         <v>109</v>
       </c>
       <c r="G69" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H69" t="n">
         <v>50</v>
@@ -14624,20 +14535,20 @@
         <v>61</v>
       </c>
       <c r="T69" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U69" t="s">
         <v>40</v>
       </c>
       <c r="V69" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W69"/>
       <c r="X69" t="s">
         <v>113</v>
       </c>
       <c r="Y69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z69" t="s">
         <v>39</v>
@@ -14660,13 +14571,13 @@
         <v>80</v>
       </c>
       <c r="E70" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F70" t="s">
         <v>109</v>
       </c>
       <c r="G70" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H70" t="n">
         <v>304</v>
@@ -14705,20 +14616,20 @@
         <v>61</v>
       </c>
       <c r="T70" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U70" t="s">
         <v>40</v>
       </c>
       <c r="V70" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W70"/>
       <c r="X70" t="s">
         <v>113</v>
       </c>
       <c r="Y70" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z70" t="s">
         <v>39</v>
@@ -14741,13 +14652,13 @@
         <v>80</v>
       </c>
       <c r="E71" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F71" t="s">
         <v>109</v>
       </c>
       <c r="G71" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H71" t="n">
         <v>180</v>
@@ -14786,20 +14697,20 @@
         <v>61</v>
       </c>
       <c r="T71" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U71" t="s">
         <v>40</v>
       </c>
       <c r="V71" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W71"/>
       <c r="X71" t="s">
         <v>113</v>
       </c>
       <c r="Y71" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z71" t="s">
         <v>39</v>
@@ -14828,7 +14739,7 @@
         <v>109</v>
       </c>
       <c r="G72" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H72" t="n">
         <v>17768</v>
@@ -14867,22 +14778,22 @@
         <v>61</v>
       </c>
       <c r="T72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U72" t="s">
         <v>40</v>
       </c>
       <c r="V72" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W72" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X72" t="s">
         <v>113</v>
       </c>
       <c r="Y72" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z72" t="s">
         <v>39</v>
@@ -14911,7 +14822,7 @@
         <v>109</v>
       </c>
       <c r="G73" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H73" t="n">
         <v>16574</v>
@@ -14950,7 +14861,7 @@
         <v>61</v>
       </c>
       <c r="T73" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U73" t="s">
         <v>40</v>
@@ -14963,7 +14874,7 @@
         <v>113</v>
       </c>
       <c r="Y73" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z73" t="s">
         <v>39</v>
@@ -14986,13 +14897,13 @@
         <v>80</v>
       </c>
       <c r="E74" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F74" t="s">
         <v>109</v>
       </c>
       <c r="G74" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -15031,20 +14942,20 @@
         <v>61</v>
       </c>
       <c r="T74" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U74" t="s">
         <v>40</v>
       </c>
       <c r="V74"/>
       <c r="W74" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X74" t="s">
         <v>113</v>
       </c>
       <c r="Y74" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z74" t="s">
         <v>39</v>
@@ -15067,13 +14978,13 @@
         <v>80</v>
       </c>
       <c r="E75" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F75" t="s">
         <v>115</v>
       </c>
       <c r="G75" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H75" t="n">
         <v>66</v>
@@ -15112,20 +15023,20 @@
         <v>39</v>
       </c>
       <c r="T75" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U75" t="s">
         <v>40</v>
       </c>
       <c r="V75" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W75"/>
       <c r="X75" t="s">
         <v>119</v>
       </c>
       <c r="Y75" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z75" t="s">
         <v>39</v>
@@ -15148,13 +15059,13 @@
         <v>80</v>
       </c>
       <c r="E76" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F76" t="s">
         <v>115</v>
       </c>
       <c r="G76" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H76" t="n">
         <v>309</v>
@@ -15193,20 +15104,20 @@
         <v>39</v>
       </c>
       <c r="T76" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U76" t="s">
         <v>40</v>
       </c>
       <c r="V76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W76"/>
       <c r="X76" t="s">
         <v>119</v>
       </c>
       <c r="Y76" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z76" t="s">
         <v>39</v>
@@ -15229,13 +15140,13 @@
         <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F77" t="s">
         <v>115</v>
       </c>
       <c r="G77" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H77" t="n">
         <v>85</v>
@@ -15274,20 +15185,20 @@
         <v>39</v>
       </c>
       <c r="T77" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U77" t="s">
         <v>40</v>
       </c>
       <c r="V77" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W77"/>
       <c r="X77" t="s">
         <v>119</v>
       </c>
       <c r="Y77" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z77" t="s">
         <v>39</v>
@@ -15316,7 +15227,7 @@
         <v>115</v>
       </c>
       <c r="G78" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H78" t="n">
         <v>12709</v>
@@ -15355,20 +15266,20 @@
         <v>39</v>
       </c>
       <c r="T78" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U78" t="s">
         <v>40</v>
       </c>
       <c r="V78" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W78"/>
       <c r="X78" t="s">
         <v>119</v>
       </c>
       <c r="Y78" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z78" t="s">
         <v>39</v>
@@ -15391,13 +15302,13 @@
         <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F79" t="s">
         <v>115</v>
       </c>
       <c r="G79" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H79" t="n">
         <v>800</v>
@@ -15436,7 +15347,7 @@
         <v>39</v>
       </c>
       <c r="T79" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U79" t="s">
         <v>40</v>
@@ -15449,7 +15360,7 @@
         <v>119</v>
       </c>
       <c r="Y79" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z79" t="s">
         <v>39</v>
@@ -15478,7 +15389,7 @@
         <v>115</v>
       </c>
       <c r="G80" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H80" t="n">
         <v>3219</v>
@@ -15517,7 +15428,7 @@
         <v>39</v>
       </c>
       <c r="T80" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U80" t="s">
         <v>40</v>
@@ -15530,7 +15441,7 @@
         <v>119</v>
       </c>
       <c r="Y80" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z80" t="s">
         <v>39</v>
@@ -15553,13 +15464,13 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F81" t="s">
         <v>115</v>
       </c>
       <c r="G81" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -15598,20 +15509,20 @@
         <v>39</v>
       </c>
       <c r="T81" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U81" t="s">
         <v>40</v>
       </c>
       <c r="V81"/>
       <c r="W81" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X81" t="s">
         <v>119</v>
       </c>
       <c r="Y81" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z81" t="s">
         <v>39</v>
@@ -15634,13 +15545,13 @@
         <v>80</v>
       </c>
       <c r="E82" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F82" t="s">
         <v>121</v>
       </c>
       <c r="G82" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H82" t="n">
         <v>15</v>
@@ -15679,20 +15590,20 @@
         <v>39</v>
       </c>
       <c r="T82" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U82" t="s">
         <v>40</v>
       </c>
       <c r="V82" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W82"/>
       <c r="X82" t="s">
         <v>124</v>
       </c>
       <c r="Y82" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z82" t="s">
         <v>39</v>
@@ -15715,13 +15626,13 @@
         <v>80</v>
       </c>
       <c r="E83" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F83" t="s">
         <v>121</v>
       </c>
       <c r="G83" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H83" t="n">
         <v>118</v>
@@ -15760,20 +15671,20 @@
         <v>39</v>
       </c>
       <c r="T83" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U83" t="s">
         <v>40</v>
       </c>
       <c r="V83" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W83"/>
       <c r="X83" t="s">
         <v>124</v>
       </c>
       <c r="Y83" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z83" t="s">
         <v>39</v>
@@ -15796,13 +15707,13 @@
         <v>80</v>
       </c>
       <c r="E84" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F84" t="s">
         <v>121</v>
       </c>
       <c r="G84" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H84" t="n">
         <v>24</v>
@@ -15841,20 +15752,20 @@
         <v>39</v>
       </c>
       <c r="T84" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U84" t="s">
         <v>40</v>
       </c>
       <c r="V84" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W84"/>
       <c r="X84" t="s">
         <v>124</v>
       </c>
       <c r="Y84" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z84" t="s">
         <v>39</v>
@@ -15883,7 +15794,7 @@
         <v>121</v>
       </c>
       <c r="G85" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H85" t="n">
         <v>8224</v>
@@ -15922,20 +15833,20 @@
         <v>39</v>
       </c>
       <c r="T85" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U85" t="s">
         <v>40</v>
       </c>
       <c r="V85" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W85"/>
       <c r="X85" t="s">
         <v>124</v>
       </c>
       <c r="Y85" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z85" t="s">
         <v>39</v>
@@ -15964,7 +15875,7 @@
         <v>121</v>
       </c>
       <c r="G86" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H86" t="n">
         <v>17054</v>
@@ -16003,7 +15914,7 @@
         <v>39</v>
       </c>
       <c r="T86" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U86" t="s">
         <v>40</v>
@@ -16016,7 +15927,7 @@
         <v>124</v>
       </c>
       <c r="Y86" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z86" t="s">
         <v>39</v>
@@ -16039,13 +15950,13 @@
         <v>80</v>
       </c>
       <c r="E87" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F87" t="s">
         <v>121</v>
       </c>
       <c r="G87" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -16084,20 +15995,20 @@
         <v>39</v>
       </c>
       <c r="T87" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U87" t="s">
         <v>40</v>
       </c>
       <c r="V87"/>
       <c r="W87" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X87" t="s">
         <v>124</v>
       </c>
       <c r="Y87" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z87" t="s">
         <v>39</v>
@@ -16120,13 +16031,13 @@
         <v>35</v>
       </c>
       <c r="E88" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F88" t="s">
         <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -16165,20 +16076,20 @@
         <v>39</v>
       </c>
       <c r="T88" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U88" t="s">
         <v>40</v>
       </c>
       <c r="V88"/>
       <c r="W88" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X88" t="s">
         <v>46</v>
       </c>
       <c r="Y88" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Z88" t="s">
         <v>39</v>
@@ -16201,13 +16112,13 @@
         <v>35</v>
       </c>
       <c r="E89" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
       </c>
       <c r="G89" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H89" t="n">
         <v>1</v>
@@ -16246,13 +16157,13 @@
         <v>39</v>
       </c>
       <c r="T89" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U89" t="s">
         <v>40</v>
       </c>
       <c r="V89" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W89"/>
       <c r="X89" t="s">
@@ -16265,7 +16176,7 @@
         <v>39</v>
       </c>
       <c r="AA89" t="s">
-        <v>275</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90">
@@ -16282,13 +16193,13 @@
         <v>35</v>
       </c>
       <c r="E90" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F90" t="s">
         <v>53</v>
       </c>
       <c r="G90" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H90" t="n">
         <v>1</v>
@@ -16327,22 +16238,22 @@
         <v>39</v>
       </c>
       <c r="T90" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U90" t="s">
         <v>40</v>
       </c>
       <c r="V90" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W90" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="X90" t="s">
         <v>55</v>
       </c>
       <c r="Y90" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z90" t="s">
         <v>39</v>
@@ -16365,13 +16276,13 @@
         <v>35</v>
       </c>
       <c r="E91" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F91" t="s">
         <v>53</v>
       </c>
       <c r="G91" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
@@ -16410,22 +16321,22 @@
         <v>39</v>
       </c>
       <c r="T91" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U91" t="s">
         <v>40</v>
       </c>
       <c r="V91" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W91" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X91" t="s">
         <v>55</v>
       </c>
       <c r="Y91" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z91" t="s">
         <v>39</v>
@@ -16448,13 +16359,13 @@
         <v>59</v>
       </c>
       <c r="E92" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F92" t="s">
         <v>64</v>
       </c>
       <c r="G92" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H92" t="n">
         <v>1</v>
@@ -16493,22 +16404,22 @@
         <v>39</v>
       </c>
       <c r="T92" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U92" t="s">
         <v>40</v>
       </c>
       <c r="V92" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W92" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X92" t="s">
         <v>66</v>
       </c>
       <c r="Y92" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z92" t="s">
         <v>39</v>
@@ -16531,13 +16442,13 @@
         <v>59</v>
       </c>
       <c r="E93" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F93" t="s">
         <v>68</v>
       </c>
       <c r="G93" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -16576,20 +16487,20 @@
         <v>61</v>
       </c>
       <c r="T93" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U93" t="s">
         <v>40</v>
       </c>
       <c r="V93"/>
       <c r="W93" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="X93" t="s">
         <v>70</v>
       </c>
       <c r="Y93" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Z93" t="s">
         <v>39</v>
@@ -16612,13 +16523,13 @@
         <v>59</v>
       </c>
       <c r="E94" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F94" t="s">
         <v>68</v>
       </c>
       <c r="G94" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -16657,20 +16568,20 @@
         <v>61</v>
       </c>
       <c r="T94" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U94" t="s">
         <v>40</v>
       </c>
       <c r="V94"/>
       <c r="W94" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X94" t="s">
         <v>70</v>
       </c>
       <c r="Y94" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Z94" t="s">
         <v>39</v>
@@ -16691,13 +16602,13 @@
         <v>74</v>
       </c>
       <c r="E95" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F95" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G95" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H95" t="n">
         <v>1</v>
@@ -16736,22 +16647,22 @@
         <v>39</v>
       </c>
       <c r="T95" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U95" t="s">
         <v>40</v>
       </c>
       <c r="V95" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W95" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="X95" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y95" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z95" t="s">
         <v>39</v>
@@ -16772,13 +16683,13 @@
         <v>74</v>
       </c>
       <c r="E96" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F96" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G96" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -16817,22 +16728,22 @@
         <v>39</v>
       </c>
       <c r="T96" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U96" t="s">
         <v>40</v>
       </c>
       <c r="V96" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W96" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X96" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y96" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z96" t="s">
         <v>39</v>
@@ -16855,13 +16766,13 @@
         <v>74</v>
       </c>
       <c r="E97" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F97" t="s">
         <v>72</v>
       </c>
       <c r="G97" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -16900,20 +16811,20 @@
         <v>39</v>
       </c>
       <c r="T97" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U97" t="s">
         <v>40</v>
       </c>
       <c r="V97" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W97"/>
       <c r="X97" t="s">
         <v>77</v>
       </c>
       <c r="Y97" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z97" t="s">
         <v>39</v>
@@ -16936,13 +16847,13 @@
         <v>80</v>
       </c>
       <c r="E98" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F98" t="s">
         <v>86</v>
       </c>
       <c r="G98" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H98" t="n">
         <v>2</v>
@@ -16981,22 +16892,22 @@
         <v>39</v>
       </c>
       <c r="T98" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U98" t="s">
         <v>40</v>
       </c>
       <c r="V98" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="W98" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="X98" t="s">
         <v>91</v>
       </c>
       <c r="Y98" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z98" t="s">
         <v>39</v>
@@ -17019,13 +16930,13 @@
         <v>80</v>
       </c>
       <c r="E99" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F99" t="s">
         <v>86</v>
       </c>
       <c r="G99" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H99" t="n">
         <v>2</v>
@@ -17064,22 +16975,22 @@
         <v>39</v>
       </c>
       <c r="T99" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U99" t="s">
         <v>40</v>
       </c>
       <c r="V99" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="W99" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X99" t="s">
         <v>91</v>
       </c>
       <c r="Y99" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z99" t="s">
         <v>39</v>
@@ -17102,13 +17013,13 @@
         <v>80</v>
       </c>
       <c r="E100" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F100" t="s">
         <v>86</v>
       </c>
       <c r="G100" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H100" t="n">
         <v>2</v>
@@ -17147,22 +17058,22 @@
         <v>39</v>
       </c>
       <c r="T100" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U100" t="s">
         <v>40</v>
       </c>
       <c r="V100" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W100" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="X100" t="s">
         <v>91</v>
       </c>
       <c r="Y100" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z100" t="s">
         <v>39</v>
@@ -17185,13 +17096,13 @@
         <v>80</v>
       </c>
       <c r="E101" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F101" t="s">
         <v>86</v>
       </c>
       <c r="G101" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H101" t="n">
         <v>2</v>
@@ -17230,22 +17141,22 @@
         <v>39</v>
       </c>
       <c r="T101" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U101" t="s">
         <v>40</v>
       </c>
       <c r="V101" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W101" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X101" t="s">
         <v>91</v>
       </c>
       <c r="Y101" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z101" t="s">
         <v>39</v>
@@ -17268,13 +17179,13 @@
         <v>80</v>
       </c>
       <c r="E102" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F102" t="s">
         <v>93</v>
       </c>
       <c r="G102" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
@@ -17313,20 +17224,20 @@
         <v>39</v>
       </c>
       <c r="T102" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U102" t="s">
         <v>40</v>
       </c>
       <c r="V102" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W102"/>
       <c r="X102" t="s">
         <v>96</v>
       </c>
       <c r="Y102" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z102" t="s">
         <v>39</v>
@@ -17349,13 +17260,13 @@
         <v>80</v>
       </c>
       <c r="E103" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F103" t="s">
         <v>98</v>
       </c>
       <c r="G103" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H103" t="n">
         <v>2</v>
@@ -17394,13 +17305,13 @@
         <v>39</v>
       </c>
       <c r="T103" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U103" t="s">
         <v>40</v>
       </c>
       <c r="V103" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="W103"/>
       <c r="X103" t="s">
@@ -17430,13 +17341,13 @@
         <v>80</v>
       </c>
       <c r="E104" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F104" t="s">
         <v>98</v>
       </c>
       <c r="G104" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H104" t="n">
         <v>2</v>
@@ -17475,13 +17386,13 @@
         <v>39</v>
       </c>
       <c r="T104" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U104" t="s">
         <v>40</v>
       </c>
       <c r="V104" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W104"/>
       <c r="X104" t="s">
@@ -17511,13 +17422,13 @@
         <v>80</v>
       </c>
       <c r="E105" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F105" t="s">
         <v>109</v>
       </c>
       <c r="G105" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H105" t="n">
         <v>171</v>
@@ -17556,20 +17467,20 @@
         <v>61</v>
       </c>
       <c r="T105" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U105" t="s">
         <v>40</v>
       </c>
       <c r="V105" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="W105"/>
       <c r="X105" t="s">
         <v>113</v>
       </c>
       <c r="Y105" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z105" t="s">
         <v>39</v>
@@ -17592,13 +17503,13 @@
         <v>80</v>
       </c>
       <c r="E106" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F106" t="s">
         <v>109</v>
       </c>
       <c r="G106" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H106" t="n">
         <v>172</v>
@@ -17637,7 +17548,7 @@
         <v>61</v>
       </c>
       <c r="T106" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U106" t="s">
         <v>40</v>
@@ -17650,7 +17561,7 @@
         <v>113</v>
       </c>
       <c r="Y106" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z106" t="s">
         <v>39</v>
@@ -17673,13 +17584,13 @@
         <v>80</v>
       </c>
       <c r="E107" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F107" t="s">
         <v>115</v>
       </c>
       <c r="G107" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H107" t="n">
         <v>1</v>
@@ -17718,22 +17629,22 @@
         <v>39</v>
       </c>
       <c r="T107" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U107" t="s">
         <v>40</v>
       </c>
       <c r="V107" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W107" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X107" t="s">
         <v>119</v>
       </c>
       <c r="Y107" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z107" t="s">
         <v>39</v>
@@ -17756,13 +17667,13 @@
         <v>80</v>
       </c>
       <c r="E108" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F108" t="s">
         <v>121</v>
       </c>
       <c r="G108" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H108" t="n">
         <v>1</v>
@@ -17801,20 +17712,20 @@
         <v>39</v>
       </c>
       <c r="T108" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U108" t="s">
         <v>40</v>
       </c>
       <c r="V108" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W108"/>
       <c r="X108" t="s">
         <v>124</v>
       </c>
       <c r="Y108" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z108" t="s">
         <v>39</v>
@@ -17845,13 +17756,13 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
@@ -18368,13 +18279,13 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
         <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G21" t="s">
         <v>39</v>
@@ -18394,13 +18305,13 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E22" t="s">
         <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G22" t="s">
         <v>39</v>
@@ -18420,19 +18331,19 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
         <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24">
@@ -18446,13 +18357,13 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E24" t="s">
         <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
@@ -18472,13 +18383,13 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="F25" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G25" t="s">
         <v>39</v>
@@ -18498,13 +18409,13 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F26" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G26" t="s">
         <v>39</v>
@@ -18524,13 +18435,13 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F27" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G27" t="s">
         <v>39</v>
@@ -18550,13 +18461,13 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F28" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G28" t="s">
         <v>39</v>
@@ -18576,13 +18487,13 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F29" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G29" t="s">
         <v>39</v>
@@ -18602,13 +18513,13 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E30" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F30" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G30" t="s">
         <v>39</v>
@@ -18628,13 +18539,13 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F31" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
@@ -18654,13 +18565,13 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F32" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G32" t="s">
         <v>39</v>
@@ -18680,13 +18591,13 @@
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E33" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="G33" t="s">
         <v>39</v>
@@ -18706,13 +18617,13 @@
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E34" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F34" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G34" t="s">
         <v>39</v>
@@ -18732,13 +18643,13 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F35" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -18758,13 +18669,13 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E36" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F36" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="G36" t="s">
         <v>39</v>
@@ -18784,13 +18695,13 @@
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E37" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F37" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="G37" t="s">
         <v>39</v>
@@ -18810,13 +18721,13 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F38" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="G38" t="s">
         <v>39</v>
@@ -18836,13 +18747,13 @@
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E39" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F39" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -18862,13 +18773,13 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E40" t="s">
-        <v>167</v>
+        <v>248</v>
       </c>
       <c r="F40" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G40" t="s">
         <v>39</v>
@@ -18888,13 +18799,13 @@
         <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E41" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F41" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="G41" t="s">
         <v>39</v>
@@ -18914,13 +18825,13 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E42" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="F42" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G42" t="s">
         <v>39</v>
@@ -18940,13 +18851,13 @@
         <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E43" t="s">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G43" t="s">
         <v>39</v>
@@ -18960,19 +18871,19 @@
         <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="C44" t="s">
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="G44" t="s">
         <v>39</v>
@@ -18986,25 +18897,25 @@
         <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C45" t="s">
         <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E45" t="s">
         <v>80</v>
       </c>
       <c r="F45" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="H45" t="s">
-        <v>38</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46">
@@ -19012,25 +18923,25 @@
         <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C46" t="s">
         <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="F46" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G46" t="s">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="H46" t="s">
-        <v>276</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
@@ -19038,19 +18949,19 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C47" t="s">
         <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E47" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F47" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G47" t="s">
         <v>39</v>
@@ -19064,19 +18975,19 @@
         <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C48" t="s">
         <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E48" t="s">
-        <v>246</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G48" t="s">
         <v>39</v>
@@ -19090,19 +19001,19 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C49" t="s">
         <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F49" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G49" t="s">
         <v>39</v>
@@ -19116,19 +19027,19 @@
         <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C50" t="s">
         <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E50" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F50" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G50" t="s">
         <v>39</v>
@@ -19142,19 +19053,19 @@
         <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C51" t="s">
         <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E51" t="s">
         <v>80</v>
       </c>
       <c r="F51" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G51" t="s">
         <v>39</v>
@@ -19168,19 +19079,19 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C52" t="s">
         <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E52" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="F52" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G52" t="s">
         <v>39</v>
@@ -19194,19 +19105,19 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C53" t="s">
         <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="E53" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F53" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G53" t="s">
         <v>39</v>
@@ -19220,19 +19131,19 @@
         <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C54" t="s">
         <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E54" t="s">
-        <v>246</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G54" t="s">
         <v>39</v>
@@ -19246,19 +19157,19 @@
         <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C55" t="s">
         <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F55" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G55" t="s">
         <v>39</v>
@@ -19272,19 +19183,19 @@
         <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C56" t="s">
         <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F56" t="s">
-        <v>316</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s">
         <v>39</v>
@@ -19298,19 +19209,19 @@
         <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C57" t="s">
         <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E57" t="s">
         <v>74</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="G57" t="s">
         <v>39</v>
@@ -19324,19 +19235,17 @@
         <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>268</v>
-      </c>
-      <c r="C58" t="s">
-        <v>30</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C58"/>
       <c r="D58" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E58" t="s">
         <v>74</v>
       </c>
       <c r="F58" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G58" t="s">
         <v>39</v>
@@ -19354,13 +19263,13 @@
       </c>
       <c r="C59"/>
       <c r="D59" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E59" t="s">
         <v>74</v>
       </c>
       <c r="F59" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G59" t="s">
         <v>39</v>
@@ -19378,13 +19287,13 @@
       </c>
       <c r="C60"/>
       <c r="D60" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E60" t="s">
         <v>74</v>
       </c>
       <c r="F60" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G60" t="s">
         <v>39</v>
@@ -19402,13 +19311,13 @@
       </c>
       <c r="C61"/>
       <c r="D61" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E61" t="s">
         <v>74</v>
       </c>
       <c r="F61" t="s">
-        <v>324</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -19426,13 +19335,13 @@
       </c>
       <c r="C62"/>
       <c r="D62" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E62" t="s">
         <v>74</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="G62" t="s">
         <v>39</v>
@@ -19450,13 +19359,13 @@
       </c>
       <c r="C63"/>
       <c r="D63" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E63" t="s">
         <v>74</v>
       </c>
       <c r="F63" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G63" t="s">
         <v>39</v>
@@ -19470,17 +19379,17 @@
         <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="C64"/>
       <c r="D64" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E64" t="s">
         <v>74</v>
       </c>
       <c r="F64" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G64" t="s">
         <v>39</v>
@@ -19494,46 +19403,22 @@
         <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C65"/>
       <c r="D65" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E65" t="s">
         <v>74</v>
       </c>
       <c r="F65" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G65" t="s">
         <v>39</v>
       </c>
       <c r="H65" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" t="s">
-        <v>268</v>
-      </c>
-      <c r="C66"/>
-      <c r="D66" t="s">
-        <v>346</v>
-      </c>
-      <c r="E66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F66" t="s">
-        <v>324</v>
-      </c>
-      <c r="G66" t="s">
-        <v>39</v>
-      </c>
-      <c r="H66" t="s">
         <v>38</v>
       </c>
     </row>
@@ -19559,25 +19444,25 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2">
@@ -19585,13 +19470,13 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C2" t="n">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -19614,13 +19499,13 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C3" t="n">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -19643,7 +19528,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C4" t="n">
         <v>16</v>
@@ -19672,13 +19557,13 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C5" t="n">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -19701,13 +19586,13 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C6" t="n">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -19736,7 +19621,7 @@
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -19765,7 +19650,7 @@
         <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -19794,7 +19679,7 @@
         <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -19939,7 +19824,7 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -19962,13 +19847,13 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C15" t="n">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -19991,13 +19876,13 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C16" t="n">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -20020,13 +19905,13 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C17" t="n">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -20055,7 +19940,7 @@
         <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E18" t="n">
         <v>24</v>
@@ -20084,7 +19969,7 @@
         <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -20118,12 +20003,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/Test_QC_result.xlsx
+++ b/Test_QC_result.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
   <si>
     <t xml:space="preserve">run</t>
   </si>
@@ -1243,7 +1243,10 @@
     <t xml:space="preserve">Message</t>
   </si>
   <si>
-    <t xml:space="preserve">Samplesheet样本和质控样本一致</t>
+    <t xml:space="preserve">质检表较SampleSheet多出的样本： T2P3-POS-1,T2P3-POS-2,T2P3-POS-3,T2P3-NEG-1,T2P3-NEG-2,T2P3-NEG-3,T2P3-NTC-T-1,T2P3-NTC-T-2,T2P3-QFP01,T2P3-QFP02,T2P3-QFP03,T2P3-QFP04,T2P3-QFP05,T2P3-QFP06,T2P3-QFP07,T2P3-QFP08,T2P3-QFL01,T2P3-QFL02,T2P3-QFL03,T2P3-QFL04,T2P3-QFL05,T2P3-QFL06,T2P3-QFL07,T2P3-QFL08,T2P3-QFR01-1,T2P3-QFR01-2,T2P3-QFR01-3,T2P3-QFR01-4,T2P3-QFR01-5,T2P3-QFR02-1,T2P3-QFR02-2,T2P3-QFR02-3,T2P3-QFR02-4,T2P3-QFR02-5,T2P3-QFR03-1,T2P3-QFR03-2,T2P3-QFR03-3,T2P3-QFR03-4,T2P3-QFR03-5,T2P3-NTC-T-3,T2P3-QFN01,T2P3-QFN02,T2P3-QFN03,T2P3-NTC-N-1,T2P3-NTC-N-2,T2P3-NTC-J-1,T2P3-NTC-J-2,T2P3-NTC-J-3,T2P3-QFL01-DZ1,T2P3-QFL02-DZ1,T2P3-QFN01-DZ1,T2P3-QFN02-DZ1,T2P3-POS-DZ1,T2P3-NEG-DZ1,T2P3-NTC-DZ1-J-1,T2P3-NTC-DZ1-J-2,T2P3-QFL01-DZ2,T2P3-QFL02-DZ2,T2P3-QFN01-DZ2,T2P3-QFN02-DZ2,T2P3-POS-DZ2,T2P3-NEG-DZ2,T2P3-NTC-DZ2-J-1,T2P3-NTC-DZ2-J-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SampleSheet较质检表多出的样本： T11A-P01-DJ,T11A-P02-DJ,T11A-P03-DJ,T11A-P04-DJ,T11A-P05-DJ,T11A-P06-DJ,T11A-P07-DJ,T11A-P08-DJ,T11A-R01-1,T11A-R02-1,T11A-R03-1,T11A-R04-1,T11A-R05-1,T11A-R06-1,T11A-R07-1,T11A-R08-1,T11A-R01-2,T11A-R02-2,T11A-R03-2,T11A-R04-2,T11A-R05-2,T11A-R06-2,T11A-R07-2,T11A-R08-2,T11A-R01-3,T11A-R02-3,T11A-R03-3,T11A-R04-3,T11A-R05-3,T11A-R06-3,T11A-R07-3,T11A-R08-3,T11A-R01-4,T11A-R02-4,T11A-R03-4,T11A-R04-4,T11A-R05-4,T11A-R06-4,T11A-R07-4,T11A-R08-4,T11A-R01-5,T11A-R02-5,T11A-R03-5,T11A-R04-5,T11A-R05-5,T11A-R06-5,T11A-R07-5,T11A-R08-5,T11A-L01,T11A-L02,T11A-L03,T11A-NC-1,T11A-NC-2,T11A-NC-3,T11A-NC,T11A-P0C,T11B-NC-1,T11B-NC-2,T11B-NC-3,T11B-NC,T11B-PC,T11B-NTC-T,T11B-NTC-J-1,T11B-NTC-J-2,T2-H-1,T2-H-2,T2-H-3,T2-E-1,T2-E-2,T2-E-3,T2-NTC-1,T2-NTC-2,T11B-H-1,T11B-H-2,T11B-H-3,T11B-E-1,T11B-E-2,T11B-E-3,T11B-NTC-1,T11B-NTC-2</t>
   </si>
 </sst>
 </file>
@@ -1716,9 +1719,7 @@
       <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q2"/>
       <c r="R2" t="s">
         <v>39</v>
       </c>
@@ -1755,9 +1756,7 @@
       <c r="AC2" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1808,9 +1807,7 @@
       <c r="P3" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q3"/>
       <c r="R3" t="s">
         <v>39</v>
       </c>
@@ -1847,9 +1844,7 @@
       <c r="AC3" t="s">
         <v>39</v>
       </c>
-      <c r="AD3" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1900,9 +1895,7 @@
       <c r="P4" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q4"/>
       <c r="R4" t="s">
         <v>39</v>
       </c>
@@ -1939,9 +1932,7 @@
       <c r="AC4" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1988,9 +1979,7 @@
       <c r="P5" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q5"/>
       <c r="R5" t="s">
         <v>61</v>
       </c>
@@ -2025,9 +2014,7 @@
       <c r="AC5" t="s">
         <v>39</v>
       </c>
-      <c r="AD5" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2074,9 +2061,7 @@
       <c r="P6" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q6"/>
       <c r="R6" t="s">
         <v>61</v>
       </c>
@@ -2111,9 +2096,7 @@
       <c r="AC6" t="s">
         <v>39</v>
       </c>
-      <c r="AD6" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2160,9 +2143,7 @@
       <c r="P7" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q7"/>
       <c r="R7" t="s">
         <v>61</v>
       </c>
@@ -2197,9 +2178,7 @@
       <c r="AC7" t="s">
         <v>39</v>
       </c>
-      <c r="AD7" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2246,9 +2225,7 @@
       <c r="P8" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q8"/>
       <c r="R8" t="s">
         <v>39</v>
       </c>
@@ -2283,9 +2260,7 @@
       <c r="AC8" t="s">
         <v>39</v>
       </c>
-      <c r="AD8" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2336,9 +2311,7 @@
       <c r="P9" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q9"/>
       <c r="R9" t="s">
         <v>39</v>
       </c>
@@ -2375,9 +2348,7 @@
       <c r="AC9" t="s">
         <v>39</v>
       </c>
-      <c r="AD9" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2428,9 +2399,7 @@
       <c r="P10" t="s">
         <v>90</v>
       </c>
-      <c r="Q10" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q10"/>
       <c r="R10" t="s">
         <v>39</v>
       </c>
@@ -2467,9 +2436,7 @@
       <c r="AC10" t="s">
         <v>39</v>
       </c>
-      <c r="AD10" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2520,9 +2487,7 @@
       <c r="P11" t="s">
         <v>38</v>
       </c>
-      <c r="Q11" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q11"/>
       <c r="R11" t="s">
         <v>39</v>
       </c>
@@ -2559,9 +2524,7 @@
       <c r="AC11" t="s">
         <v>39</v>
       </c>
-      <c r="AD11" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2612,9 +2575,7 @@
       <c r="P12" t="s">
         <v>90</v>
       </c>
-      <c r="Q12" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q12"/>
       <c r="R12" t="s">
         <v>39</v>
       </c>
@@ -2651,9 +2612,7 @@
       <c r="AC12" t="s">
         <v>39</v>
       </c>
-      <c r="AD12" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2704,9 +2663,7 @@
       <c r="P13" t="s">
         <v>38</v>
       </c>
-      <c r="Q13" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q13"/>
       <c r="R13" t="s">
         <v>39</v>
       </c>
@@ -2743,9 +2700,7 @@
       <c r="AC13" t="s">
         <v>39</v>
       </c>
-      <c r="AD13" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2796,9 +2751,7 @@
       <c r="P14" t="s">
         <v>112</v>
       </c>
-      <c r="Q14" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q14"/>
       <c r="R14" t="s">
         <v>39</v>
       </c>
@@ -2835,9 +2788,7 @@
       <c r="AC14" t="s">
         <v>39</v>
       </c>
-      <c r="AD14" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2927,9 +2878,7 @@
       <c r="AC15" t="s">
         <v>39</v>
       </c>
-      <c r="AD15" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2980,9 +2929,7 @@
       <c r="P16" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q16"/>
       <c r="R16" t="s">
         <v>39</v>
       </c>
@@ -3019,9 +2966,7 @@
       <c r="AC16" t="s">
         <v>39</v>
       </c>
-      <c r="AD16" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3072,9 +3017,7 @@
       <c r="P17" t="s">
         <v>90</v>
       </c>
-      <c r="Q17" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q17"/>
       <c r="R17" t="s">
         <v>39</v>
       </c>
@@ -3111,9 +3054,7 @@
       <c r="AC17" t="s">
         <v>39</v>
       </c>
-      <c r="AD17" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3164,9 +3105,7 @@
       <c r="P18" t="s">
         <v>134</v>
       </c>
-      <c r="Q18" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q18"/>
       <c r="R18" t="s">
         <v>39</v>
       </c>
@@ -3203,9 +3142,7 @@
       <c r="AC18" t="s">
         <v>39</v>
       </c>
-      <c r="AD18" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3256,9 +3193,7 @@
       <c r="P19" t="s">
         <v>38</v>
       </c>
-      <c r="Q19" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q19"/>
       <c r="R19" t="s">
         <v>39</v>
       </c>
@@ -3295,9 +3230,7 @@
       <c r="AC19" t="s">
         <v>39</v>
       </c>
-      <c r="AD19" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3348,9 +3281,7 @@
       <c r="P20" t="s">
         <v>38</v>
       </c>
-      <c r="Q20" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q20"/>
       <c r="R20" t="s">
         <v>39</v>
       </c>
@@ -3387,9 +3318,7 @@
       <c r="AC20" t="s">
         <v>39</v>
       </c>
-      <c r="AD20" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -3440,9 +3369,7 @@
       <c r="P21" t="s">
         <v>38</v>
       </c>
-      <c r="Q21" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q21"/>
       <c r="R21" t="s">
         <v>39</v>
       </c>
@@ -3479,9 +3406,7 @@
       <c r="AC21" t="s">
         <v>39</v>
       </c>
-      <c r="AD21" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -3532,9 +3457,7 @@
       <c r="P22" t="s">
         <v>152</v>
       </c>
-      <c r="Q22" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q22"/>
       <c r="R22" t="s">
         <v>39</v>
       </c>
@@ -3571,9 +3494,7 @@
       <c r="AC22" t="s">
         <v>39</v>
       </c>
-      <c r="AD22" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -3716,9 +3637,7 @@
       <c r="P24" t="s">
         <v>38</v>
       </c>
-      <c r="Q24" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q24"/>
       <c r="R24" t="s">
         <v>39</v>
       </c>
@@ -3755,9 +3674,7 @@
       <c r="AC24" t="s">
         <v>39</v>
       </c>
-      <c r="AD24" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -3808,9 +3725,7 @@
       <c r="P25" t="s">
         <v>38</v>
       </c>
-      <c r="Q25" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q25"/>
       <c r="R25" t="s">
         <v>39</v>
       </c>
@@ -3847,9 +3762,7 @@
       <c r="AC25" t="s">
         <v>39</v>
       </c>
-      <c r="AD25" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -3900,9 +3813,7 @@
       <c r="P26" t="s">
         <v>38</v>
       </c>
-      <c r="Q26" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q26"/>
       <c r="R26" t="s">
         <v>39</v>
       </c>
@@ -3939,9 +3850,7 @@
       <c r="AC26" t="s">
         <v>39</v>
       </c>
-      <c r="AD26" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -3992,9 +3901,7 @@
       <c r="P27" t="s">
         <v>38</v>
       </c>
-      <c r="Q27" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q27"/>
       <c r="R27" t="s">
         <v>39</v>
       </c>
@@ -4031,9 +3938,7 @@
       <c r="AC27" t="s">
         <v>39</v>
       </c>
-      <c r="AD27" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -4084,9 +3989,7 @@
       <c r="P28" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q28"/>
       <c r="R28" t="s">
         <v>39</v>
       </c>
@@ -4123,9 +4026,7 @@
       <c r="AC28" t="s">
         <v>39</v>
       </c>
-      <c r="AD28" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -4176,9 +4077,7 @@
       <c r="P29" t="s">
         <v>38</v>
       </c>
-      <c r="Q29" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q29"/>
       <c r="R29" t="s">
         <v>39</v>
       </c>
@@ -4215,9 +4114,7 @@
       <c r="AC29" t="s">
         <v>39</v>
       </c>
-      <c r="AD29" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -4268,9 +4165,7 @@
       <c r="P30" t="s">
         <v>196</v>
       </c>
-      <c r="Q30" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q30"/>
       <c r="R30" t="s">
         <v>39</v>
       </c>
@@ -4307,9 +4202,7 @@
       <c r="AC30" t="s">
         <v>39</v>
       </c>
-      <c r="AD30" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -4360,9 +4253,7 @@
       <c r="P31" t="s">
         <v>201</v>
       </c>
-      <c r="Q31" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q31"/>
       <c r="R31" t="s">
         <v>39</v>
       </c>
@@ -4399,9 +4290,7 @@
       <c r="AC31" t="s">
         <v>39</v>
       </c>
-      <c r="AD31" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -4452,9 +4341,7 @@
       <c r="P32" t="s">
         <v>207</v>
       </c>
-      <c r="Q32" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q32"/>
       <c r="R32" t="s">
         <v>39</v>
       </c>
@@ -4491,9 +4378,7 @@
       <c r="AC32" t="s">
         <v>39</v>
       </c>
-      <c r="AD32" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -4544,9 +4429,7 @@
       <c r="P33" t="s">
         <v>213</v>
       </c>
-      <c r="Q33" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q33"/>
       <c r="R33" t="s">
         <v>39</v>
       </c>
@@ -4583,9 +4466,7 @@
       <c r="AC33" t="s">
         <v>39</v>
       </c>
-      <c r="AD33" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -4636,9 +4517,7 @@
       <c r="P34" t="s">
         <v>218</v>
       </c>
-      <c r="Q34" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q34"/>
       <c r="R34" t="s">
         <v>39</v>
       </c>
@@ -4675,9 +4554,7 @@
       <c r="AC34" t="s">
         <v>39</v>
       </c>
-      <c r="AD34" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -4767,9 +4644,7 @@
       <c r="AC35" t="s">
         <v>39</v>
       </c>
-      <c r="AD35" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -4859,9 +4734,7 @@
       <c r="AC36" t="s">
         <v>39</v>
       </c>
-      <c r="AD36" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -4951,9 +4824,7 @@
       <c r="AC37" t="s">
         <v>39</v>
       </c>
-      <c r="AD37" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -5043,9 +4914,7 @@
       <c r="AC38" t="s">
         <v>39</v>
       </c>
-      <c r="AD38" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -5135,9 +5004,7 @@
       <c r="AC39" t="s">
         <v>39</v>
       </c>
-      <c r="AD39" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -5184,9 +5051,7 @@
       <c r="P40" t="s">
         <v>38</v>
       </c>
-      <c r="Q40" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q40"/>
       <c r="R40" t="s">
         <v>39</v>
       </c>
@@ -5221,9 +5086,7 @@
       <c r="AC40" t="s">
         <v>39</v>
       </c>
-      <c r="AD40" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -5270,9 +5133,7 @@
       <c r="P41" t="s">
         <v>255</v>
       </c>
-      <c r="Q41" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q41"/>
       <c r="R41" t="s">
         <v>39</v>
       </c>
@@ -5307,9 +5168,7 @@
       <c r="AC41" t="s">
         <v>39</v>
       </c>
-      <c r="AD41" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -5356,9 +5215,7 @@
       <c r="P42" t="s">
         <v>134</v>
       </c>
-      <c r="Q42" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q42"/>
       <c r="R42" t="s">
         <v>39</v>
       </c>
@@ -5393,9 +5250,7 @@
       <c r="AC42" t="s">
         <v>39</v>
       </c>
-      <c r="AD42" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -5442,9 +5297,7 @@
       <c r="P43" t="s">
         <v>38</v>
       </c>
-      <c r="Q43" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q43"/>
       <c r="R43" t="s">
         <v>39</v>
       </c>
@@ -5479,9 +5332,7 @@
       <c r="AC43" t="s">
         <v>39</v>
       </c>
-      <c r="AD43" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -5532,9 +5383,7 @@
       <c r="P44" t="s">
         <v>38</v>
       </c>
-      <c r="Q44" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q44"/>
       <c r="R44" t="s">
         <v>39</v>
       </c>
@@ -5567,9 +5416,7 @@
       <c r="AC44" t="s">
         <v>39</v>
       </c>
-      <c r="AD44" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -5620,9 +5467,7 @@
       <c r="P45" t="s">
         <v>38</v>
       </c>
-      <c r="Q45" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q45"/>
       <c r="R45" t="s">
         <v>39</v>
       </c>
@@ -5704,9 +5549,7 @@
       <c r="P46" t="s">
         <v>134</v>
       </c>
-      <c r="Q46" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q46"/>
       <c r="R46" t="s">
         <v>39</v>
       </c>
@@ -5737,9 +5580,7 @@
       <c r="AC46" t="s">
         <v>39</v>
       </c>
-      <c r="AD46" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -5786,9 +5627,7 @@
       <c r="P47" t="s">
         <v>38</v>
       </c>
-      <c r="Q47" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q47"/>
       <c r="R47" t="s">
         <v>39</v>
       </c>
@@ -5819,9 +5658,7 @@
       <c r="AC47" t="s">
         <v>39</v>
       </c>
-      <c r="AD47" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -5872,9 +5709,7 @@
       <c r="P48" t="s">
         <v>38</v>
       </c>
-      <c r="Q48" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q48"/>
       <c r="R48" t="s">
         <v>39</v>
       </c>
@@ -5907,9 +5742,7 @@
       <c r="AC48" t="s">
         <v>39</v>
       </c>
-      <c r="AD48" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -5956,9 +5789,7 @@
       <c r="P49" t="s">
         <v>134</v>
       </c>
-      <c r="Q49" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q49"/>
       <c r="R49" t="s">
         <v>61</v>
       </c>
@@ -5989,9 +5820,7 @@
       <c r="AC49" t="s">
         <v>39</v>
       </c>
-      <c r="AD49" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -6042,9 +5871,7 @@
       <c r="P50" t="s">
         <v>38</v>
       </c>
-      <c r="Q50" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q50"/>
       <c r="R50" t="s">
         <v>39</v>
       </c>
@@ -6077,9 +5904,7 @@
       <c r="AC50" t="s">
         <v>39</v>
       </c>
-      <c r="AD50" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -6130,9 +5955,7 @@
       <c r="P51" t="s">
         <v>90</v>
       </c>
-      <c r="Q51" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q51"/>
       <c r="R51" t="s">
         <v>39</v>
       </c>
@@ -6165,9 +5988,7 @@
       <c r="AC51" t="s">
         <v>39</v>
       </c>
-      <c r="AD51" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -6214,9 +6035,7 @@
       <c r="P52" t="s">
         <v>38</v>
       </c>
-      <c r="Q52" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q52"/>
       <c r="R52" t="s">
         <v>39</v>
       </c>
@@ -6247,9 +6066,7 @@
       <c r="AC52" t="s">
         <v>39</v>
       </c>
-      <c r="AD52" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -6296,9 +6113,7 @@
       <c r="P53" t="s">
         <v>38</v>
       </c>
-      <c r="Q53" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q53"/>
       <c r="R53" t="s">
         <v>39</v>
       </c>
@@ -6329,9 +6144,7 @@
       <c r="AC53" t="s">
         <v>39</v>
       </c>
-      <c r="AD53" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -6382,9 +6195,7 @@
       <c r="P54" t="s">
         <v>38</v>
       </c>
-      <c r="Q54" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q54"/>
       <c r="R54" t="s">
         <v>39</v>
       </c>
@@ -6417,9 +6228,7 @@
       <c r="AC54" t="s">
         <v>39</v>
       </c>
-      <c r="AD54" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -6466,9 +6275,7 @@
       <c r="P55" t="s">
         <v>38</v>
       </c>
-      <c r="Q55" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q55"/>
       <c r="R55" t="s">
         <v>61</v>
       </c>
@@ -6499,9 +6306,7 @@
       <c r="AC55" t="s">
         <v>39</v>
       </c>
-      <c r="AD55" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -6548,9 +6353,7 @@
       <c r="P56" t="s">
         <v>38</v>
       </c>
-      <c r="Q56" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q56"/>
       <c r="R56" t="s">
         <v>39</v>
       </c>
@@ -6581,9 +6384,7 @@
       <c r="AC56" t="s">
         <v>39</v>
       </c>
-      <c r="AD56" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -6630,9 +6431,7 @@
       <c r="P57" t="s">
         <v>38</v>
       </c>
-      <c r="Q57" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q57"/>
       <c r="R57" t="s">
         <v>39</v>
       </c>
@@ -6663,9 +6462,7 @@
       <c r="AC57" t="s">
         <v>39</v>
       </c>
-      <c r="AD57" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD57"/>
     </row>
     <row r="58">
       <c r="A58"/>
@@ -6708,9 +6505,7 @@
       <c r="P58" t="s">
         <v>38</v>
       </c>
-      <c r="Q58" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q58"/>
       <c r="R58" t="s">
         <v>39</v>
       </c>
@@ -6745,9 +6540,7 @@
       <c r="AC58" t="s">
         <v>39</v>
       </c>
-      <c r="AD58" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD58"/>
     </row>
     <row r="59">
       <c r="A59"/>
@@ -6790,9 +6583,7 @@
       <c r="P59" t="s">
         <v>38</v>
       </c>
-      <c r="Q59" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q59"/>
       <c r="R59" t="s">
         <v>39</v>
       </c>
@@ -6827,9 +6618,7 @@
       <c r="AC59" t="s">
         <v>39</v>
       </c>
-      <c r="AD59" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD59"/>
     </row>
     <row r="60">
       <c r="A60"/>
@@ -6872,9 +6661,7 @@
       <c r="P60" t="s">
         <v>38</v>
       </c>
-      <c r="Q60" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q60"/>
       <c r="R60" t="s">
         <v>39</v>
       </c>
@@ -6909,9 +6696,7 @@
       <c r="AC60" t="s">
         <v>39</v>
       </c>
-      <c r="AD60" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD60"/>
     </row>
     <row r="61">
       <c r="A61"/>
@@ -6954,9 +6739,7 @@
       <c r="P61" t="s">
         <v>38</v>
       </c>
-      <c r="Q61" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q61"/>
       <c r="R61" t="s">
         <v>39</v>
       </c>
@@ -6991,9 +6774,7 @@
       <c r="AC61" t="s">
         <v>39</v>
       </c>
-      <c r="AD61" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD61"/>
     </row>
     <row r="62">
       <c r="A62"/>
@@ -7036,9 +6817,7 @@
       <c r="P62" t="s">
         <v>38</v>
       </c>
-      <c r="Q62" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q62"/>
       <c r="R62" t="s">
         <v>39</v>
       </c>
@@ -7073,9 +6852,7 @@
       <c r="AC62" t="s">
         <v>39</v>
       </c>
-      <c r="AD62" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD62"/>
     </row>
     <row r="63">
       <c r="A63"/>
@@ -7118,9 +6895,7 @@
       <c r="P63" t="s">
         <v>38</v>
       </c>
-      <c r="Q63" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q63"/>
       <c r="R63" t="s">
         <v>39</v>
       </c>
@@ -7155,9 +6930,7 @@
       <c r="AC63" t="s">
         <v>39</v>
       </c>
-      <c r="AD63" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD63"/>
     </row>
     <row r="64">
       <c r="A64"/>
@@ -7200,9 +6973,7 @@
       <c r="P64" t="s">
         <v>90</v>
       </c>
-      <c r="Q64" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q64"/>
       <c r="R64" t="s">
         <v>39</v>
       </c>
@@ -7233,9 +7004,7 @@
       <c r="AC64" t="s">
         <v>39</v>
       </c>
-      <c r="AD64" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD64"/>
     </row>
     <row r="65">
       <c r="A65"/>
@@ -7278,9 +7047,7 @@
       <c r="P65" t="s">
         <v>38</v>
       </c>
-      <c r="Q65" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q65"/>
       <c r="R65" t="s">
         <v>39</v>
       </c>
@@ -7311,9 +7078,7 @@
       <c r="AC65" t="s">
         <v>39</v>
       </c>
-      <c r="AD65" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7512,12 +7277,8 @@
       <c r="AC2" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD2"/>
+      <c r="AE2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -7607,9 +7368,7 @@
       <c r="AC3" t="s">
         <v>161</v>
       </c>
-      <c r="AD3" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD3"/>
       <c r="AE3" t="s">
         <v>277</v>
       </c>
@@ -7700,12 +7459,8 @@
       <c r="AC4" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD4"/>
+      <c r="AE4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -7791,12 +7546,8 @@
       <c r="AC5" t="s">
         <v>39</v>
       </c>
-      <c r="AD5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD5"/>
+      <c r="AE5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -7884,12 +7635,8 @@
       <c r="AC6" t="s">
         <v>39</v>
       </c>
-      <c r="AD6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD6"/>
+      <c r="AE6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -7975,12 +7722,8 @@
       <c r="AC7" t="s">
         <v>39</v>
       </c>
-      <c r="AD7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD7"/>
+      <c r="AE7"/>
     </row>
     <row r="8">
       <c r="A8"/>
@@ -8064,12 +7807,8 @@
       <c r="AC8" t="s">
         <v>39</v>
       </c>
-      <c r="AD8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD8"/>
+      <c r="AE8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -8155,12 +7894,8 @@
       <c r="AC9" t="s">
         <v>39</v>
       </c>
-      <c r="AD9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD9"/>
+      <c r="AE9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -8250,12 +7985,8 @@
       <c r="AC10" t="s">
         <v>39</v>
       </c>
-      <c r="AD10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD10"/>
+      <c r="AE10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -8345,12 +8076,8 @@
       <c r="AC11" t="s">
         <v>39</v>
       </c>
-      <c r="AD11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD11"/>
+      <c r="AE11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -8438,12 +8165,8 @@
       <c r="AC12" t="s">
         <v>39</v>
       </c>
-      <c r="AD12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD12"/>
+      <c r="AE12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -8531,12 +8254,8 @@
       <c r="AC13" t="s">
         <v>39</v>
       </c>
-      <c r="AD13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD13"/>
+      <c r="AE13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -8626,12 +8345,8 @@
       <c r="AC14" t="s">
         <v>39</v>
       </c>
-      <c r="AD14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD14"/>
+      <c r="AE14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -8719,12 +8434,8 @@
       <c r="AC15" t="s">
         <v>39</v>
       </c>
-      <c r="AD15" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD15"/>
+      <c r="AE15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -8812,12 +8523,8 @@
       <c r="AC16" t="s">
         <v>39</v>
       </c>
-      <c r="AD16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD16"/>
+      <c r="AE16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -8905,12 +8612,8 @@
       <c r="AC17" t="s">
         <v>39</v>
       </c>
-      <c r="AD17" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>38</v>
-      </c>
+      <c r="AD17"/>
+      <c r="AE17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17796,9 +17499,7 @@
       <c r="G2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
+      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -17822,9 +17523,7 @@
       <c r="G3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
+      <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -17848,9 +17547,7 @@
       <c r="G4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
+      <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -17874,9 +17571,7 @@
       <c r="G5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
+      <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -17900,9 +17595,7 @@
       <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
+      <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -17926,9 +17619,7 @@
       <c r="G7" t="s">
         <v>39</v>
       </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
+      <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -17952,9 +17643,7 @@
       <c r="G8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
+      <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -17978,9 +17667,7 @@
       <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
+      <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -18004,9 +17691,7 @@
       <c r="G10" t="s">
         <v>39</v>
       </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
+      <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -18030,9 +17715,7 @@
       <c r="G11" t="s">
         <v>39</v>
       </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
+      <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -18056,9 +17739,7 @@
       <c r="G12" t="s">
         <v>39</v>
       </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
+      <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -18082,9 +17763,7 @@
       <c r="G13" t="s">
         <v>39</v>
       </c>
-      <c r="H13" t="s">
-        <v>38</v>
-      </c>
+      <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -18108,9 +17787,7 @@
       <c r="G14" t="s">
         <v>39</v>
       </c>
-      <c r="H14" t="s">
-        <v>38</v>
-      </c>
+      <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -18134,9 +17811,7 @@
       <c r="G15" t="s">
         <v>39</v>
       </c>
-      <c r="H15" t="s">
-        <v>38</v>
-      </c>
+      <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -18160,9 +17835,7 @@
       <c r="G16" t="s">
         <v>39</v>
       </c>
-      <c r="H16" t="s">
-        <v>38</v>
-      </c>
+      <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -18186,9 +17859,7 @@
       <c r="G17" t="s">
         <v>39</v>
       </c>
-      <c r="H17" t="s">
-        <v>38</v>
-      </c>
+      <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -18212,9 +17883,7 @@
       <c r="G18" t="s">
         <v>39</v>
       </c>
-      <c r="H18" t="s">
-        <v>38</v>
-      </c>
+      <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -18238,9 +17907,7 @@
       <c r="G19" t="s">
         <v>39</v>
       </c>
-      <c r="H19" t="s">
-        <v>38</v>
-      </c>
+      <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -18264,9 +17931,7 @@
       <c r="G20" t="s">
         <v>39</v>
       </c>
-      <c r="H20" t="s">
-        <v>38</v>
-      </c>
+      <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -18290,9 +17955,7 @@
       <c r="G21" t="s">
         <v>39</v>
       </c>
-      <c r="H21" t="s">
-        <v>38</v>
-      </c>
+      <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -18316,9 +17979,7 @@
       <c r="G22" t="s">
         <v>39</v>
       </c>
-      <c r="H22" t="s">
-        <v>38</v>
-      </c>
+      <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -18368,9 +18029,7 @@
       <c r="G24" t="s">
         <v>39</v>
       </c>
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
+      <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -18394,9 +18053,7 @@
       <c r="G25" t="s">
         <v>39</v>
       </c>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
+      <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -18420,9 +18077,7 @@
       <c r="G26" t="s">
         <v>39</v>
       </c>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
+      <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -18446,9 +18101,7 @@
       <c r="G27" t="s">
         <v>39</v>
       </c>
-      <c r="H27" t="s">
-        <v>38</v>
-      </c>
+      <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -18472,9 +18125,7 @@
       <c r="G28" t="s">
         <v>39</v>
       </c>
-      <c r="H28" t="s">
-        <v>38</v>
-      </c>
+      <c r="H28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -18498,9 +18149,7 @@
       <c r="G29" t="s">
         <v>39</v>
       </c>
-      <c r="H29" t="s">
-        <v>38</v>
-      </c>
+      <c r="H29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -18524,9 +18173,7 @@
       <c r="G30" t="s">
         <v>39</v>
       </c>
-      <c r="H30" t="s">
-        <v>38</v>
-      </c>
+      <c r="H30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -18550,9 +18197,7 @@
       <c r="G31" t="s">
         <v>39</v>
       </c>
-      <c r="H31" t="s">
-        <v>38</v>
-      </c>
+      <c r="H31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -18576,9 +18221,7 @@
       <c r="G32" t="s">
         <v>39</v>
       </c>
-      <c r="H32" t="s">
-        <v>38</v>
-      </c>
+      <c r="H32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -18602,9 +18245,7 @@
       <c r="G33" t="s">
         <v>39</v>
       </c>
-      <c r="H33" t="s">
-        <v>38</v>
-      </c>
+      <c r="H33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -18628,9 +18269,7 @@
       <c r="G34" t="s">
         <v>39</v>
       </c>
-      <c r="H34" t="s">
-        <v>38</v>
-      </c>
+      <c r="H34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -18654,9 +18293,7 @@
       <c r="G35" t="s">
         <v>39</v>
       </c>
-      <c r="H35" t="s">
-        <v>38</v>
-      </c>
+      <c r="H35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -18680,9 +18317,7 @@
       <c r="G36" t="s">
         <v>39</v>
       </c>
-      <c r="H36" t="s">
-        <v>38</v>
-      </c>
+      <c r="H36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -18706,9 +18341,7 @@
       <c r="G37" t="s">
         <v>39</v>
       </c>
-      <c r="H37" t="s">
-        <v>38</v>
-      </c>
+      <c r="H37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -18732,9 +18365,7 @@
       <c r="G38" t="s">
         <v>39</v>
       </c>
-      <c r="H38" t="s">
-        <v>38</v>
-      </c>
+      <c r="H38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -18758,9 +18389,7 @@
       <c r="G39" t="s">
         <v>39</v>
       </c>
-      <c r="H39" t="s">
-        <v>38</v>
-      </c>
+      <c r="H39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -18784,9 +18413,7 @@
       <c r="G40" t="s">
         <v>39</v>
       </c>
-      <c r="H40" t="s">
-        <v>38</v>
-      </c>
+      <c r="H40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -18810,9 +18437,7 @@
       <c r="G41" t="s">
         <v>39</v>
       </c>
-      <c r="H41" t="s">
-        <v>38</v>
-      </c>
+      <c r="H41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -18836,9 +18461,7 @@
       <c r="G42" t="s">
         <v>39</v>
       </c>
-      <c r="H42" t="s">
-        <v>38</v>
-      </c>
+      <c r="H42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -18862,9 +18485,7 @@
       <c r="G43" t="s">
         <v>39</v>
       </c>
-      <c r="H43" t="s">
-        <v>38</v>
-      </c>
+      <c r="H43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -18888,9 +18509,7 @@
       <c r="G44" t="s">
         <v>39</v>
       </c>
-      <c r="H44" t="s">
-        <v>38</v>
-      </c>
+      <c r="H44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -18940,9 +18559,7 @@
       <c r="G46" t="s">
         <v>39</v>
       </c>
-      <c r="H46" t="s">
-        <v>38</v>
-      </c>
+      <c r="H46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -18966,9 +18583,7 @@
       <c r="G47" t="s">
         <v>39</v>
       </c>
-      <c r="H47" t="s">
-        <v>38</v>
-      </c>
+      <c r="H47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -18992,9 +18607,7 @@
       <c r="G48" t="s">
         <v>39</v>
       </c>
-      <c r="H48" t="s">
-        <v>38</v>
-      </c>
+      <c r="H48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -19018,9 +18631,7 @@
       <c r="G49" t="s">
         <v>39</v>
       </c>
-      <c r="H49" t="s">
-        <v>38</v>
-      </c>
+      <c r="H49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -19044,9 +18655,7 @@
       <c r="G50" t="s">
         <v>39</v>
       </c>
-      <c r="H50" t="s">
-        <v>38</v>
-      </c>
+      <c r="H50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -19070,9 +18679,7 @@
       <c r="G51" t="s">
         <v>39</v>
       </c>
-      <c r="H51" t="s">
-        <v>38</v>
-      </c>
+      <c r="H51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -19096,9 +18703,7 @@
       <c r="G52" t="s">
         <v>39</v>
       </c>
-      <c r="H52" t="s">
-        <v>38</v>
-      </c>
+      <c r="H52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -19122,9 +18727,7 @@
       <c r="G53" t="s">
         <v>39</v>
       </c>
-      <c r="H53" t="s">
-        <v>38</v>
-      </c>
+      <c r="H53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -19148,9 +18751,7 @@
       <c r="G54" t="s">
         <v>39</v>
       </c>
-      <c r="H54" t="s">
-        <v>38</v>
-      </c>
+      <c r="H54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -19174,9 +18775,7 @@
       <c r="G55" t="s">
         <v>39</v>
       </c>
-      <c r="H55" t="s">
-        <v>38</v>
-      </c>
+      <c r="H55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -19200,9 +18799,7 @@
       <c r="G56" t="s">
         <v>39</v>
       </c>
-      <c r="H56" t="s">
-        <v>38</v>
-      </c>
+      <c r="H56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -19226,9 +18823,7 @@
       <c r="G57" t="s">
         <v>39</v>
       </c>
-      <c r="H57" t="s">
-        <v>38</v>
-      </c>
+      <c r="H57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -19250,9 +18845,7 @@
       <c r="G58" t="s">
         <v>39</v>
       </c>
-      <c r="H58" t="s">
-        <v>38</v>
-      </c>
+      <c r="H58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -19274,9 +18867,7 @@
       <c r="G59" t="s">
         <v>39</v>
       </c>
-      <c r="H59" t="s">
-        <v>38</v>
-      </c>
+      <c r="H59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -19298,9 +18889,7 @@
       <c r="G60" t="s">
         <v>39</v>
       </c>
-      <c r="H60" t="s">
-        <v>38</v>
-      </c>
+      <c r="H60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -19322,9 +18911,7 @@
       <c r="G61" t="s">
         <v>39</v>
       </c>
-      <c r="H61" t="s">
-        <v>38</v>
-      </c>
+      <c r="H61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -19346,9 +18933,7 @@
       <c r="G62" t="s">
         <v>39</v>
       </c>
-      <c r="H62" t="s">
-        <v>38</v>
-      </c>
+      <c r="H62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -19370,9 +18955,7 @@
       <c r="G63" t="s">
         <v>39</v>
       </c>
-      <c r="H63" t="s">
-        <v>38</v>
-      </c>
+      <c r="H63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -19394,9 +18977,7 @@
       <c r="G64" t="s">
         <v>39</v>
       </c>
-      <c r="H64" t="s">
-        <v>38</v>
-      </c>
+      <c r="H64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -19418,9 +18999,7 @@
       <c r="G65" t="s">
         <v>39</v>
       </c>
-      <c r="H65" t="s">
-        <v>38</v>
-      </c>
+      <c r="H65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19850,7 +19429,7 @@
         <v>270</v>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
         <v>406</v>
@@ -19865,7 +19444,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="I15" t="s">
         <v>39</v>
@@ -19879,7 +19458,7 @@
         <v>270</v>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
         <v>391</v>
@@ -19894,7 +19473,7 @@
         <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="I16" t="s">
         <v>39</v>
@@ -19908,7 +19487,7 @@
         <v>270</v>
       </c>
       <c r="C17" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>393</v>
@@ -19923,7 +19502,7 @@
         <v>2.5</v>
       </c>
       <c r="H17" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I17" t="s">
         <v>39</v>
@@ -19937,7 +19516,7 @@
         <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>391</v>
@@ -19952,7 +19531,7 @@
         <v>1.5</v>
       </c>
       <c r="H18" t="n">
-        <v>0.51063829787234</v>
+        <v>1</v>
       </c>
       <c r="I18" t="s">
         <v>39</v>
@@ -19966,7 +19545,7 @@
         <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>393</v>
@@ -19981,7 +19560,7 @@
         <v>2.6</v>
       </c>
       <c r="H19" t="n">
-        <v>0.106382978723404</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="I19" t="s">
         <v>39</v>
@@ -20011,6 +19590,11 @@
         <v>408</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>409</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Test_QC_result.xlsx
+++ b/Test_QC_result.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
   <si>
     <t xml:space="preserve">run</t>
   </si>
@@ -1222,22 +1222,13 @@
     <t xml:space="preserve">病原RPK中位数</t>
   </si>
   <si>
-    <t xml:space="preserve">RPK_mean</t>
+    <t xml:space="preserve">病原RPK平均数</t>
   </si>
   <si>
     <t xml:space="preserve">样本频率</t>
   </si>
   <si>
     <t xml:space="preserve">生信预判</t>
-  </si>
-  <si>
-    <t xml:space="preserve">嗜麦芽窄食单胞菌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄曲霉复合群</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分枝杆菌耐药</t>
   </si>
   <si>
     <t xml:space="preserve">Message</t>
@@ -19058,16 +19049,16 @@
         <v>385</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G2" t="n">
-        <v>31.4</v>
+        <v>54</v>
       </c>
       <c r="H2" t="n">
-        <v>0.25</v>
+        <v>0.0625</v>
       </c>
       <c r="I2" t="s">
         <v>39</v>
@@ -19084,19 +19075,19 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="I3" t="s">
         <v>39</v>
@@ -19107,462 +19098,27 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>393</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0625</v>
+        <v>0.127659574468085</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>387</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C6" t="n">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>389</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="n">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>404</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>29</v>
-      </c>
-      <c r="G7" t="n">
-        <v>29</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0212765957446809</v>
-      </c>
-      <c r="I7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="n">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8</v>
-      </c>
-      <c r="F8" t="n">
-        <v>14</v>
-      </c>
-      <c r="G8" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.170212765957447</v>
-      </c>
-      <c r="I8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="n">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>388</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0212765957446809</v>
-      </c>
-      <c r="I9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="n">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0212765957446809</v>
-      </c>
-      <c r="I10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="n">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6</v>
-      </c>
-      <c r="F11" t="n">
-        <v>14</v>
-      </c>
-      <c r="G11" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.127659574468085</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="n">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-      <c r="G12" t="n">
-        <v>6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.0212765957446809</v>
-      </c>
-      <c r="I12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="n">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.0212765957446809</v>
-      </c>
-      <c r="I13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="n">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>405</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.0212765957446809</v>
-      </c>
-      <c r="I14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>270</v>
-      </c>
-      <c r="C15" t="n">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>406</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>270</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>391</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>393</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="n">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>391</v>
-      </c>
-      <c r="E18" t="n">
-        <v>24</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="n">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>393</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="I19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -19582,17 +19138,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
